--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DEDEF7F-4FD3-41FC-8574-EB4DD262D179}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EF293-9584-4DFE-9B1B-6420E314375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -641,8 +641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -686,6 +686,9 @@
       <c r="C3" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="D3" s="1">
+        <v>7.8</v>
+      </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
@@ -833,7 +836,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -844,7 +847,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -855,7 +858,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -865,8 +868,11 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19" s="1">
+        <v>7.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -877,7 +883,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -888,7 +894,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -899,7 +905,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -910,7 +916,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -921,7 +927,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -932,7 +938,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C2EF293-9584-4DFE-9B1B-6420E314375D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D68CA-9112-46AF-86EE-CF1365E052F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -296,6 +296,34 @@
   </si>
   <si>
     <t>Java后端开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.4（简历已挂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易雷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-TikTok直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.7</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -639,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -923,8 +951,8 @@
       <c r="B24" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>60</v>
+      <c r="C24" s="4" t="s">
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
@@ -947,6 +975,28 @@
       </c>
       <c r="C26" s="2" t="s">
         <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{379D68CA-9112-46AF-86EE-CF1365E052F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E69BE4-0D6C-44E5-88AA-AEAEB777BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -324,6 +324,18 @@
   </si>
   <si>
     <t>7.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万得</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（Java）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -667,10 +679,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D28"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -999,6 +1011,17 @@
         <v>71</v>
       </c>
     </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>74</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89E69BE4-0D6C-44E5-88AA-AEAEB777BCC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE08637-5205-41D6-AAF9-08FDB9685261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5850" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -336,6 +336,18 @@
   </si>
   <si>
     <t>7.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趋势科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -679,10 +691,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D29"/>
+  <dimension ref="A1:D30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1022,6 +1034,17 @@
         <v>74</v>
       </c>
     </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6BE08637-5205-41D6-AAF9-08FDB9685261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1052F-3624-411A-9E1C-EFEB530ADE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5850" yWindow="4005" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -348,6 +348,18 @@
   </si>
   <si>
     <t>7.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多益网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -691,10 +703,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1045,6 +1057,17 @@
         <v>77</v>
       </c>
     </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65A1052F-3624-411A-9E1C-EFEB530ADE62}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B29E8E-3750-4A08-964A-7455945A8A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3990" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -360,6 +360,19 @@
   </si>
   <si>
     <t>软件工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科大讯飞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一志愿：Java开发工程师
+第二志愿：测试工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -703,10 +716,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D31"/>
+  <dimension ref="A1:D32"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1068,6 +1081,17 @@
         <v>79</v>
       </c>
     </row>
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33B29E8E-3750-4A08-964A-7455945A8A96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE91F5-E815-4403-BA7E-38C20243B6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -373,6 +373,26 @@
   </si>
   <si>
     <t>7.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远景科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>北京旷视科技有限公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-武汉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -716,22 +736,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D32"/>
+  <dimension ref="A1:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="80" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="71.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -742,7 +762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -753,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -767,7 +787,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -778,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -789,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -803,7 +823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -814,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -825,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -836,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -847,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -858,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -869,7 +889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -880,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -891,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -902,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -913,7 +933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -924,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -935,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -949,7 +969,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -960,7 +980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -971,7 +991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -982,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -993,7 +1013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1004,7 +1024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1015,7 +1035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1026,7 +1046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1037,7 +1057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1048,7 +1068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1059,7 +1079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1070,7 +1090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
@@ -1081,7 +1101,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
         <v>81</v>
       </c>
@@ -1090,6 +1110,28 @@
       </c>
       <c r="C32" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5FE91F5-E815-4403-BA7E-38C20243B6CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50646951-B5DE-4C13-A237-4523B3D770F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3990" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -355,10 +355,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>软件工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -393,6 +389,10 @@
   </si>
   <si>
     <t>后端开发工程师-武汉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.12（简历已挂）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -739,19 +739,19 @@
   <dimension ref="A1:D34"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="71.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -762,7 +762,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -773,7 +773,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -787,7 +787,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -798,7 +798,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -809,7 +809,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -823,7 +823,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -834,7 +834,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -845,7 +845,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -856,7 +856,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -867,7 +867,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -878,7 +878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -889,7 +889,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -900,7 +900,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -911,7 +911,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -922,7 +922,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -933,7 +933,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -944,7 +944,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -955,7 +955,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>42</v>
       </c>
@@ -969,7 +969,7 @@
         <v>7.7</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>45</v>
       </c>
@@ -980,7 +980,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>48</v>
       </c>
@@ -991,7 +991,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>50</v>
       </c>
@@ -1002,7 +1002,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>54</v>
       </c>
@@ -1013,7 +1013,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>58</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>61</v>
       </c>
@@ -1035,7 +1035,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>63</v>
       </c>
@@ -1046,7 +1046,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>66</v>
       </c>
@@ -1057,7 +1057,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>69</v>
       </c>
@@ -1068,7 +1068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>72</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>75</v>
       </c>
@@ -1090,48 +1090,48 @@
         <v>77</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>78</v>
       </c>
       <c r="B31" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="C32" s="2" t="s">
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B33" s="1" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="1" t="s">
+      <c r="C33" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50646951-B5DE-4C13-A237-4523B3D770F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDD5C0-E0D1-4F00-9498-91648664A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3990" yWindow="4020" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40095" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -393,6 +393,31 @@
   </si>
   <si>
     <t>7.12（简历已挂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联想</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣链科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师
+测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.16</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -736,10 +761,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D34"/>
+  <dimension ref="A1:D36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1134,6 +1159,28 @@
         <v>84</v>
       </c>
     </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1BDD5C0-E0D1-4F00-9498-91648664A484}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5FCE1-915B-4A47-B459-AFF5A5C59772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40095" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38055" yWindow="645" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -418,6 +418,26 @@
   </si>
   <si>
     <t>7.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.7（流程中止）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虾皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +487,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -479,6 +499,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -761,22 +784,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D36"/>
+  <dimension ref="A1:E37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="20.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="71.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>11</v>
       </c>
@@ -786,8 +809,11 @@
       <c r="D1" s="1" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -798,7 +824,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -812,7 +838,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -823,7 +849,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>6</v>
       </c>
@@ -834,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>7</v>
       </c>
@@ -847,8 +873,11 @@
       <c r="D6" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="E6" s="1">
+        <v>7.14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>9</v>
       </c>
@@ -859,7 +888,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:4" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>10</v>
       </c>
@@ -870,7 +899,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>20</v>
       </c>
@@ -881,7 +910,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>23</v>
       </c>
@@ -892,7 +921,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>25</v>
       </c>
@@ -903,7 +932,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>27</v>
       </c>
@@ -914,7 +943,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>29</v>
       </c>
@@ -925,7 +954,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>31</v>
       </c>
@@ -936,7 +965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -947,7 +976,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -990,8 +1019,8 @@
       <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="1">
-        <v>7.7</v>
+      <c r="D19" s="5" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
@@ -1179,6 +1208,17 @@
       </c>
       <c r="C36" s="2" t="s">
         <v>94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>99</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C5FCE1-915B-4A47-B459-AFF5A5C59772}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B62B80-051D-434C-A7DE-60A921BCBAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38055" yWindow="645" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="37770" yWindow="1290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -438,6 +438,18 @@
   </si>
   <si>
     <t>7.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小红书</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -784,10 +796,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E37"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1221,6 +1233,17 @@
         <v>99</v>
       </c>
     </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05B62B80-051D-434C-A7DE-60A921BCBAF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D507C-EB98-405C-B8A4-E0F8F41139A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="37770" yWindow="1290" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39270" yWindow="1185" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -450,6 +450,18 @@
   </si>
   <si>
     <t>7.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿盟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>秋招测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,10 +808,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1244,6 +1256,17 @@
         <v>102</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D507C-EB98-405C-B8A4-E0F8F41139A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC9C0-B0F5-4B66-97DF-FE170FB43660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39270" yWindow="1185" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="39810" yWindow="1890" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -462,6 +462,18 @@
   </si>
   <si>
     <t>7.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术研发方向（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -808,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E39"/>
+  <dimension ref="A1:E40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="G28" sqref="G28"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1267,6 +1279,17 @@
         <v>105</v>
       </c>
     </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>108</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB2EC9C0-B0F5-4B66-97DF-FE170FB43660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB89129-E29A-473A-AB83-0689F67ADDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="39810" yWindow="1890" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40665" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -205,10 +205,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>希音</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Java工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -259,14 +255,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java开发工程师-SP</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.25（简历已挂）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -470,6 +458,30 @@
   </si>
   <si>
     <t>技术研发方向（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师-23届</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>希音SHEIN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商证券</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -820,10 +832,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:E41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -843,10 +855,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -907,9 +919,9 @@
         <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="E6" s="1">
+        <v>52</v>
+      </c>
+      <c r="E6" s="5">
         <v>7.14</v>
       </c>
     </row>
@@ -1020,10 +1032,10 @@
         <v>36</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>38</v>
       </c>
@@ -1034,7 +1046,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>40</v>
       </c>
@@ -1045,249 +1057,263 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B19" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="5" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19" s="5" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="B20" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C20" s="2" t="s">
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>36</v>
       </c>
       <c r="C21" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A22" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="B22" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B22" s="3" t="s">
-        <v>51</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="B24" s="1" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="C28" s="2" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="E28" s="5">
+        <v>7.19</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B29" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="C31" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>79</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7CB89129-E29A-473A-AB83-0689F67ADDA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88ABD43-78D4-4B33-B528-E8FB43366510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40665" yWindow="765" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="26010" yWindow="1920" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,6 +486,18 @@
   </si>
   <si>
     <t>7.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>百奥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.26</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -832,10 +844,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E41"/>
+  <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -990,6 +1002,9 @@
       <c r="C12" s="2" t="s">
         <v>22</v>
       </c>
+      <c r="D12" s="1">
+        <v>7.26</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
@@ -1216,6 +1231,9 @@
       <c r="C32" s="2" t="s">
         <v>79</v>
       </c>
+      <c r="D32" s="1">
+        <v>7.23</v>
+      </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
@@ -1314,6 +1332,17 @@
       </c>
       <c r="C41" s="2" t="s">
         <v>111</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B88ABD43-78D4-4B33-B528-E8FB43366510}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274D9D6-0391-402F-8395-DA63260B759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="26010" yWindow="1920" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -40,10 +40,6 @@
   </si>
   <si>
     <t>海尔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -221,10 +217,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6.29</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>哲库</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -498,6 +490,18 @@
   </si>
   <si>
     <t>7.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.19（未做测评）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.29（自撤销）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1（简历已挂）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -846,503 +850,503 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="4" max="4" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D3" s="1">
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="4" t="s">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="C5" s="4" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>8</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" s="5">
         <v>7.14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B8" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="3" t="s">
+      <c r="C8" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="2" t="s">
+    </row>
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="B10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="C10" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="C11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="B12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B12" s="1" t="s">
-        <v>28</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D12" s="1">
         <v>7.26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="B14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C14" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="C15" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="B16" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="4" t="s">
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A22" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="B19" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D19" s="5" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B20" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B24" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B27" s="1" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="C27" s="2" t="s">
+      <c r="B28" s="1" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B28" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="E28" s="5">
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B29" s="1" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="2" t="s">
+      <c r="B30" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="1" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="C30" s="2" t="s">
+      <c r="B31" s="1" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>76</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>77</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>79</v>
       </c>
       <c r="D32" s="1">
         <v>7.23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="B34" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B33" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="B34" s="1" t="s">
+      <c r="C34" s="2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="B35" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B35" s="1" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="B36" s="3" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B37" s="1" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="B38" s="1" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="1" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="B39" s="1" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B39" s="1" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="B40" s="1" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B40" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="1" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" s="1" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5274D9D6-0391-402F-8395-DA63260B759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695964E5-B845-4BAE-9B7F-3702D616F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -238,11 +238,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.1
-第一志愿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>用友集团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -502,6 +497,51 @@
   </si>
   <si>
     <t>7.1（简历已挂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荣耀</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一志愿：软件测试工程师
+第二志愿：服务端研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>东方财富</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（上海）
+Java开发工程师（南京）
+服务端开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金山云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java研发工程师（厦门）
+Java研发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.1（第一志愿）
+7.28（第二志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,22 +888,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E42"/>
+  <dimension ref="A1:E46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.83203125" style="1"/>
+    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
         <v>10</v>
       </c>
@@ -874,10 +914,10 @@
         <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -888,7 +928,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -902,7 +942,7 @@
         <v>7.8</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
@@ -913,7 +953,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -921,10 +961,10 @@
         <v>15</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>6</v>
       </c>
@@ -935,13 +975,13 @@
         <v>7</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>50</v>
+        <v>124</v>
       </c>
       <c r="E6" s="5">
         <v>7.14</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>8</v>
       </c>
@@ -952,7 +992,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>9</v>
       </c>
@@ -963,7 +1003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>19</v>
       </c>
@@ -974,7 +1014,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>22</v>
       </c>
@@ -985,7 +1025,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>24</v>
       </c>
@@ -996,7 +1036,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>26</v>
       </c>
@@ -1010,7 +1050,7 @@
         <v>7.26</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>28</v>
       </c>
@@ -1021,7 +1061,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>30</v>
       </c>
@@ -1032,7 +1072,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>32</v>
       </c>
@@ -1043,7 +1083,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>34</v>
       </c>
@@ -1051,10 +1091,10 @@
         <v>35</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
@@ -1065,7 +1105,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>39</v>
       </c>
@@ -1076,9 +1116,9 @@
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>41</v>
@@ -1087,10 +1127,10 @@
         <v>42</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>43</v>
       </c>
@@ -1098,10 +1138,10 @@
         <v>44</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>45</v>
       </c>
@@ -1109,10 +1149,10 @@
         <v>35</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>47</v>
       </c>
@@ -1123,230 +1163,274 @@
         <v>46</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="C24" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="4" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A25" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B26" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A27" s="1" t="s">
+      <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C27" s="2" t="s">
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28" s="1" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
+      <c r="B28" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>65</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>66</v>
       </c>
       <c r="E28" s="5">
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C29" s="2" t="s">
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A30" s="1" t="s">
+      <c r="B30" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C30" s="2" t="s">
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A31" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="C31" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
-      <c r="A32" s="1" t="s">
+      <c r="B32" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="C32" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>77</v>
       </c>
       <c r="D32" s="1">
         <v>7.23</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B34" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B34" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C35" s="2" t="s">
+    </row>
+    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="1" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A36" s="1" t="s">
+      <c r="B36" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C36" s="2" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C37" s="2" t="s">
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" s="1" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B38" s="1" t="s">
         <v>95</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C38" s="2" t="s">
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" s="1" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="1" t="s">
+      <c r="B39" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C39" s="2" t="s">
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" s="1" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="1" t="s">
+      <c r="B40" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="C40" s="2" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C41" s="2" t="s">
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" s="1" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="1" t="s">
+      <c r="B42" s="1" t="s">
         <v>110</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>112</v>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{695964E5-B845-4BAE-9B7F-3702D616F9BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE51BA3-E375-497C-897E-F9A50BA228DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -542,6 +542,18 @@
   <si>
     <t>7.1（第一志愿）
 7.28（第二志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>快手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -888,10 +900,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E46"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1433,6 +1445,17 @@
         <v>117</v>
       </c>
     </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE51BA3-E375-497C-897E-F9A50BA228DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D4BC8-24C9-495E-8A41-99A90F945319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -554,6 +554,26 @@
   </si>
   <si>
     <t>测试开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地平线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>寒武纪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -900,10 +920,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:E49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1456,6 +1476,28 @@
         <v>126</v>
       </c>
     </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C48" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D6D4BC8-24C9-495E-8A41-99A90F945319}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87021FB3-C2A5-4713-9838-94C41E7CAEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -558,10 +558,6 @@
   </si>
   <si>
     <t>地平线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>java开发工程师（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -922,8 +918,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1481,21 +1477,21 @@
         <v>128</v>
       </c>
       <c r="B48" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87021FB3-C2A5-4713-9838-94C41E7CAEF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960ADDA6-3D2C-4AB2-94E1-8927EE2054AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -570,6 +570,22 @@
   </si>
   <si>
     <t>软件测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>麒麟软件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器研发工程师（简历编号：C00077070）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14（第一志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -916,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E49"/>
+  <dimension ref="A1:E51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -927,8 +943,8 @@
     <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="1"/>
+    <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
@@ -1005,8 +1021,8 @@
       <c r="D6" s="3" t="s">
         <v>124</v>
       </c>
-      <c r="E6" s="5">
-        <v>7.14</v>
+      <c r="E6" s="5" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1492,6 +1508,28 @@
       </c>
       <c r="C49" s="2" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="1">
+        <v>360</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{960ADDA6-3D2C-4AB2-94E1-8927EE2054AB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE66CC6-7CF0-4216-9E8D-2879551298D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="1050" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -51,10 +51,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蔚来</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>6.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -88,11 +84,6 @@
   </si>
   <si>
     <t>【技术中心】后端软件开发（Java）（北京）—研发类</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>志愿顺序：智能语音交互Java架构系统工程师（Nomi）—智能座舱（北京、上海）
-Java后端开发—车联云—数字系统（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -290,10 +281,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>字节</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>后端开发工程师-TikTok直播</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -586,6 +573,58 @@
   </si>
   <si>
     <t>7.14（第一志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（意向上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师-AI智能语音交互-智能座舱（北京）
+第2志愿：Java开发工程师-AI智能语音交互-智能座舱（上海）
+第3志愿：Java后端开发-车联云 - 数字系统</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔚来（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>字节（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：测试开发（上海）
+第2志愿：Java后端开发-车联云-数字系统（合肥）
+第3志愿：Java后端开发-车联云-数字系统（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>传音控股</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（OA）（重庆）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -593,7 +632,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -603,6 +642,14 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -635,7 +682,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -650,6 +697,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -932,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E51"/>
+  <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -949,16 +999,16 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B1" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -966,7 +1016,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
@@ -977,7 +1027,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
@@ -991,10 +1041,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="4" t="s">
         <v>13</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1002,93 +1052,93 @@
         <v>5</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="D6" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>135</v>
+        <v>121</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>19</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D12" s="1">
         <v>7.26</v>
@@ -1096,181 +1146,181 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>63</v>
+        <v>139</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5">
         <v>7.19</v>
@@ -1278,46 +1328,46 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D32" s="1">
         <v>7.23</v>
@@ -1325,200 +1375,200 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1526,10 +1576,43 @@
         <v>360</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
         <v>133</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACE66CC6-7CF0-4216-9E8D-2879551298D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D48CB-AF03-43EF-B464-79CB0F80A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38400" yWindow="1050" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="40515" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -625,6 +625,43 @@
   </si>
   <si>
     <t>8.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>京东</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（上海、北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网易互联网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（北京、杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>理想汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（北京）
+Java研发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿联网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师（厦门）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -982,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B64" sqref="B64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1615,6 +1652,50 @@
         <v>144</v>
       </c>
     </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D6D48CB-AF03-43EF-B464-79CB0F80A678}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BBDA1-761A-4B7D-980F-66FFED83AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40515" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38220" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -662,6 +662,49 @@
   </si>
   <si>
     <t>测试工程师（厦门）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>好未来</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发工程师（Java，北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海康威视</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：测试开发工程师（武汉）
+第2志愿：应用软件开发工程师（武汉）
+第3志愿：测试工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>完美世界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（提前批，北京）
+Java开发工程师（提前批，北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数禾科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鹰角网络（提前批）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1019,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E58"/>
+  <dimension ref="A1:E63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B64" sqref="B64"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1216,7 +1259,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>32</v>
+        <v>163</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -1694,6 +1737,61 @@
       </c>
       <c r="C58" s="2" t="s">
         <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C73BBDA1-761A-4B7D-980F-66FFED83AF16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EF870-36DB-4A65-83AA-48E285DC8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38220" yWindow="2235" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,6 +705,59 @@
   </si>
   <si>
     <t>鹰角网络（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇川技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（深圳、南京）（简历编号：C00425689）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>星环科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依图科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（杭州）
+后端开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>视源CVTE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后台开发工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>去哪儿（趣拿软件科技）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1062,10 +1115,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E63"/>
+  <dimension ref="A1:E69"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B58" sqref="B58"/>
+      <selection activeCell="E67" sqref="E67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1794,6 +1847,72 @@
         <v>156</v>
       </c>
     </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>166</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31EF870-36DB-4A65-83AA-48E285DC8EDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA4E7D-61C1-4C99-AC5F-25E099B23D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="210" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -455,10 +455,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后台开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.21</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -758,6 +754,44 @@
   </si>
   <si>
     <t>Java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乐元素</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：游戏服务端开发工程师（北京）
+第2志愿：游戏测试工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ZURU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>万集科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：java开发工程师（北京）
+第2志愿：测试开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1115,10 +1149,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E69"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1188,24 +1222,24 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1312,7 +1346,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -1365,7 +1399,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1376,7 +1410,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1447,7 +1481,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
@@ -1599,109 +1633,109 @@
         <v>103</v>
       </c>
       <c r="B41" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>106</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>113</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>116</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>118</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>119</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>120</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>127</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>128</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>131</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1709,131 +1743,131 @@
         <v>360</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>133</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>135</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>142</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>146</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>148</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>149</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>151</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>153</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>154</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>155</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>157</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>158</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>160</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>161</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>162</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1841,76 +1875,109 @@
         <v>32</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>165</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>166</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>172</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>174</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>166</v>
+      <c r="B70" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>184</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05DA4E7D-61C1-4C99-AC5F-25E099B23D15}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110F212-C448-4D78-A7B2-42F1DD430A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="201">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -350,10 +350,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>后端开发工程师-武汉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>7.12（简历已挂）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -792,6 +788,82 @@
   </si>
   <si>
     <t>8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇安信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务端开发工程师Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神策数据</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Garena</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后端开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端研发工程师（武汉）
+测试开发工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫光展锐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：软件开发工程师（上海）
+第2志愿：软件开发工程师（成都）
+第3志愿：信息化测试开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-武汉
+测试开发工程师-北京
+后端开发工程师-APU-北京</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14
+8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顺丰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：测试开发工程师（深圳）
+第2志愿：Java开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>经纬恒润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（武汉）
+第2志愿：后端开发工程师（上海）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -849,7 +921,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -868,6 +940,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1149,10 +1224,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75"/>
+    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1175,7 +1250,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1222,24 +1297,24 @@
         <v>14</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1346,7 +1421,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>33</v>
@@ -1379,7 +1454,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>39</v>
@@ -1388,7 +1463,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
@@ -1399,7 +1474,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1410,7 +1485,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1429,10 +1504,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>100</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
@@ -1481,7 +1556,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>61</v>
@@ -1523,7 +1598,7 @@
         <v>70</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1551,191 +1626,191 @@
         <v>75</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>75</v>
+      <c r="B34" s="3" t="s">
+        <v>194</v>
+      </c>
+      <c r="C34" s="7" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B35" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="C36" s="2" t="s">
         <v>84</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>95</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>99</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B43" s="1" t="s">
         <v>111</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>112</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="3" t="s">
         <v>114</v>
       </c>
-      <c r="B44" s="3" t="s">
-        <v>115</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="B45" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="B45" s="3" t="s">
-        <v>117</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="B46" s="3" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="3" t="s">
-        <v>119</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>121</v>
-      </c>
-      <c r="B47" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="B49" s="1" t="s">
         <v>126</v>
       </c>
-      <c r="B49" s="1" t="s">
-        <v>127</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>128</v>
-      </c>
-      <c r="B50" s="1" t="s">
-        <v>130</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
@@ -1743,131 +1818,131 @@
         <v>360</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>132</v>
-      </c>
-      <c r="B52" s="1" t="s">
-        <v>134</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B53" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B54" s="1" t="s">
         <v>141</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B55" s="1" t="s">
         <v>144</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>145</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B56" s="1" t="s">
         <v>147</v>
       </c>
-      <c r="B56" s="1" t="s">
-        <v>148</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="B57" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="B57" s="3" t="s">
-        <v>150</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="B58" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="B58" s="1" t="s">
-        <v>152</v>
-      </c>
       <c r="C58" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>154</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="60" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B60" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="B60" s="3" t="s">
-        <v>157</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="61" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="B61" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="B61" s="3" t="s">
-        <v>159</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B62" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>161</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
@@ -1875,109 +1950,175 @@
         <v>32</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B64" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="B65" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B66" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="B66" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="67" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="B67" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="B67" s="3" t="s">
-        <v>171</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="B68" s="1" t="s">
         <v>172</v>
       </c>
-      <c r="B68" s="1" t="s">
-        <v>173</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B69" s="1" t="s">
         <v>174</v>
       </c>
-      <c r="B69" s="1" t="s">
-        <v>175</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="70" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="B70" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>177</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="B71" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>180</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C72" s="2" t="s">
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
         <v>184</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B74" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>188</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>196</v>
+      </c>
+      <c r="B77" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B78" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5110F212-C448-4D78-A7B2-42F1DD430A1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162332FD-D7E7-4DD4-8B72-4F39E3C19D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -864,6 +864,18 @@
   <si>
     <t>第1志愿：Java开发工程师（武汉）
 第2志愿：后端开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1224,7 +1236,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E78"/>
+  <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
       <selection activeCell="B85" sqref="B85"/>
@@ -2121,6 +2133,17 @@
         <v>198</v>
       </c>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{162332FD-D7E7-4DD4-8B72-4F39E3C19D55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BABA7-728B-4DE5-814A-CAE36EB769F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="210">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -872,6 +872,32 @@
   </si>
   <si>
     <t>软件开发方向</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>标普云科技（邮箱投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>java开发—技术部（武汉）
+java开发—技术部（北京）
+测试开发工程师（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1236,10 +1262,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E79"/>
+  <dimension ref="A1:E81"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="B85" sqref="B85"/>
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2144,6 +2170,28 @@
         <v>203</v>
       </c>
     </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B81" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>209</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977BABA7-728B-4DE5-814A-CAE36EB769F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE97EE4-C2C2-4BD2-962B-7AA9FE0C34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="218">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -653,10 +653,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>测试工程师（厦门）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>好未来</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -902,6 +898,44 @@
   </si>
   <si>
     <t>8.9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浪潮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（Java）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>亿道集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师（Java方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师（厦门）
+Java开发工程师（福建）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.2
+8.10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -959,7 +993,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -967,20 +1001,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1262,10 +1290,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E81"/>
+  <dimension ref="A1:E83"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="C85" sqref="C85"/>
+      <selection activeCell="E84" sqref="E84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1278,919 +1306,1105 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="2"/>
+      <c r="B1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>10</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1">
+      <c r="D3" s="2">
         <v>7.8</v>
       </c>
+      <c r="E3" s="2"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>107</v>
       </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>135</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="4" t="s">
         <v>119</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>16</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>21</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>23</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="1">
+      <c r="D12" s="2">
         <v>7.26</v>
       </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>19</v>
       </c>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="B16" s="1" t="s">
+      <c r="A16" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>49</v>
       </c>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>36</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
       </c>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D19" s="5" t="s">
+      <c r="D19" s="3" t="s">
         <v>85</v>
       </c>
+      <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="4" t="s">
+      <c r="C21" s="3" t="s">
         <v>109</v>
       </c>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>46</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>44</v>
       </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>100</v>
       </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="4" t="s">
+      <c r="C24" s="3" t="s">
         <v>57</v>
       </c>
+      <c r="D24" s="2"/>
+      <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>52</v>
       </c>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>60</v>
       </c>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E28" s="5">
+      <c r="D28" s="2"/>
+      <c r="E28" s="3">
         <v>7.19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>65</v>
       </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>68</v>
       </c>
+      <c r="D30" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="4" t="s">
+      <c r="C31" s="3" t="s">
         <v>78</v>
       </c>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>72</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>7.23</v>
       </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="34" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="C34" s="7" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="36" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>83</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B41" s="1" t="s">
-        <v>180</v>
+      <c r="B41" s="2" t="s">
+        <v>179</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="44" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="3" t="s">
+      <c r="B44" s="4" t="s">
         <v>114</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="45" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="D44" s="2"/>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B45" s="4" t="s">
         <v>116</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="46" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="D45" s="2"/>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="3" t="s">
+      <c r="B46" s="4" t="s">
         <v>118</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="D46" s="2"/>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1">
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
         <v>360</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="53" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="D52" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B53" s="4" t="s">
         <v>138</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>139</v>
       </c>
-    </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>142</v>
       </c>
-    </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B57" s="3" t="s">
+      <c r="B57" s="4" t="s">
         <v>149</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="4" t="s">
+        <v>216</v>
+      </c>
+      <c r="C58" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C58" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="60" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="B60" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B60" s="3" t="s">
+      <c r="C60" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="B61" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B61" s="3" t="s">
+      <c r="C61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B63" s="1" t="s">
-        <v>160</v>
+      <c r="B63" s="2" t="s">
+        <v>159</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="C65" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="C66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="B67" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B67" s="3" t="s">
+      <c r="C67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C67" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="C68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="B69" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B69" s="1" t="s">
+      <c r="C69" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A70" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C69" s="2" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="B70" s="4" t="s">
         <v>175</v>
       </c>
-      <c r="B70" s="3" t="s">
+      <c r="C70" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="B71" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B71" s="1" t="s">
-        <v>179</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>181</v>
       </c>
-      <c r="B72" s="3" t="s">
+      <c r="C72" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C72" s="2" t="s">
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="B73" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B73" s="1" t="s">
+      <c r="C73" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C73" s="2" t="s">
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="74" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="B74" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="B74" s="3" t="s">
+      <c r="B75" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A76" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C74" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="B75" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="B76" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="B76" s="3" t="s">
-        <v>193</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B77" s="3" t="s">
+      <c r="C77" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="78" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="B78" s="4" t="s">
         <v>199</v>
       </c>
-      <c r="B78" s="3" t="s">
+      <c r="C78" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="B79" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B79" s="1" t="s">
+      <c r="C79" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C79" s="2" t="s">
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="C80" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B80" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="C80" s="2" t="s">
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A81" s="2" t="s">
         <v>206</v>
       </c>
-    </row>
-    <row r="81" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="B81" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B81" s="3" t="s">
+      <c r="C81" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C81" s="2" t="s">
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
         <v>209</v>
       </c>
+      <c r="B82" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AE97EE4-C2C2-4BD2-962B-7AA9FE0C34F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242A6A9-963A-44EA-9090-43A721961639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="255" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,10 +379,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.7（流程中止）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>一面</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -564,10 +560,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.14（第一志愿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>美团</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -936,6 +928,36 @@
   <si>
     <t>8.2
 8.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B站</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师
+第2志愿：测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>51job</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14（第一志愿）
+8.2（第二志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.7（流程终止）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -993,7 +1015,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1007,8 +1029,11 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1290,10 +1315,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E83"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G18" sqref="G18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1317,7 +1342,7 @@
         <v>47</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1369,26 +1394,26 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>130</v>
+        <v>118</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>221</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1512,7 +1537,7 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>33</v>
@@ -1551,7 +1576,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>39</v>
@@ -1560,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>85</v>
+        <v>222</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1572,7 +1597,7 @@
         <v>42</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
@@ -1585,7 +1610,7 @@
         <v>33</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
@@ -1608,10 +1633,10 @@
         <v>48</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>99</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>100</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
@@ -1670,7 +1695,7 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>61</v>
@@ -1707,7 +1732,7 @@
         <v>68</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E30" s="2"/>
     </row>
@@ -1757,10 +1782,10 @@
         <v>77</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
@@ -1793,182 +1818,182 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>88</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>89</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>91</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>92</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="2" t="s">
         <v>94</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>95</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="2" t="s">
         <v>97</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>98</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>106</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>121</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>126</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>127</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>128</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -1978,155 +2003,155 @@
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>133</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>142</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>143</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>145</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C58" s="4" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>151</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
@@ -2136,275 +2161,297 @@
         <v>32</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>162</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>174</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>176</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>180</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>183</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>184</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>190</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>192</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>200</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>203</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>209</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>210</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>211</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>218</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6242A6A9-963A-44EA-9090-43A721961639}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD558163-DF5B-4D07-9959-BC5117932E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="223">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -960,12 +960,57 @@
     <t>7.7（流程终止）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>字节（正式批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师-抖音/抖音火山版（北京）
+测试开发工程师-抖音/抖音火山版（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>创维酷开科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏服务端开发（杭州、上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12（第1志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.12（测试开发工程师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -986,6 +1031,20 @@
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1015,7 +1074,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1034,6 +1093,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1315,18 +1380,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E85"/>
+  <dimension ref="A1:E88"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="76" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1813,7 +1879,9 @@
       <c r="C36" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="2"/>
+      <c r="D36" s="8" t="s">
+        <v>233</v>
+      </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1852,7 +1920,9 @@
       <c r="C39" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="2"/>
+      <c r="D39" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1865,7 +1935,9 @@
       <c r="C40" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="2"/>
+      <c r="D40" s="7" t="s">
+        <v>231</v>
+      </c>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2127,7 +2199,9 @@
       <c r="C60" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2" t="s">
+        <v>232</v>
+      </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -2451,6 +2525,39 @@
       </c>
       <c r="C85" s="2" t="s">
         <v>218</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>228</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD558163-DF5B-4D07-9959-BC5117932E1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8770DE6-EB6F-4F3C-B109-768602BED186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="236">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -926,11 +926,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.2
-8.10</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>B站</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -994,15 +989,49 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.12</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>8.12（第1志愿）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.12（测试开发工程师）</t>
+    <t>途虎养车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（武汉）
+Java开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.2（HR电话通知不匹配）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8.10</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1010,7 +1039,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1047,6 +1076,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1074,7 +1111,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1094,11 +1131,14 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1380,10 +1420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E88"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1391,8 +1431,7 @@
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1479,7 +1518,7 @@
         <v>118</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1651,7 +1690,7 @@
         <v>40</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1876,12 +1915,10 @@
       <c r="B36" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C36" s="2" t="s">
+      <c r="C36" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="D36" s="8" t="s">
-        <v>233</v>
-      </c>
+      <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
@@ -1917,12 +1954,10 @@
       <c r="B39" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
@@ -1932,12 +1967,10 @@
       <c r="B40" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="7" t="s">
-        <v>231</v>
-      </c>
+      <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
@@ -2163,17 +2196,17 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>214</v>
       </c>
-      <c r="C58" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="D58" s="2"/>
+      <c r="C58" s="9" t="s">
+        <v>234</v>
+      </c>
+      <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
@@ -2186,7 +2219,9 @@
       <c r="C59" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="D59" s="2"/>
+      <c r="D59" s="2" t="s">
+        <v>235</v>
+      </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
@@ -2200,7 +2235,7 @@
         <v>151</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="E60" s="2"/>
     </row>
@@ -2385,7 +2420,9 @@
       <c r="C74" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D74" s="2"/>
+      <c r="D74" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -2507,57 +2544,68 @@
     </row>
     <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>216</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>217</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>219</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>220</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>230</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>232</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8770DE6-EB6F-4F3C-B109-768602BED186}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605CD5E-FE38-424E-B1E1-78DFA7DED624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="F63" sqref="F63"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1673,8 +1673,8 @@
       <c r="B18" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>34</v>
+      <c r="C18" s="3" t="s">
+        <v>49</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B605CD5E-FE38-424E-B1E1-78DFA7DED624}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7F4F5-53E7-49CF-8849-55707EFAB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1422,8 +1422,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E89"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="E76" sqref="E76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2F7F4F5-53E7-49CF-8849-55707EFAB393}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0578765-2584-4B12-8F51-9EEA60130ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="248">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -98,10 +98,6 @@
 第二志愿：软件开发工程师
 （领域）数据库开发工程师
 意向部门：光产品线、公共开发部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>广联达</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1032,6 +1028,60 @@
   </si>
   <si>
     <t>8.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16（第1志愿）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>度小满</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java研发工程师-技术体系
+后端研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恒生电子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>广联达（正式批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师
+测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博世</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（苏州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>贝壳找房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（简历编号 C02630550）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1420,10 +1470,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="E76" sqref="E76"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="G81" sqref="G81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1444,10 +1494,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1499,26 +1549,26 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1549,52 +1599,52 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>19</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>21</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D12" s="2">
         <v>7.26</v>
@@ -1603,210 +1653,210 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>29</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>31</v>
-      </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>36</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D19" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>42</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="B22" s="4" t="s">
-        <v>46</v>
-      </c>
       <c r="C22" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>62</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="3">
@@ -1815,54 +1865,54 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>64</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>65</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>70</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>72</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>73</v>
       </c>
       <c r="D32" s="2">
         <v>7.23</v>
@@ -1871,234 +1921,234 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>191</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>192</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>80</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>81</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>83</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>84</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>87</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>88</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>90</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>91</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>93</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>94</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>96</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>97</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>101</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>102</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>104</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>105</v>
       </c>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>111</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>113</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>114</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>115</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>116</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>117</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C48" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>123</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
@@ -2108,504 +2158,563 @@
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>130</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>135</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>137</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>140</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>142</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>143</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>145</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>151</v>
-      </c>
       <c r="D59" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>153</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>154</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>155</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>157</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>163</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>165</v>
-      </c>
       <c r="C66" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>167</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>171</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>172</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>178</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>182</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>183</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>186</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>188</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>193</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>194</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>196</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>197</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D78" s="2"/>
-      <c r="E78" s="2"/>
+      <c r="E78" s="2" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>199</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>200</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>202</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>203</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>209</v>
-      </c>
-      <c r="D82" s="2"/>
+      <c r="D82" s="2" t="s">
+        <v>238</v>
+      </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>218</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>219</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>223</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>229</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>233</v>
+    </row>
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0578765-2584-4B12-8F51-9EEA60130ACF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97290977-C990-46CB-8FBC-D5E19BA12662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1472,20 +1472,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="G81" sqref="G81"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1500,7 +1500,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1513,7 +1513,7 @@
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1528,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1541,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1554,14 +1554,14 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>132</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
@@ -1571,7 +1571,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1584,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1597,7 +1597,7 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>241</v>
       </c>
@@ -1610,7 +1610,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1623,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1636,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1651,7 +1651,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1677,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1690,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -1703,7 +1703,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1716,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1729,7 +1729,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>99</v>
       </c>
@@ -1744,7 +1744,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1757,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1770,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1783,7 +1783,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1796,7 +1796,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1809,7 +1809,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1822,7 +1822,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1835,7 +1835,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1848,7 +1848,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>134</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1876,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1891,7 +1891,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1904,7 +1904,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1919,7 +1919,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1932,7 +1932,7 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
@@ -1945,7 +1945,7 @@
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1958,7 +1958,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1971,7 +1971,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1984,7 +1984,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -1997,7 +1997,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2010,7 +2010,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -2023,7 +2023,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
@@ -2036,7 +2036,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -2049,7 +2049,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
@@ -2062,7 +2062,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2075,7 +2075,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -2088,7 +2088,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -2101,7 +2101,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -2114,7 +2114,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
@@ -2127,7 +2127,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>123</v>
       </c>
@@ -2140,7 +2140,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>125</v>
       </c>
@@ -2153,7 +2153,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2166,7 +2166,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -2181,20 +2181,20 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B53" s="4" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C53" s="3" t="s">
         <v>136</v>
       </c>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>137</v>
       </c>
@@ -2207,7 +2207,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>140</v>
       </c>
@@ -2220,7 +2220,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
@@ -2233,7 +2233,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>145</v>
       </c>
@@ -2246,7 +2246,7 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
@@ -2259,7 +2259,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
@@ -2274,7 +2274,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -2289,7 +2289,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>153</v>
       </c>
@@ -2302,7 +2302,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>155</v>
       </c>
@@ -2315,7 +2315,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2328,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>158</v>
       </c>
@@ -2341,7 +2341,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
@@ -2354,7 +2354,7 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>163</v>
       </c>
@@ -2367,7 +2367,7 @@
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>165</v>
       </c>
@@ -2380,7 +2380,7 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>167</v>
       </c>
@@ -2395,7 +2395,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>169</v>
       </c>
@@ -2408,7 +2408,7 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>171</v>
       </c>
@@ -2421,7 +2421,7 @@
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>174</v>
       </c>
@@ -2434,7 +2434,7 @@
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>177</v>
       </c>
@@ -2447,7 +2447,7 @@
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>180</v>
       </c>
@@ -2460,7 +2460,7 @@
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>183</v>
       </c>
@@ -2475,7 +2475,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>184</v>
       </c>
@@ -2488,7 +2488,7 @@
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>187</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>192</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>195</v>
       </c>
@@ -2529,7 +2529,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>197</v>
       </c>
@@ -2542,7 +2542,7 @@
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>201</v>
       </c>
@@ -2555,7 +2555,7 @@
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>203</v>
       </c>
@@ -2568,7 +2568,7 @@
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>206</v>
       </c>
@@ -2583,7 +2583,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>209</v>
       </c>
@@ -2596,7 +2596,7 @@
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>214</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>217</v>
       </c>
@@ -2618,7 +2618,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>221</v>
       </c>
@@ -2629,7 +2629,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>224</v>
       </c>
@@ -2640,7 +2640,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>227</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>230</v>
       </c>
@@ -2662,7 +2662,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>236</v>
       </c>
@@ -2673,7 +2673,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>239</v>
       </c>
@@ -2684,7 +2684,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>242</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>244</v>
       </c>
@@ -2706,7 +2706,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>246</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97290977-C990-46CB-8FBC-D5E19BA12662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80AD43-967A-4D5F-B117-F69DF0AD14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="259">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -705,10 +705,6 @@
   </si>
   <si>
     <t>星环科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试工程师（上海）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1082,6 +1078,59 @@
   </si>
   <si>
     <t>Java开发工程师（简历编号 C02630550）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奥比中光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：软件开发工程师-Java（上海）
+第2志愿：软件测试工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>佳都科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java后端开发工程师（广州）
+第2志愿：软件测试工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IT开发工程师-JAVA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：软件开发工程师-java（武汉、上海）
+第2志愿：测试开发工程师（武汉、上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华勤集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试工程师（上海）
+java后端研发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6
+8.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1470,22 +1519,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E94"/>
+  <dimension ref="A1:E98"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="E88" sqref="E88"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1500,7 +1549,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1511,9 +1560,11 @@
         <v>4</v>
       </c>
       <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="E2" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1528,7 +1579,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1541,7 +1592,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1554,7 +1605,7 @@
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>133</v>
       </c>
@@ -1568,10 +1619,10 @@
         <v>117</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1584,7 +1635,7 @@
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1597,9 +1648,9 @@
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1610,7 +1661,7 @@
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1623,7 +1674,7 @@
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1636,7 +1687,7 @@
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1651,7 +1702,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1664,7 +1715,7 @@
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1677,7 +1728,7 @@
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1690,7 +1741,7 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>157</v>
       </c>
@@ -1703,7 +1754,7 @@
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1716,7 +1767,7 @@
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1729,7 +1780,7 @@
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>99</v>
       </c>
@@ -1740,11 +1791,11 @@
         <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1757,7 +1808,7 @@
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1770,7 +1821,7 @@
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>44</v>
       </c>
@@ -1783,7 +1834,7 @@
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>47</v>
       </c>
@@ -1796,7 +1847,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>49</v>
       </c>
@@ -1809,7 +1860,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>52</v>
       </c>
@@ -1822,7 +1873,7 @@
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>54</v>
       </c>
@@ -1835,7 +1886,7 @@
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>57</v>
       </c>
@@ -1848,7 +1899,7 @@
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>134</v>
       </c>
@@ -1863,7 +1914,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>62</v>
       </c>
@@ -1876,7 +1927,7 @@
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>65</v>
       </c>
@@ -1887,11 +1938,11 @@
         <v>67</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>68</v>
       </c>
@@ -1904,7 +1955,7 @@
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>70</v>
       </c>
@@ -1919,7 +1970,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
@@ -1932,20 +1983,20 @@
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>190</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>191</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>78</v>
       </c>
@@ -1958,7 +2009,7 @@
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>81</v>
       </c>
@@ -1971,7 +2022,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>85</v>
       </c>
@@ -1984,7 +2035,7 @@
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>88</v>
       </c>
@@ -1997,7 +2048,7 @@
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>91</v>
       </c>
@@ -2010,7 +2061,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>94</v>
       </c>
@@ -2023,12 +2074,12 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>101</v>
@@ -2036,7 +2087,7 @@
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>102</v>
       </c>
@@ -2049,7 +2100,7 @@
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>108</v>
       </c>
@@ -2062,7 +2113,7 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>111</v>
       </c>
@@ -2075,7 +2126,7 @@
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>113</v>
       </c>
@@ -2088,7 +2139,7 @@
       <c r="D45" s="2"/>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>115</v>
       </c>
@@ -2101,7 +2152,7 @@
       <c r="D46" s="2"/>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>118</v>
       </c>
@@ -2114,7 +2165,7 @@
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>121</v>
       </c>
@@ -2127,7 +2178,7 @@
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>123</v>
       </c>
@@ -2140,7 +2191,7 @@
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>125</v>
       </c>
@@ -2153,7 +2204,7 @@
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2166,7 +2217,7 @@
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>128</v>
       </c>
@@ -2177,11 +2228,11 @@
         <v>129</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>131</v>
       </c>
@@ -2194,7 +2245,7 @@
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>137</v>
       </c>
@@ -2207,7 +2258,7 @@
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>140</v>
       </c>
@@ -2220,7 +2271,7 @@
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>143</v>
       </c>
@@ -2233,7 +2284,7 @@
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>145</v>
       </c>
@@ -2246,20 +2297,20 @@
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>148</v>
       </c>
@@ -2270,11 +2321,11 @@
         <v>150</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>151</v>
       </c>
@@ -2285,11 +2336,11 @@
         <v>150</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>153</v>
       </c>
@@ -2302,7 +2353,7 @@
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>155</v>
       </c>
@@ -2315,7 +2366,7 @@
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2328,7 +2379,7 @@
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>158</v>
       </c>
@@ -2341,7 +2392,7 @@
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>161</v>
       </c>
@@ -2354,25 +2405,25 @@
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B66" s="2" t="s">
-        <v>164</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>160</v>
+      <c r="B66" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>258</v>
       </c>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>165</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>166</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>160</v>
@@ -2380,27 +2431,27 @@
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>168</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>160</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>160</v>
@@ -2408,313 +2459,357 @@
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>171</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>172</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>173</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>175</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>181</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>182</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>186</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>232</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>185</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>188</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>192</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="D78" s="2"/>
+      <c r="E78" s="7" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>194</v>
-      </c>
-      <c r="D78" s="2"/>
-      <c r="E78" s="2" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>198</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>199</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>201</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>202</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>203</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>204</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>205</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="C82" s="2" t="s">
+      <c r="D82" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="D82" s="2" t="s">
-        <v>238</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="2" t="s">
+      <c r="B83" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="C84" s="2" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
+      <c r="B85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>221</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="C86" s="2" t="s">
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" s="1" t="s">
+      <c r="B87" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="C87" s="2" t="s">
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="1" t="s">
+      <c r="B88" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>228</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>230</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>236</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="C90" s="2" t="s">
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="1" t="s">
+      <c r="B91" s="1" t="s">
         <v>239</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>240</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>242</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="C92" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="C92" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="1" t="s">
+      <c r="B93" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="C93" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="C93" s="2" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="1" t="s">
+      <c r="B94" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="C94" s="2" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="C94" s="2" t="s">
-        <v>238</v>
+      <c r="B95" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>255</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B80AD43-967A-4D5F-B117-F69DF0AD14FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD3C81-60B8-46B4-8536-A5C71FCC14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="262">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1131,6 +1131,18 @@
   <si>
     <t>8.6
 8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>六方云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1519,10 +1531,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E98"/>
+  <dimension ref="A1:E99"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="E88" sqref="E88"/>
+      <selection activeCell="H96" sqref="H96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2812,6 +2824,17 @@
         <v>255</v>
       </c>
     </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECD3C81-60B8-46B4-8536-A5C71FCC14C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0E1A5C-5688-4425-A9BF-43288791F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="282">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,10 +209,6 @@
   </si>
   <si>
     <t>7.1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OPPO</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1143,6 +1139,95 @@
   </si>
   <si>
     <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.19</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三七互娱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mobvista</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阿里</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：测试开发工程师
+第2志愿：研发工程师Java
+第3志愿：菜鸟-研发工程师Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>微众银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO（提前批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPPO（正式批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：IT开发工程师后端（深圳）
+第2志愿：软件测试开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>容知日新</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（合肥）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tap4fun</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：服务器开发工程师
+第2志愿：游戏测试开发工程师
+第3志愿：客户端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1531,18 +1616,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E99"/>
+  <dimension ref="A1:E107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="H96" sqref="H96"/>
+    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
+      <selection activeCell="C107" sqref="C107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -1555,10 +1640,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1571,9 +1656,8 @@
       <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="2"/>
       <c r="E2" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1601,7 +1685,6 @@
       <c r="C4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
@@ -1612,26 +1695,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5" s="2"/>
+        <v>104</v>
+      </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1644,7 +1726,6 @@
       <c r="C7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
@@ -1657,12 +1738,11 @@
       <c r="C8" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1670,7 +1750,6 @@
       <c r="C9" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
     </row>
     <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1683,7 +1762,6 @@
       <c r="C10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -1696,7 +1774,6 @@
       <c r="C11" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -1724,7 +1801,6 @@
       <c r="C13" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1737,7 +1813,6 @@
       <c r="C14" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -1750,20 +1825,18 @@
       <c r="C15" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D16" s="2"/>
+        <v>47</v>
+      </c>
       <c r="E16" s="2"/>
     </row>
     <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1776,7 +1849,6 @@
       <c r="C17" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="2"/>
       <c r="E17" s="2"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
@@ -1787,14 +1859,13 @@
         <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="D18" s="2"/>
+        <v>47</v>
+      </c>
       <c r="E18" s="2"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -1803,7 +1874,7 @@
         <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E19" s="2"/>
     </row>
@@ -1815,9 +1886,8 @@
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D20" s="2"/>
+        <v>105</v>
+      </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
@@ -1828,154 +1898,144 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D21" s="2"/>
+        <v>106</v>
+      </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>44</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>45</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D22" s="2"/>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>55</v>
+      </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D25" s="2"/>
+        <v>50</v>
+      </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D26" s="2"/>
+        <v>50</v>
+      </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="C27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2"/>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D28" s="2"/>
       <c r="E28" s="3">
         <v>7.19</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D29" s="2"/>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>67</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>76</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>71</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>72</v>
       </c>
       <c r="D32" s="2">
         <v>7.23</v>
@@ -1984,236 +2044,221 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C33" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>189</v>
       </c>
-      <c r="C34" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C38" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>92</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>93</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>95</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>96</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="D42" s="2"/>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>112</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="2"/>
+        <v>109</v>
+      </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>114</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D45" s="2"/>
+        <v>109</v>
+      </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>116</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="D46" s="2"/>
+        <v>109</v>
+      </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="D47" s="2"/>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D48" s="2"/>
+        <v>121</v>
+      </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>124</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D49" s="2"/>
+        <v>121</v>
+      </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
@@ -2221,161 +2266,153 @@
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D51" s="2"/>
+        <v>125</v>
+      </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="C53" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C55" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>144</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>141</v>
+      </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>145</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>141</v>
+      </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>233</v>
+      <c r="D59" s="3" t="s">
+        <v>232</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>152</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>154</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D61" s="2"/>
+        <v>149</v>
+      </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>156</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D62" s="2"/>
+        <v>149</v>
+      </c>
       <c r="E62" s="2"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.2">
@@ -2383,456 +2420,529 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D63" s="2"/>
+        <v>149</v>
+      </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="2"/>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D65" s="2"/>
+        <v>159</v>
+      </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>257</v>
       </c>
-      <c r="C66" s="4" t="s">
-        <v>258</v>
-      </c>
-      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>164</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>165</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D67" s="2"/>
+        <v>159</v>
+      </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>168</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>169</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D69" s="2"/>
+        <v>159</v>
+      </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>170</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C70" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D70" s="2"/>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>174</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="D71" s="2"/>
+        <v>171</v>
+      </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="C72" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D72" s="2"/>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D73" s="2"/>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E74" s="2"/>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="D75" s="2"/>
+        <v>180</v>
+      </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D76" s="2"/>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="C77" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D77" s="2"/>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>195</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="D78" s="2"/>
+        <v>192</v>
+      </c>
       <c r="E78" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C79" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="D79" s="2"/>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B80" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>202</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="C81" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>207</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D83" s="2"/>
+        <v>206</v>
+      </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>213</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="C84" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B85" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="B85" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>220</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="C86" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="B87" s="1" t="s">
         <v>223</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="C87" s="2" t="s">
         <v>224</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="B88" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="B88" s="1" t="s">
-        <v>227</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B89" s="5" t="s">
         <v>229</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="C89" s="2" t="s">
         <v>230</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>235</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="C90" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B91" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="B91" s="1" t="s">
-        <v>239</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" s="5" t="s">
         <v>241</v>
       </c>
-      <c r="B92" s="5" t="s">
-        <v>242</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B93" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B93" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="B94" s="1" t="s">
-        <v>246</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B95" s="5" t="s">
         <v>247</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="C95" s="2" t="s">
         <v>248</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B96" s="5" t="s">
         <v>250</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="C96" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B97" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="C96" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="B97" s="1" t="s">
+      <c r="C97" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
         <v>252</v>
       </c>
-      <c r="C97" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="B98" s="5" t="s">
         <v>253</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="C98" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C98" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B99" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="C99" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="C99" s="2" t="s">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
         <v>261</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C107" s="2" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D0E1A5C-5688-4425-A9BF-43288791F108}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3615B25-3E8A-4E62-8A09-DB9AFB34B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="290">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -330,10 +330,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>7.14</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>远景科技</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,10 +420,6 @@
   </si>
   <si>
     <t>Java开发工程师-23届</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1228,6 +1220,47 @@
   </si>
   <si>
     <t>8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21（测开北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.22（简历已挂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.14（简历已挂）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网龙网络（51job）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工具开发程序员（福州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦点科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中信银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：信息开发岗（程序开发）（北京）
+第2志愿：信息开发岗（测试开发）（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1616,22 +1649,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E107"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" workbookViewId="0">
-      <selection activeCell="C107" sqref="C107"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1643,10 +1676,10 @@
         <v>45</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1657,10 +1690,10 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1675,7 +1708,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1687,7 +1720,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1695,28 +1728,28 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1728,7 +1761,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1740,9 +1773,9 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1752,7 +1785,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1764,7 +1797,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1776,7 +1809,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1824,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1803,7 +1836,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1815,7 +1848,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1827,9 +1860,9 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
@@ -1839,7 +1872,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1851,7 +1884,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1863,9 +1896,9 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>38</v>
@@ -1874,11 +1907,11 @@
         <v>39</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1886,11 +1919,11 @@
         <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1898,13 +1931,13 @@
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>44</v>
@@ -1914,19 +1947,19 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>281</v>
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1938,7 +1971,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1950,7 +1983,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1962,7 +1995,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -1974,9 +2007,9 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>59</v>
@@ -1988,7 +2021,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2000,7 +2033,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2011,11 +2044,11 @@
         <v>66</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2023,11 +2056,11 @@
         <v>68</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2042,907 +2075,943 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C33" s="2" t="s">
-        <v>73</v>
+      <c r="C33" s="3" t="s">
+        <v>282</v>
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C35" s="2" t="s">
+      <c r="E35" s="2"/>
+    </row>
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A36" s="2" t="s">
+      <c r="B36" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>81</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>82</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
+      <c r="B38" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="C38" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C38" s="2" t="s">
+      <c r="E38" s="2"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
+      <c r="B39" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>91</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>92</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>94</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>95</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="2"/>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="B41" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="C41" s="2" t="s">
+      <c r="B42" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B42" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>103</v>
-      </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="E43" s="2"/>
+    </row>
+    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="C43" s="2" t="s">
+      <c r="B44" s="4" t="s">
         <v>109</v>
       </c>
-      <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A44" s="2" t="s">
+      <c r="C44" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" s="2"/>
+    </row>
+    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B45" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="C44" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A45" s="2" t="s">
+      <c r="C45" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E45" s="2"/>
+    </row>
+    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B46" s="4" t="s">
         <v>113</v>
       </c>
-      <c r="C45" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A46" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B46" s="4" t="s">
+      <c r="C46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="E46" s="2"/>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="C46" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A47" s="2" t="s">
+      <c r="B47" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C47" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="2"/>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A48" s="2" t="s">
-        <v>120</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E48" s="2"/>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A49" s="2" t="s">
+      <c r="C49" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="E49" s="2"/>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B50" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A50" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>125</v>
-      </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C51" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E51" s="2"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A52" s="2" t="s">
+      <c r="B52" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>129</v>
-      </c>
       <c r="C52" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="E52" s="2"/>
+    </row>
+    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="B53" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="2"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="E54" s="2"/>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E55" s="2"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E56" s="2"/>
+    </row>
+    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="E57" s="2"/>
+    </row>
+    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B58" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A53" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="B53" s="4" t="s">
-        <v>134</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A54" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A55" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A56" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A57" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B57" s="4" t="s">
-        <v>145</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A58" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>211</v>
-      </c>
       <c r="C58" s="9" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="D59" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="E59" s="2"/>
+    </row>
+    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="2" t="s">
+      <c r="B60" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="D59" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A60" s="2" t="s">
+      <c r="C60" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="E60" s="2"/>
+    </row>
+    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="B60" s="4" t="s">
+      <c r="B61" s="4" t="s">
         <v>151</v>
       </c>
-      <c r="C60" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A61" s="2" t="s">
+      <c r="C61" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E61" s="2"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B62" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C61" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A62" s="2" t="s">
-        <v>154</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="E63" s="2"/>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C63" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A64" s="2" t="s">
+      <c r="B64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="E64" s="2"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C64" s="2" t="s">
+      <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="C65" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B66" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="C66" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+      <c r="B67" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B66" s="4" t="s">
+      <c r="C67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E67" s="2"/>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E68" s="2"/>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="E69" s="2"/>
+    </row>
+    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E70" s="2"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="C72" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E72" s="2"/>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E73" s="2"/>
+    </row>
+    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="E74" s="2"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="E75" s="2"/>
+    </row>
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="C76" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="E76" s="2"/>
+    </row>
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E77" s="2"/>
+    </row>
+    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B78" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C78" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="E78" s="7" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="E79" s="2"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="E80" s="2"/>
+    </row>
+    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C81" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="E81" s="2"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="E82" s="2"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="C83" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="E83" s="2"/>
+    </row>
+    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>211</v>
+      </c>
+      <c r="C84" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="C85" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C86" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C87" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>239</v>
+      </c>
+      <c r="C92" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="C94" s="2" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B96" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
         <v>256</v>
       </c>
-      <c r="C66" s="4" t="s">
+      <c r="B99" s="1" t="s">
         <v>257</v>
       </c>
-      <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A67" s="2" t="s">
-        <v>163</v>
-      </c>
-      <c r="B67" s="4" t="s">
-        <v>164</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A68" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A69" s="2" t="s">
-        <v>167</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A70" s="2" t="s">
-        <v>169</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A71" s="2" t="s">
-        <v>172</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>173</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A72" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A73" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A74" s="2" t="s">
-        <v>181</v>
-      </c>
-      <c r="B74" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E74" s="2"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="C75" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A76" s="2" t="s">
-        <v>185</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A77" s="2" t="s">
-        <v>190</v>
-      </c>
-      <c r="B77" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="B78" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C78" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="E78" s="7" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
-        <v>195</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>196</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A80" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A81" s="2" t="s">
-        <v>201</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>202</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A82" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B82" s="2" t="s">
-        <v>205</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="D82" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A83" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>208</v>
-      </c>
-      <c r="C83" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
-        <v>212</v>
-      </c>
-      <c r="B84" s="5" t="s">
-        <v>213</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="B85" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="C85" s="2" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
-        <v>219</v>
-      </c>
-      <c r="B86" s="5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>223</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>225</v>
-      </c>
-      <c r="B88" s="1" t="s">
-        <v>226</v>
-      </c>
-      <c r="C88" s="2" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="B89" s="5" t="s">
-        <v>229</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>235</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="B91" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="C91" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
-        <v>240</v>
-      </c>
-      <c r="B92" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="C92" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
-        <v>242</v>
-      </c>
-      <c r="B93" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="C93" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="B94" s="1" t="s">
-        <v>245</v>
-      </c>
-      <c r="C94" s="2" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>247</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>250</v>
-      </c>
-      <c r="C96" s="2" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="B97" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="C97" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="D97" s="2" t="s">
+      <c r="C99" s="2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="C100" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B103" s="5" t="s">
         <v>268</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>253</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="B99" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="B101" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="C101" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
-        <v>267</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="C102" s="2" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="C103" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B103" s="5" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A104" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="C103" s="2" t="s">
+      <c r="B104" s="5" t="s">
         <v>271</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="B104" s="5" t="s">
+      <c r="C104" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="C104" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="B105" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B106" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="C106" s="2" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B107" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C106" s="2" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="C107" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B107" s="5" t="s">
-        <v>280</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>281</v>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="C109" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3615B25-3E8A-4E62-8A09-DB9AFB34B68E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EAD79-6BD0-49AB-A99B-8EE758EA12CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="297">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1261,6 +1261,35 @@
   <si>
     <t>第1志愿：信息开发岗（程序开发）（北京）
 第2志愿：信息开发岗（测试开发）（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新奥集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.21</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满帮集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（南京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极智嘉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（系统）（北京）
+第2志愿：Java开发工程师（苏州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1649,22 +1678,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="B116" sqref="B116"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1679,7 +1708,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1693,7 +1722,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1708,7 +1737,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1720,7 +1749,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1732,7 +1761,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -1749,7 +1778,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1761,7 +1790,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1773,7 +1802,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>237</v>
       </c>
@@ -1785,7 +1814,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1797,7 +1826,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1809,7 +1838,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1824,7 +1853,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1836,7 +1865,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1848,7 +1877,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1860,7 +1889,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
@@ -1872,7 +1901,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1884,7 +1913,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1896,7 +1925,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -1911,7 +1940,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1923,7 +1952,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1935,7 +1964,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
@@ -1947,7 +1976,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1959,7 +1988,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -1971,7 +2000,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -1983,7 +2012,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -1995,7 +2024,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2007,7 +2036,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
@@ -2021,7 +2050,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2033,7 +2062,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2048,7 +2077,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2060,7 +2089,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2075,7 +2104,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -2087,7 +2116,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2099,7 +2128,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -2111,7 +2140,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2124,7 +2153,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -2136,7 +2165,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2148,7 +2177,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
@@ -2161,7 +2190,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -2174,7 +2203,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -2186,7 +2215,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -2198,7 +2227,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2210,7 +2239,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2222,7 +2251,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -2234,7 +2263,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -2246,7 +2275,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -2258,7 +2287,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -2270,7 +2299,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
@@ -2282,7 +2311,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
@@ -2294,7 +2323,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2306,7 +2335,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
@@ -2321,7 +2350,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -2333,7 +2362,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
@@ -2345,7 +2374,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>137</v>
       </c>
@@ -2357,7 +2386,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -2369,7 +2398,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -2381,7 +2410,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
@@ -2394,7 +2423,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -2409,7 +2438,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -2424,7 +2453,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
@@ -2436,7 +2465,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -2448,7 +2477,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2460,7 +2489,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -2472,7 +2501,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
@@ -2484,7 +2513,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
@@ -2496,7 +2525,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -2508,7 +2537,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>163</v>
       </c>
@@ -2523,7 +2552,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>165</v>
       </c>
@@ -2535,7 +2564,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>167</v>
       </c>
@@ -2547,7 +2576,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>170</v>
       </c>
@@ -2559,7 +2588,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>173</v>
       </c>
@@ -2571,7 +2600,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>176</v>
       </c>
@@ -2583,7 +2612,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>179</v>
       </c>
@@ -2598,7 +2627,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>180</v>
       </c>
@@ -2610,7 +2639,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>183</v>
       </c>
@@ -2622,7 +2651,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -2634,7 +2663,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>191</v>
       </c>
@@ -2648,7 +2677,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
@@ -2660,7 +2689,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -2672,7 +2701,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -2684,7 +2713,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>202</v>
       </c>
@@ -2699,7 +2728,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>205</v>
       </c>
@@ -2711,7 +2740,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>210</v>
       </c>
@@ -2722,7 +2751,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -2733,7 +2762,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>217</v>
       </c>
@@ -2747,7 +2776,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>220</v>
       </c>
@@ -2758,7 +2787,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>223</v>
       </c>
@@ -2769,7 +2798,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>226</v>
       </c>
@@ -2780,7 +2809,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
@@ -2791,7 +2820,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -2802,7 +2831,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>238</v>
       </c>
@@ -2813,7 +2842,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>240</v>
       </c>
@@ -2824,7 +2853,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>242</v>
       </c>
@@ -2835,7 +2864,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>244</v>
       </c>
@@ -2846,7 +2875,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>247</v>
       </c>
@@ -2857,7 +2886,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>253</v>
       </c>
@@ -2871,7 +2900,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>250</v>
       </c>
@@ -2882,7 +2911,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>256</v>
       </c>
@@ -2893,7 +2922,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>259</v>
       </c>
@@ -2904,7 +2933,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>262</v>
       </c>
@@ -2915,7 +2944,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>265</v>
       </c>
@@ -2926,7 +2955,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>267</v>
       </c>
@@ -2937,7 +2966,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>270</v>
       </c>
@@ -2948,7 +2977,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>273</v>
       </c>
@@ -2959,7 +2988,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>275</v>
       </c>
@@ -2970,7 +2999,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>277</v>
       </c>
@@ -2981,7 +3010,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>284</v>
       </c>
@@ -2992,7 +3021,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
@@ -3003,7 +3032,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>288</v>
       </c>
@@ -3012,6 +3041,39 @@
       </c>
       <c r="C110" s="2" t="s">
         <v>283</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B113" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B4EAD79-6BD0-49AB-A99B-8EE758EA12CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E0E74-880B-4C5C-A6D5-5B5251F854EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="297">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="306">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1290,6 +1290,42 @@
   <si>
     <t>第1志愿：Java开发工程师（系统）（北京）
 第2志愿：Java开发工程师（苏州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技：软件开发工程师（杭州、深圳、成都）、测试开发工程师（杭州、深圳、成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>青岛分行：软件开发岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信用卡中心：软件开发工程师、测试工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极米科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>永辉超市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（福州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,7 +1405,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1397,6 +1433,12 @@
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1678,22 +1720,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="B116" sqref="B116"/>
+    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1708,7 +1750,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1722,7 +1764,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1737,7 +1779,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1749,7 +1791,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1761,7 +1803,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -1778,7 +1820,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1790,7 +1832,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1802,7 +1844,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>237</v>
       </c>
@@ -1814,7 +1856,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1826,7 +1868,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1838,7 +1880,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1853,7 +1895,7 @@
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1865,7 +1907,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1877,7 +1919,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1889,7 +1931,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
@@ -1901,7 +1943,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1913,7 +1955,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1925,7 +1967,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -1940,7 +1982,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1952,7 +1994,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -1964,7 +2006,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
@@ -1976,7 +2018,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -1988,7 +2030,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2000,7 +2042,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -2012,7 +2054,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2024,7 +2066,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2036,7 +2078,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
@@ -2050,7 +2092,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2062,7 +2104,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2077,7 +2119,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2089,7 +2131,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2104,7 +2146,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -2116,7 +2158,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2128,7 +2170,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -2140,7 +2182,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2153,7 +2195,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -2165,7 +2207,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2177,7 +2219,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
@@ -2190,7 +2232,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -2203,7 +2245,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -2215,7 +2257,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -2227,7 +2269,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2239,7 +2281,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2251,7 +2293,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -2263,7 +2305,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -2275,7 +2317,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -2287,7 +2329,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -2299,7 +2341,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
@@ -2311,7 +2353,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
@@ -2323,7 +2365,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2335,7 +2377,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
@@ -2350,7 +2392,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -2362,7 +2404,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
@@ -2374,7 +2416,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>137</v>
       </c>
@@ -2386,7 +2428,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -2398,7 +2440,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -2410,7 +2452,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
@@ -2423,7 +2465,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -2438,7 +2480,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -2453,7 +2495,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
@@ -2465,7 +2507,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -2477,7 +2519,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2489,7 +2531,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -2501,19 +2543,19 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C65" s="2" t="s">
+      <c r="C65" s="3" t="s">
         <v>157</v>
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
@@ -2525,7 +2567,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -2537,7 +2579,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>163</v>
       </c>
@@ -2552,7 +2594,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>165</v>
       </c>
@@ -2564,7 +2606,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>167</v>
       </c>
@@ -2576,7 +2618,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>170</v>
       </c>
@@ -2588,7 +2630,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>173</v>
       </c>
@@ -2600,7 +2642,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>176</v>
       </c>
@@ -2612,7 +2654,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>179</v>
       </c>
@@ -2627,7 +2669,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>180</v>
       </c>
@@ -2639,7 +2681,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>183</v>
       </c>
@@ -2651,7 +2693,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -2663,7 +2705,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>191</v>
       </c>
@@ -2677,7 +2719,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
@@ -2689,7 +2731,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -2701,7 +2743,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -2713,7 +2755,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>202</v>
       </c>
@@ -2728,7 +2770,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>205</v>
       </c>
@@ -2740,7 +2782,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="1" t="s">
         <v>210</v>
       </c>
@@ -2751,7 +2793,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -2762,7 +2804,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
         <v>217</v>
       </c>
@@ -2776,7 +2818,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>220</v>
       </c>
@@ -2787,7 +2829,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="1" t="s">
         <v>223</v>
       </c>
@@ -2798,7 +2840,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>226</v>
       </c>
@@ -2809,7 +2851,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
@@ -2820,7 +2862,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -2831,7 +2873,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="1" t="s">
         <v>238</v>
       </c>
@@ -2842,7 +2884,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="1" t="s">
         <v>240</v>
       </c>
@@ -2853,7 +2895,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="1" t="s">
         <v>242</v>
       </c>
@@ -2864,7 +2906,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="1" t="s">
         <v>244</v>
       </c>
@@ -2875,7 +2917,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="1" t="s">
         <v>247</v>
       </c>
@@ -2886,7 +2928,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A97" s="1" t="s">
         <v>253</v>
       </c>
@@ -2900,7 +2942,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="1" t="s">
         <v>250</v>
       </c>
@@ -2911,7 +2953,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>256</v>
       </c>
@@ -2922,7 +2964,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>259</v>
       </c>
@@ -2933,7 +2975,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A101" s="1" t="s">
         <v>262</v>
       </c>
@@ -2944,7 +2986,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A102" s="1" t="s">
         <v>265</v>
       </c>
@@ -2955,7 +2997,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="1" t="s">
         <v>267</v>
       </c>
@@ -2966,7 +3008,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A104" s="1" t="s">
         <v>270</v>
       </c>
@@ -2977,7 +3019,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="1" t="s">
         <v>273</v>
       </c>
@@ -2988,7 +3030,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>275</v>
       </c>
@@ -2999,7 +3041,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="1" t="s">
         <v>277</v>
       </c>
@@ -3010,7 +3052,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A108" s="1" t="s">
         <v>284</v>
       </c>
@@ -3021,7 +3063,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
@@ -3032,7 +3074,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="1" t="s">
         <v>288</v>
       </c>
@@ -3043,7 +3085,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>290</v>
       </c>
@@ -3054,7 +3096,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A112" s="1" t="s">
         <v>293</v>
       </c>
@@ -3065,7 +3107,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -3076,7 +3118,58 @@
         <v>291</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="10" t="s">
+        <v>297</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="C114" s="11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="10"/>
+      <c r="B115" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="C115" s="11"/>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="10"/>
+      <c r="B116" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C116" s="11"/>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A114:A116"/>
+    <mergeCell ref="C114:C116"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B1E0E74-880B-4C5C-A6D5-5B5251F854EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F634F-0F3B-4AF7-BFEB-586FA3451A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="364" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="307">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1326,6 +1326,10 @@
   </si>
   <si>
     <t>Java开发工程师（福州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.22</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1722,20 +1726,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="83.125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1750,7 +1754,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1764,7 +1768,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1779,7 +1783,7 @@
       </c>
       <c r="E3" s="2"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1791,7 +1795,7 @@
       </c>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1803,7 +1807,7 @@
       </c>
       <c r="E5" s="2"/>
     </row>
-    <row r="6" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>130</v>
       </c>
@@ -1820,7 +1824,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1832,7 +1836,7 @@
       </c>
       <c r="E7" s="2"/>
     </row>
-    <row r="8" spans="1:5" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1844,7 +1848,7 @@
       </c>
       <c r="E8" s="2"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>237</v>
       </c>
@@ -1856,7 +1860,7 @@
       </c>
       <c r="E9" s="2"/>
     </row>
-    <row r="10" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1868,7 +1872,7 @@
       </c>
       <c r="E10" s="2"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1880,7 +1884,7 @@
       </c>
       <c r="E11" s="2"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1890,12 +1894,12 @@
       <c r="C12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="3">
         <v>7.26</v>
       </c>
       <c r="E12" s="2"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1907,7 +1911,7 @@
       </c>
       <c r="E13" s="2"/>
     </row>
-    <row r="14" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -1919,7 +1923,7 @@
       </c>
       <c r="E14" s="2"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -1931,7 +1935,7 @@
       </c>
       <c r="E15" s="2"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>154</v>
       </c>
@@ -1943,7 +1947,7 @@
       </c>
       <c r="E16" s="2"/>
     </row>
-    <row r="17" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -1955,7 +1959,7 @@
       </c>
       <c r="E17" s="2"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -1967,7 +1971,7 @@
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>96</v>
       </c>
@@ -1982,7 +1986,7 @@
       </c>
       <c r="E19" s="2"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>40</v>
       </c>
@@ -1994,7 +1998,7 @@
       </c>
       <c r="E20" s="2"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>42</v>
       </c>
@@ -2006,7 +2010,7 @@
       </c>
       <c r="E21" s="2"/>
     </row>
-    <row r="22" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>272</v>
       </c>
@@ -2018,7 +2022,7 @@
       </c>
       <c r="E22" s="2"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>46</v>
       </c>
@@ -2030,7 +2034,7 @@
       </c>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>48</v>
       </c>
@@ -2042,7 +2046,7 @@
       </c>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>51</v>
       </c>
@@ -2054,7 +2058,7 @@
       </c>
       <c r="E25" s="2"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>53</v>
       </c>
@@ -2066,7 +2070,7 @@
       </c>
       <c r="E26" s="2"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>56</v>
       </c>
@@ -2078,7 +2082,7 @@
       </c>
       <c r="E27" s="2"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>131</v>
       </c>
@@ -2092,7 +2096,7 @@
         <v>7.19</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>61</v>
       </c>
@@ -2104,7 +2108,7 @@
       </c>
       <c r="E29" s="2"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>64</v>
       </c>
@@ -2119,7 +2123,7 @@
       </c>
       <c r="E30" s="2"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
@@ -2131,7 +2135,7 @@
       </c>
       <c r="E31" s="2"/>
     </row>
-    <row r="32" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>69</v>
       </c>
@@ -2146,7 +2150,7 @@
       </c>
       <c r="E32" s="2"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>73</v>
       </c>
@@ -2158,7 +2162,7 @@
       </c>
       <c r="E33" s="2"/>
     </row>
-    <row r="34" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>74</v>
       </c>
@@ -2170,7 +2174,7 @@
       </c>
       <c r="E34" s="2"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>76</v>
       </c>
@@ -2182,7 +2186,7 @@
       </c>
       <c r="E35" s="2"/>
     </row>
-    <row r="36" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>79</v>
       </c>
@@ -2195,7 +2199,7 @@
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>83</v>
       </c>
@@ -2207,7 +2211,7 @@
       </c>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>86</v>
       </c>
@@ -2219,7 +2223,7 @@
       </c>
       <c r="E38" s="2"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>89</v>
       </c>
@@ -2232,7 +2236,7 @@
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>92</v>
       </c>
@@ -2245,7 +2249,7 @@
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>97</v>
       </c>
@@ -2257,7 +2261,7 @@
       </c>
       <c r="E41" s="2"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>99</v>
       </c>
@@ -2269,7 +2273,7 @@
       </c>
       <c r="E42" s="2"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>105</v>
       </c>
@@ -2281,7 +2285,7 @@
       </c>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>108</v>
       </c>
@@ -2293,7 +2297,7 @@
       </c>
       <c r="E44" s="2"/>
     </row>
-    <row r="45" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>110</v>
       </c>
@@ -2305,7 +2309,7 @@
       </c>
       <c r="E45" s="2"/>
     </row>
-    <row r="46" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>112</v>
       </c>
@@ -2317,7 +2321,7 @@
       </c>
       <c r="E46" s="2"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>115</v>
       </c>
@@ -2329,7 +2333,7 @@
       </c>
       <c r="E47" s="2"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>118</v>
       </c>
@@ -2341,7 +2345,7 @@
       </c>
       <c r="E48" s="2"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>120</v>
       </c>
@@ -2353,7 +2357,7 @@
       </c>
       <c r="E49" s="2"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>122</v>
       </c>
@@ -2365,7 +2369,7 @@
       </c>
       <c r="E50" s="2"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2377,7 +2381,7 @@
       </c>
       <c r="E51" s="2"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>125</v>
       </c>
@@ -2392,7 +2396,7 @@
       </c>
       <c r="E52" s="2"/>
     </row>
-    <row r="53" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>128</v>
       </c>
@@ -2404,7 +2408,7 @@
       </c>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>134</v>
       </c>
@@ -2416,7 +2420,7 @@
       </c>
       <c r="E54" s="2"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>137</v>
       </c>
@@ -2428,7 +2432,7 @@
       </c>
       <c r="E55" s="2"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>140</v>
       </c>
@@ -2440,7 +2444,7 @@
       </c>
       <c r="E56" s="2"/>
     </row>
-    <row r="57" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>142</v>
       </c>
@@ -2452,7 +2456,7 @@
       </c>
       <c r="E57" s="2"/>
     </row>
-    <row r="58" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>144</v>
       </c>
@@ -2465,7 +2469,7 @@
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>145</v>
       </c>
@@ -2480,7 +2484,7 @@
       </c>
       <c r="E59" s="2"/>
     </row>
-    <row r="60" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>148</v>
       </c>
@@ -2495,7 +2499,7 @@
       </c>
       <c r="E60" s="2"/>
     </row>
-    <row r="61" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>150</v>
       </c>
@@ -2507,7 +2511,7 @@
       </c>
       <c r="E61" s="2"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>152</v>
       </c>
@@ -2519,7 +2523,7 @@
       </c>
       <c r="E62" s="2"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2531,7 +2535,7 @@
       </c>
       <c r="E63" s="2"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>155</v>
       </c>
@@ -2543,7 +2547,7 @@
       </c>
       <c r="E64" s="2"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>158</v>
       </c>
@@ -2555,7 +2559,7 @@
       </c>
       <c r="E65" s="2"/>
     </row>
-    <row r="66" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>160</v>
       </c>
@@ -2567,7 +2571,7 @@
       </c>
       <c r="E66" s="2"/>
     </row>
-    <row r="67" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>161</v>
       </c>
@@ -2579,7 +2583,7 @@
       </c>
       <c r="E67" s="2"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>163</v>
       </c>
@@ -2594,7 +2598,7 @@
       </c>
       <c r="E68" s="2"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>165</v>
       </c>
@@ -2606,7 +2610,7 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>167</v>
       </c>
@@ -2618,7 +2622,7 @@
       </c>
       <c r="E70" s="2"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>170</v>
       </c>
@@ -2630,7 +2634,7 @@
       </c>
       <c r="E71" s="2"/>
     </row>
-    <row r="72" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>173</v>
       </c>
@@ -2642,7 +2646,7 @@
       </c>
       <c r="E72" s="2"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>176</v>
       </c>
@@ -2654,7 +2658,7 @@
       </c>
       <c r="E73" s="2"/>
     </row>
-    <row r="74" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>179</v>
       </c>
@@ -2669,7 +2673,7 @@
       </c>
       <c r="E74" s="2"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>180</v>
       </c>
@@ -2681,7 +2685,7 @@
       </c>
       <c r="E75" s="2"/>
     </row>
-    <row r="76" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>183</v>
       </c>
@@ -2693,7 +2697,7 @@
       </c>
       <c r="E76" s="2"/>
     </row>
-    <row r="77" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>188</v>
       </c>
@@ -2705,7 +2709,7 @@
       </c>
       <c r="E77" s="2"/>
     </row>
-    <row r="78" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>191</v>
       </c>
@@ -2719,7 +2723,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>193</v>
       </c>
@@ -2731,7 +2735,7 @@
       </c>
       <c r="E79" s="2"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>197</v>
       </c>
@@ -2743,7 +2747,7 @@
       </c>
       <c r="E80" s="2"/>
     </row>
-    <row r="81" spans="1:5" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>199</v>
       </c>
@@ -2755,7 +2759,7 @@
       </c>
       <c r="E81" s="2"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>202</v>
       </c>
@@ -2770,7 +2774,7 @@
       </c>
       <c r="E82" s="2"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>205</v>
       </c>
@@ -2782,7 +2786,7 @@
       </c>
       <c r="E83" s="2"/>
     </row>
-    <row r="84" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>210</v>
       </c>
@@ -2793,7 +2797,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>213</v>
       </c>
@@ -2804,7 +2808,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="86" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>217</v>
       </c>
@@ -2818,7 +2822,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>220</v>
       </c>
@@ -2829,7 +2833,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>223</v>
       </c>
@@ -2840,7 +2844,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="89" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>226</v>
       </c>
@@ -2851,7 +2855,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>232</v>
       </c>
@@ -2862,7 +2866,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>235</v>
       </c>
@@ -2873,7 +2877,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="92" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>238</v>
       </c>
@@ -2884,7 +2888,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>240</v>
       </c>
@@ -2895,7 +2899,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>242</v>
       </c>
@@ -2906,7 +2910,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>244</v>
       </c>
@@ -2917,7 +2921,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>247</v>
       </c>
@@ -2928,7 +2932,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>253</v>
       </c>
@@ -2942,7 +2946,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="98" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>250</v>
       </c>
@@ -2953,7 +2957,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>256</v>
       </c>
@@ -2963,8 +2967,11 @@
       <c r="C99" s="2" t="s">
         <v>258</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D99" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>259</v>
       </c>
@@ -2975,7 +2982,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>262</v>
       </c>
@@ -2986,7 +2993,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>265</v>
       </c>
@@ -2997,7 +3004,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="103" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>267</v>
       </c>
@@ -3008,7 +3015,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>270</v>
       </c>
@@ -3019,7 +3026,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="105" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>273</v>
       </c>
@@ -3030,7 +3037,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>275</v>
       </c>
@@ -3041,7 +3048,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="107" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>277</v>
       </c>
@@ -3052,7 +3059,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>284</v>
       </c>
@@ -3063,7 +3070,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>286</v>
       </c>
@@ -3074,7 +3081,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="110" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>288</v>
       </c>
@@ -3085,7 +3092,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>290</v>
       </c>
@@ -3096,7 +3103,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>293</v>
       </c>
@@ -3107,7 +3114,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>295</v>
       </c>
@@ -3118,7 +3125,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
         <v>297</v>
       </c>
@@ -3129,21 +3136,21 @@
         <v>301</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="1" t="s">
         <v>299</v>
       </c>
       <c r="C115" s="11"/>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="1" t="s">
         <v>300</v>
       </c>
       <c r="C116" s="11"/>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>302</v>
       </c>
@@ -3154,7 +3161,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>304</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A0F634F-0F3B-4AF7-BFEB-586FA3451A23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5894E4-6BA3-4592-9A6D-91910B928195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="307">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="323">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -188,14 +188,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Java工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Intel</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -384,14 +376,6 @@
   </si>
   <si>
     <t>小红书</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -929,10 +913,6 @@
   <si>
     <t>7.14（第一志愿）
 8.2（第二志愿）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7.7（流程终止）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1330,6 +1310,124 @@
   </si>
   <si>
     <t>8.22</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.13（测开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.24（测开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯音乐娱乐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发-后台发开方向（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虎牙直播</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java后台开发工程师（广州）
+第2志愿：测试开发工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>携程集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【REDstar】软件开发工程师（北京、上海）
+Java开发工程师-交易技术（上海、武汉）
+Java开发工程师-风控技术（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>7.19
+8.23
+8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>韶音科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VIVO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师（IT应用）（东莞、西安、南京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.28
+8.23
+8.23
+8.23
+8.23</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师（南京）-架构方向
+Java工程师（南京）
+Java工程师（广州）
+后台开发工程师（南京）
+后台开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.7（流程终止）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Momenta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-Java（苏州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1409,7 +1507,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1443,6 +1541,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1724,10 +1825,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="E115" sqref="E115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1748,10 +1849,10 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -1765,7 +1866,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1803,25 +1904,25 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="E6" s="6" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
@@ -1850,7 +1951,7 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1937,13 +2038,13 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E16" s="2"/>
     </row>
@@ -1967,130 +2068,130 @@
         <v>37</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E18" s="2"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>216</v>
+        <v>92</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="D19" s="12" t="s">
+        <v>320</v>
       </c>
       <c r="E19" s="2"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E20" s="2"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E21" s="2"/>
     </row>
     <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E22" s="2"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="E23" s="2"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E24" s="2"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E25" s="2"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E26" s="2"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C27" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E27" s="2"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E28" s="3">
         <v>7.19</v>
@@ -2098,52 +2199,52 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B30" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="E30" s="2"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B32" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="C32" s="2" t="s">
         <v>69</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>71</v>
       </c>
       <c r="D32" s="2">
         <v>7.23</v>
@@ -2152,220 +2253,220 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>282</v>
+        <v>277</v>
       </c>
       <c r="E33" s="2"/>
     </row>
     <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>76</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>78</v>
       </c>
       <c r="E35" s="2"/>
     </row>
     <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" s="3" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="D36" s="7"/>
       <c r="E36" s="2"/>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="E37" s="2"/>
+    </row>
+    <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C37" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>88</v>
+      <c r="B38" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>313</v>
       </c>
       <c r="E38" s="2"/>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="2"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="2"/>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E41" s="2"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E42" s="2"/>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E43" s="2"/>
     </row>
     <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E44" s="2"/>
     </row>
     <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E45" s="2"/>
     </row>
     <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="E46" s="2"/>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E47" s="2"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E48" s="2"/>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E49" s="2"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E50" s="2"/>
     </row>
@@ -2374,152 +2475,152 @@
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E51" s="2"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="E52" s="2"/>
     </row>
     <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B53" s="4" t="s">
         <v>128</v>
       </c>
-      <c r="B53" s="4" t="s">
-        <v>132</v>
-      </c>
       <c r="C53" s="3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="E53" s="2"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E54" s="2"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E55" s="2"/>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E56" s="2"/>
     </row>
     <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="E57" s="2"/>
     </row>
     <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="C58" s="9" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="D58" s="7"/>
       <c r="E58" s="2"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="E59" s="2"/>
     </row>
     <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="E60" s="2"/>
     </row>
     <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E61" s="2"/>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E62" s="2"/>
     </row>
@@ -2528,648 +2629,719 @@
         <v>31</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E63" s="2"/>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E64" s="2"/>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E65" s="2"/>
     </row>
     <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="E66" s="2"/>
     </row>
     <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E67" s="2"/>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E68" s="2"/>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="E69" s="2"/>
     </row>
     <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B70" s="4" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E70" s="2"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="E71" s="2"/>
     </row>
     <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B72" s="4" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="E72" s="2"/>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E73" s="2"/>
     </row>
     <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>228</v>
-      </c>
-      <c r="E74" s="2"/>
+        <v>303</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>304</v>
+      </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E75" s="2"/>
     </row>
     <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B76" s="4" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="E76" s="2"/>
     </row>
     <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C77" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E77" s="2"/>
     </row>
     <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="E78" s="7" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E79" s="2"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="E80" s="2"/>
     </row>
     <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="E81" s="2"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="E82" s="2"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="E83" s="2"/>
     </row>
     <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C84" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>222</v>
+        <v>217</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>273</v>
+        <v>268</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>284</v>
+        <v>279</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>286</v>
+        <v>281</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>287</v>
+        <v>282</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>283</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>293</v>
+        <v>288</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>298</v>
+        <v>293</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="1" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="C115" s="11"/>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="1" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="C116" s="11"/>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>303</v>
+        <v>298</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
       <c r="B118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="C118" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
         <v>305</v>
       </c>
-      <c r="C118" s="2" t="s">
-        <v>301</v>
+      <c r="B119" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C123" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>306</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F5894E4-6BA3-4592-9A6D-91910B928195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4FF15F-EDAB-4F2E-859B-8F8AE8C82ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="323">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="324">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1398,6 +1398,18 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>Momenta</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后端开发工程师-Java（苏州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1420,14 +1432,17 @@
       <t xml:space="preserve">
 </t>
     </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Momenta</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>后端开发工程师-Java（苏州）</t>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.24</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1507,7 +1522,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1519,9 +1534,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1536,14 +1548,8 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1825,22 +1831,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E124"/>
+  <dimension ref="A1:F124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="E115" sqref="E115"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="22.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="83.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1854,8 +1861,11 @@
       <c r="E1" s="2" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F1" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1868,8 +1878,11 @@
       <c r="E2" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F2" s="2">
+        <v>8.24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1883,8 +1896,9 @@
         <v>7.8</v>
       </c>
       <c r="E3" s="2"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1895,8 +1909,9 @@
         <v>13</v>
       </c>
       <c r="E4" s="2"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1907,8 +1922,9 @@
         <v>98</v>
       </c>
       <c r="E5" s="2"/>
-    </row>
-    <row r="6" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>126</v>
       </c>
@@ -1921,11 +1937,12 @@
       <c r="D6" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="5" t="s">
         <v>211</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1936,8 +1953,9 @@
         <v>6</v>
       </c>
       <c r="E7" s="2"/>
-    </row>
-    <row r="8" spans="1:5" ht="99.75" x14ac:dyDescent="0.2">
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1948,8 +1966,9 @@
         <v>6</v>
       </c>
       <c r="E8" s="2"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>232</v>
       </c>
@@ -1960,8 +1979,9 @@
         <v>18</v>
       </c>
       <c r="E9" s="2"/>
-    </row>
-    <row r="10" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1972,8 +1992,9 @@
         <v>18</v>
       </c>
       <c r="E10" s="2"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -1984,8 +2005,9 @@
         <v>18</v>
       </c>
       <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2021,9 @@
         <v>7.26</v>
       </c>
       <c r="E12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2011,8 +2034,9 @@
         <v>18</v>
       </c>
       <c r="E13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2023,8 +2047,9 @@
         <v>18</v>
       </c>
       <c r="E14" s="2"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2035,8 +2060,9 @@
         <v>18</v>
       </c>
       <c r="E15" s="2"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>150</v>
       </c>
@@ -2047,8 +2073,9 @@
         <v>45</v>
       </c>
       <c r="E16" s="2"/>
-    </row>
-    <row r="17" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>34</v>
       </c>
@@ -2059,8 +2086,9 @@
         <v>33</v>
       </c>
       <c r="E17" s="2"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>36</v>
       </c>
@@ -2071,8 +2099,9 @@
         <v>45</v>
       </c>
       <c r="E18" s="2"/>
-    </row>
-    <row r="19" spans="1:5" ht="71.25" x14ac:dyDescent="0.2">
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>92</v>
       </c>
@@ -2082,12 +2111,13 @@
       <c r="C19" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="D19" s="12" t="s">
-        <v>320</v>
+      <c r="D19" s="8" t="s">
+        <v>323</v>
       </c>
       <c r="E19" s="2"/>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -2098,8 +2128,9 @@
         <v>99</v>
       </c>
       <c r="E20" s="2"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -2110,8 +2141,9 @@
         <v>100</v>
       </c>
       <c r="E21" s="2"/>
-    </row>
-    <row r="22" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>267</v>
       </c>
@@ -2122,8 +2154,9 @@
         <v>41</v>
       </c>
       <c r="E22" s="2"/>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -2134,8 +2167,9 @@
         <v>276</v>
       </c>
       <c r="E23" s="2"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
@@ -2146,8 +2180,9 @@
         <v>53</v>
       </c>
       <c r="E24" s="2"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>49</v>
       </c>
@@ -2158,8 +2193,9 @@
         <v>48</v>
       </c>
       <c r="E25" s="2"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>51</v>
       </c>
@@ -2170,8 +2206,9 @@
         <v>48</v>
       </c>
       <c r="E26" s="2"/>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>54</v>
       </c>
@@ -2182,8 +2219,9 @@
         <v>56</v>
       </c>
       <c r="E27" s="2"/>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>127</v>
       </c>
@@ -2196,8 +2234,9 @@
       <c r="E28" s="3">
         <v>7.19</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>59</v>
       </c>
@@ -2208,8 +2247,9 @@
         <v>61</v>
       </c>
       <c r="E29" s="2"/>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>62</v>
       </c>
@@ -2223,8 +2263,9 @@
         <v>204</v>
       </c>
       <c r="E30" s="2"/>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>65</v>
       </c>
@@ -2235,8 +2276,9 @@
         <v>73</v>
       </c>
       <c r="E31" s="2"/>
-    </row>
-    <row r="32" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2"/>
+    </row>
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>67</v>
       </c>
@@ -2250,8 +2292,9 @@
         <v>7.23</v>
       </c>
       <c r="E32" s="2"/>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>71</v>
       </c>
@@ -2262,8 +2305,9 @@
         <v>277</v>
       </c>
       <c r="E33" s="2"/>
-    </row>
-    <row r="34" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F33" s="2"/>
+    </row>
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>72</v>
       </c>
@@ -2274,8 +2318,9 @@
         <v>183</v>
       </c>
       <c r="E34" s="2"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>74</v>
       </c>
@@ -2286,8 +2331,9 @@
         <v>76</v>
       </c>
       <c r="E35" s="2"/>
-    </row>
-    <row r="36" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2"/>
+    </row>
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>77</v>
       </c>
@@ -2297,10 +2343,11 @@
       <c r="C36" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="D36" s="7"/>
+      <c r="D36" s="6"/>
       <c r="E36" s="2"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>81</v>
       </c>
@@ -2311,8 +2358,9 @@
         <v>83</v>
       </c>
       <c r="E37" s="2"/>
-    </row>
-    <row r="38" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F37" s="2"/>
+    </row>
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>84</v>
       </c>
@@ -2323,8 +2371,9 @@
         <v>313</v>
       </c>
       <c r="E38" s="2"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>85</v>
       </c>
@@ -2334,10 +2383,11 @@
       <c r="C39" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D39" s="8"/>
+      <c r="D39" s="7"/>
       <c r="E39" s="2"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="2"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>88</v>
       </c>
@@ -2347,10 +2397,11 @@
       <c r="C40" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="D40" s="8"/>
+      <c r="D40" s="7"/>
       <c r="E40" s="2"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>93</v>
       </c>
@@ -2361,8 +2412,9 @@
         <v>94</v>
       </c>
       <c r="E41" s="2"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>95</v>
       </c>
@@ -2373,8 +2425,9 @@
         <v>97</v>
       </c>
       <c r="E42" s="2"/>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="2"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>101</v>
       </c>
@@ -2385,8 +2438,9 @@
         <v>103</v>
       </c>
       <c r="E43" s="2"/>
-    </row>
-    <row r="44" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F43" s="2"/>
+    </row>
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>104</v>
       </c>
@@ -2397,8 +2451,9 @@
         <v>103</v>
       </c>
       <c r="E44" s="2"/>
-    </row>
-    <row r="45" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F44" s="2"/>
+    </row>
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>106</v>
       </c>
@@ -2409,8 +2464,9 @@
         <v>103</v>
       </c>
       <c r="E45" s="2"/>
-    </row>
-    <row r="46" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F45" s="2"/>
+    </row>
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>108</v>
       </c>
@@ -2421,8 +2477,9 @@
         <v>103</v>
       </c>
       <c r="E46" s="2"/>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="2"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>111</v>
       </c>
@@ -2433,8 +2490,9 @@
         <v>112</v>
       </c>
       <c r="E47" s="2"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="2"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>114</v>
       </c>
@@ -2445,8 +2503,9 @@
         <v>115</v>
       </c>
       <c r="E48" s="2"/>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="2"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>116</v>
       </c>
@@ -2457,8 +2516,9 @@
         <v>115</v>
       </c>
       <c r="E49" s="2"/>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="2"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>118</v>
       </c>
@@ -2469,8 +2529,9 @@
         <v>119</v>
       </c>
       <c r="E50" s="2"/>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2481,8 +2542,9 @@
         <v>119</v>
       </c>
       <c r="E51" s="2"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="2"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>121</v>
       </c>
@@ -2496,8 +2558,9 @@
         <v>203</v>
       </c>
       <c r="E52" s="2"/>
-    </row>
-    <row r="53" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F52" s="2"/>
+    </row>
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>124</v>
       </c>
@@ -2508,8 +2571,9 @@
         <v>129</v>
       </c>
       <c r="E53" s="2"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="2"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>130</v>
       </c>
@@ -2520,8 +2584,9 @@
         <v>132</v>
       </c>
       <c r="E54" s="2"/>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="2"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>133</v>
       </c>
@@ -2532,8 +2597,9 @@
         <v>135</v>
       </c>
       <c r="E55" s="2"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="2"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>136</v>
       </c>
@@ -2544,8 +2610,9 @@
         <v>135</v>
       </c>
       <c r="E56" s="2"/>
-    </row>
-    <row r="57" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F56" s="2"/>
+    </row>
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>138</v>
       </c>
@@ -2556,21 +2623,23 @@
         <v>135</v>
       </c>
       <c r="E57" s="2"/>
-    </row>
-    <row r="58" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F57" s="2"/>
+    </row>
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B58" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="C58" s="9" t="s">
+      <c r="C58" s="8" t="s">
         <v>224</v>
       </c>
-      <c r="D58" s="7"/>
+      <c r="D58" s="6"/>
       <c r="E58" s="2"/>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="2"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>141</v>
       </c>
@@ -2584,8 +2653,9 @@
         <v>225</v>
       </c>
       <c r="E59" s="2"/>
-    </row>
-    <row r="60" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F59" s="2"/>
+    </row>
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>144</v>
       </c>
@@ -2599,8 +2669,9 @@
         <v>220</v>
       </c>
       <c r="E60" s="2"/>
-    </row>
-    <row r="61" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F60" s="2"/>
+    </row>
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>146</v>
       </c>
@@ -2611,8 +2682,9 @@
         <v>143</v>
       </c>
       <c r="E61" s="2"/>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="2"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>148</v>
       </c>
@@ -2623,8 +2695,9 @@
         <v>143</v>
       </c>
       <c r="E62" s="2"/>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="2"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>31</v>
       </c>
@@ -2635,8 +2708,9 @@
         <v>143</v>
       </c>
       <c r="E63" s="2"/>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="2"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>151</v>
       </c>
@@ -2647,8 +2721,9 @@
         <v>153</v>
       </c>
       <c r="E64" s="2"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="2"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>154</v>
       </c>
@@ -2659,8 +2734,9 @@
         <v>153</v>
       </c>
       <c r="E65" s="2"/>
-    </row>
-    <row r="66" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F65" s="2"/>
+    </row>
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>156</v>
       </c>
@@ -2671,8 +2747,9 @@
         <v>250</v>
       </c>
       <c r="E66" s="2"/>
-    </row>
-    <row r="67" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F66" s="2"/>
+    </row>
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>157</v>
       </c>
@@ -2683,8 +2760,9 @@
         <v>153</v>
       </c>
       <c r="E67" s="2"/>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="2"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>159</v>
       </c>
@@ -2698,8 +2776,9 @@
         <v>200</v>
       </c>
       <c r="E68" s="2"/>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="2"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>161</v>
       </c>
@@ -2710,8 +2789,9 @@
         <v>153</v>
       </c>
       <c r="E69" s="2"/>
-    </row>
-    <row r="70" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F69" s="2"/>
+    </row>
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>163</v>
       </c>
@@ -2722,8 +2802,9 @@
         <v>165</v>
       </c>
       <c r="E70" s="2"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="2"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>166</v>
       </c>
@@ -2734,8 +2815,9 @@
         <v>165</v>
       </c>
       <c r="E71" s="2"/>
-    </row>
-    <row r="72" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F71" s="2"/>
+    </row>
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>169</v>
       </c>
@@ -2746,8 +2828,9 @@
         <v>171</v>
       </c>
       <c r="E72" s="2"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="2"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>172</v>
       </c>
@@ -2758,8 +2841,9 @@
         <v>174</v>
       </c>
       <c r="E73" s="2"/>
-    </row>
-    <row r="74" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F73" s="2"/>
+    </row>
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>175</v>
       </c>
@@ -2775,8 +2859,9 @@
       <c r="E74" s="2" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>176</v>
       </c>
@@ -2787,8 +2872,9 @@
         <v>174</v>
       </c>
       <c r="E75" s="2"/>
-    </row>
-    <row r="76" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F75" s="2"/>
+    </row>
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>179</v>
       </c>
@@ -2799,8 +2885,9 @@
         <v>180</v>
       </c>
       <c r="E76" s="2"/>
-    </row>
-    <row r="77" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F76" s="2"/>
+    </row>
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>184</v>
       </c>
@@ -2811,8 +2898,9 @@
         <v>186</v>
       </c>
       <c r="E77" s="2"/>
-    </row>
-    <row r="78" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="F77" s="2"/>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>187</v>
       </c>
@@ -2822,11 +2910,12 @@
       <c r="C78" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="E78" s="7" t="s">
+      <c r="E78" s="6" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>189</v>
       </c>
@@ -2837,8 +2926,9 @@
         <v>191</v>
       </c>
       <c r="E79" s="2"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="2"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>193</v>
       </c>
@@ -2849,8 +2939,9 @@
         <v>194</v>
       </c>
       <c r="E80" s="2"/>
-    </row>
-    <row r="81" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="F80" s="2"/>
+    </row>
+    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>195</v>
       </c>
@@ -2861,8 +2952,9 @@
         <v>197</v>
       </c>
       <c r="E81" s="2"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="2"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>198</v>
       </c>
@@ -2876,8 +2968,9 @@
         <v>229</v>
       </c>
       <c r="E82" s="2"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="2"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>201</v>
       </c>
@@ -2888,34 +2981,39 @@
         <v>200</v>
       </c>
       <c r="E83" s="2"/>
-    </row>
-    <row r="84" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="F83" s="2"/>
+    </row>
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B84" s="4" t="s">
         <v>207</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="1" t="s">
+      <c r="B85" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>208</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+    </row>
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B86" s="4" t="s">
         <v>213</v>
       </c>
       <c r="C86" s="2" t="s">
@@ -2924,23 +3022,27 @@
       <c r="D86" s="2" t="s">
         <v>275</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A87" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="1" t="s">
+      <c r="B87" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B88" s="1" t="s">
+      <c r="B88" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C88" s="2" t="s">
@@ -2949,100 +3051,118 @@
       <c r="D88" s="2" t="s">
         <v>302</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="E88" s="2"/>
+      <c r="F88" s="2"/>
+    </row>
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="5" t="s">
+      <c r="B89" s="4" t="s">
         <v>222</v>
       </c>
       <c r="C89" s="2" t="s">
         <v>223</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="E89" s="2"/>
+      <c r="F89" s="2"/>
+    </row>
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B90" s="4" t="s">
         <v>228</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="1" t="s">
+      <c r="B91" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+    </row>
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A92" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B92" s="4" t="s">
         <v>234</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="1" t="s">
+      <c r="B93" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B94" s="1" t="s">
+      <c r="B94" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+    </row>
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="B95" s="5" t="s">
+      <c r="B95" s="4" t="s">
         <v>240</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+    </row>
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="5" t="s">
+      <c r="B96" s="4" t="s">
         <v>243</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>241</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B97" s="1" t="s">
+      <c r="B97" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C97" s="2" t="s">
@@ -3051,23 +3171,27 @@
       <c r="D97" s="2" t="s">
         <v>261</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+    </row>
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A98" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="5" t="s">
+      <c r="B98" s="4" t="s">
         <v>246</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="1" t="s">
+      <c r="B99" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C99" s="2" t="s">
@@ -3076,273 +3200,325 @@
       <c r="D99" s="2" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="E99" s="2"/>
+      <c r="F99" s="2"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="1" t="s">
+      <c r="B100" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C100" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B101" s="1" t="s">
+      <c r="B101" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="E101" s="2"/>
+      <c r="F101" s="2"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A102" s="2" t="s">
         <v>260</v>
       </c>
-      <c r="B102" s="1" t="s">
+      <c r="B102" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>256</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="E102" s="2"/>
+      <c r="F102" s="2"/>
+    </row>
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A103" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="B103" s="5" t="s">
+      <c r="B103" s="4" t="s">
         <v>263</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="5" t="s">
+      <c r="B104" s="4" t="s">
         <v>266</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+    </row>
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B105" s="5" t="s">
+      <c r="B105" s="4" t="s">
         <v>269</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B106" s="1" t="s">
+      <c r="B106" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+    </row>
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="B107" s="4" t="s">
         <v>273</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>274</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B108" s="1" t="s">
+      <c r="B108" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A109" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B109" s="1" t="s">
+      <c r="B109" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+    </row>
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="B110" s="5" t="s">
+      <c r="B110" s="4" t="s">
         <v>284</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>278</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="E110" s="2"/>
+      <c r="F110" s="2"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B111" s="1" t="s">
+      <c r="B111" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="E111" s="2"/>
+      <c r="F111" s="2"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B112" s="1" t="s">
+      <c r="B112" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="113" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="E112" s="2"/>
+      <c r="F112" s="2"/>
+    </row>
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A113" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="5" t="s">
+      <c r="B113" s="4" t="s">
         <v>291</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>286</v>
       </c>
-    </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
+      <c r="E113" s="2"/>
+      <c r="F113" s="2"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="B114" s="1" t="s">
+      <c r="B114" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C114" s="11" t="s">
+      <c r="C114" s="9" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
-      <c r="B115" s="1" t="s">
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="9"/>
+      <c r="B115" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C115" s="11"/>
-    </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
-      <c r="B116" s="1" t="s">
+      <c r="C115" s="9"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="9"/>
+      <c r="B116" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="C116" s="11"/>
-    </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="C116" s="9"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B117" s="1" t="s">
+      <c r="B117" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B118" s="1" t="s">
+      <c r="B118" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>296</v>
       </c>
-    </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="B119" s="1" t="s">
+      <c r="B119" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="120" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+    </row>
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A120" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B120" s="5" t="s">
+      <c r="B120" s="4" t="s">
         <v>309</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B121" s="1" t="s">
+      <c r="B121" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B122" s="1" t="s">
+      <c r="B122" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="E122" s="2"/>
+      <c r="F122" s="2"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B123" s="1" t="s">
+      <c r="B123" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="E123" s="2"/>
+      <c r="F123" s="2"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A124" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>321</v>
-      </c>
-      <c r="B124" s="1" t="s">
-        <v>322</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>306</v>
       </c>
+      <c r="E124" s="2"/>
+      <c r="F124" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F4FF15F-EDAB-4F2E-859B-8F8AE8C82ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DBDA6-8E49-4FAF-9C86-9B37B6859E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="324">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="352">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -152,10 +152,6 @@
   </si>
   <si>
     <t>锐捷网络</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Java开发工程师</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1443,6 +1439,139 @@
       </rPr>
       <t>8.24</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欧科云链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）
+Java开发工程师（资金）（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25
+8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信也科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25
+8.25
+8.25
+8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（业务中台）（上海）
+第2志愿：Java开发工程师（智能零售）（上海）
+第3志愿：Java开发工程师（消费场景）（上海）
+第4志愿：Java开发工程师（移动应用）（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Keep</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深信服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山石网科</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TP-LINK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科创达</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（武汉）
+第2志愿：Java开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师
+Java开发工程师（上海、福州）
+测试开发工程师（上海，福州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.24
+8.25
+8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aibee</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-Java方向（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中金所</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国人寿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：软件开发岗-Java方向（北京）
+第2志愿：研发工程师（后端开发）（佛山）
+第3志愿：开发岗（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25
+8.25
+8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>比亚迪2023届秋季校园招聘（统招岗位，报名号：X22090770）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华人运通</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发助理工程师（上海）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1522,7 +1651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1550,6 +1679,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1831,23 +1963,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F124"/>
+  <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="7" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1856,16 +1988,16 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1876,13 +2008,13 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="F2" s="2">
         <v>8.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -1898,7 +2030,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -1911,7 +2043,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -1919,30 +2051,30 @@
         <v>14</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1955,7 +2087,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1968,9 +2100,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -1981,7 +2113,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1994,7 +2126,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2007,7 +2139,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2023,7 +2155,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2168,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2049,244 +2181,244 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>18</v>
+      <c r="B15" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>340</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>35</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>37</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>47</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="C26" s="2" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>55</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>57</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="E28" s="3">
         <v>7.19</v>
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>61</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>66</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>69</v>
       </c>
       <c r="D32" s="2">
         <v>7.23</v>
@@ -2294,1231 +2426,1363 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>182</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>183</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>75</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>76</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>79</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>312</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>313</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>86</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>87</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>89</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>93</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>168</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>94</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>96</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>97</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="C43" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>103</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B44" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B44" s="4" t="s">
-        <v>105</v>
-      </c>
       <c r="C44" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B45" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B45" s="4" t="s">
-        <v>107</v>
-      </c>
       <c r="C45" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B46" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="B46" s="4" t="s">
-        <v>109</v>
-      </c>
       <c r="C46" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C47" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>112</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>17</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>117</v>
-      </c>
       <c r="C49" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="C50" s="2" t="s">
         <v>118</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>119</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="D52" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B53" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>128</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>129</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="C54" s="2" t="s">
         <v>131</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>132</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>134</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>135</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="B56" s="2" t="s">
-        <v>137</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B57" s="4" t="s">
         <v>138</v>
       </c>
-      <c r="B57" s="4" t="s">
-        <v>139</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="C59" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C59" s="2" t="s">
-        <v>143</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="B60" s="4" t="s">
         <v>144</v>
       </c>
-      <c r="B60" s="4" t="s">
-        <v>145</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="B61" s="4" t="s">
         <v>146</v>
       </c>
-      <c r="B61" s="4" t="s">
-        <v>147</v>
-      </c>
       <c r="C61" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="B62" s="2" t="s">
-        <v>149</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="C64" s="2" t="s">
         <v>152</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>153</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="B65" s="2" t="s">
-        <v>155</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>250</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" s="4" t="s">
         <v>157</v>
       </c>
-      <c r="B67" s="4" t="s">
-        <v>158</v>
-      </c>
       <c r="C67" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>160</v>
-      </c>
       <c r="C68" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B69" s="2" t="s">
-        <v>162</v>
-      </c>
       <c r="C69" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>163</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>164</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>165</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>167</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>169</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>170</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>171</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>173</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>174</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B74" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="C74" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="F74" s="2"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B74" s="4" t="s">
-        <v>178</v>
-      </c>
-      <c r="C74" s="2" t="s">
-        <v>174</v>
-      </c>
-      <c r="D74" s="2" t="s">
-        <v>303</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="F74" s="2"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A75" s="2" t="s">
+      <c r="B75" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>177</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>179</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>180</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>184</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>185</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>186</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>187</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>186</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>191</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>194</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>195</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>197</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>200</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>202</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>206</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>207</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>208</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>210</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>216</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>217</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>219</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>222</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>223</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>227</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>228</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>229</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>233</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>234</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>238</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>239</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>240</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>241</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>242</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>243</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>245</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>246</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>247</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>255</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>256</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>258</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>263</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>264</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>268</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>269</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>271</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>274</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>282</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>283</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>284</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>286</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>289</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>290</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>291</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="9" t="s">
+        <v>291</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C114" s="9" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="9"/>
       <c r="B115" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C115" s="9"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="9"/>
       <c r="B116" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C116" s="9"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>300</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>307</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>306</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>308</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>309</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>321</v>
-      </c>
       <c r="C124" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
+    </row>
+    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>328</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>331</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{412DBDA6-8E49-4FAF-9C86-9B37B6859E86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1C5F5-53E5-4B10-A80E-60B76156B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="353">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1572,6 +1572,10 @@
   </si>
   <si>
     <t>软件开发助理工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1677,11 +1681,11 @@
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1965,21 +1969,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A119" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.83203125" style="1"/>
+    <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -1997,7 +2001,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2014,7 +2018,7 @@
         <v>8.24</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2030,7 +2034,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2047,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2056,7 +2060,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>125</v>
       </c>
@@ -2074,7 +2078,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2087,7 +2091,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2100,7 +2104,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>231</v>
       </c>
@@ -2113,7 +2117,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -2126,7 +2130,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>21</v>
       </c>
@@ -2139,7 +2143,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>23</v>
       </c>
@@ -2155,7 +2159,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -2168,7 +2172,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>27</v>
       </c>
@@ -2181,7 +2185,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>29</v>
       </c>
@@ -2194,7 +2198,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>149</v>
       </c>
@@ -2207,7 +2211,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>33</v>
       </c>
@@ -2220,7 +2224,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -2233,7 +2237,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>91</v>
       </c>
@@ -2249,7 +2253,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>37</v>
       </c>
@@ -2262,7 +2266,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>39</v>
       </c>
@@ -2275,7 +2279,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>266</v>
       </c>
@@ -2288,7 +2292,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2301,7 +2305,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>45</v>
       </c>
@@ -2314,7 +2318,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>48</v>
       </c>
@@ -2327,7 +2331,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>50</v>
       </c>
@@ -2340,7 +2344,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>53</v>
       </c>
@@ -2353,7 +2357,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>126</v>
       </c>
@@ -2368,7 +2372,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>58</v>
       </c>
@@ -2381,7 +2385,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>61</v>
       </c>
@@ -2397,7 +2401,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>64</v>
       </c>
@@ -2410,7 +2414,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>66</v>
       </c>
@@ -2426,7 +2430,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>70</v>
       </c>
@@ -2439,7 +2443,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>71</v>
       </c>
@@ -2452,7 +2456,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>73</v>
       </c>
@@ -2465,7 +2469,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>76</v>
       </c>
@@ -2479,7 +2483,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2492,7 +2496,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
@@ -2505,7 +2509,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>84</v>
       </c>
@@ -2519,7 +2523,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>87</v>
       </c>
@@ -2533,7 +2537,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>92</v>
       </c>
@@ -2546,7 +2550,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>94</v>
       </c>
@@ -2559,7 +2563,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>100</v>
       </c>
@@ -2572,7 +2576,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>103</v>
       </c>
@@ -2585,7 +2589,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>105</v>
       </c>
@@ -2598,7 +2602,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>107</v>
       </c>
@@ -2611,7 +2615,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>110</v>
       </c>
@@ -2624,7 +2628,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>113</v>
       </c>
@@ -2637,7 +2641,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>115</v>
       </c>
@@ -2650,7 +2654,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>117</v>
       </c>
@@ -2663,7 +2667,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -2676,7 +2680,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>120</v>
       </c>
@@ -2692,7 +2696,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>123</v>
       </c>
@@ -2705,7 +2709,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>129</v>
       </c>
@@ -2718,7 +2722,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>132</v>
       </c>
@@ -2731,7 +2735,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>135</v>
       </c>
@@ -2744,7 +2748,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>137</v>
       </c>
@@ -2757,7 +2761,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>139</v>
       </c>
@@ -2771,7 +2775,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>140</v>
       </c>
@@ -2787,7 +2791,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>143</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>145</v>
       </c>
@@ -2816,7 +2820,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>147</v>
       </c>
@@ -2829,7 +2833,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>30</v>
       </c>
@@ -2842,7 +2846,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>150</v>
       </c>
@@ -2855,7 +2859,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>153</v>
       </c>
@@ -2868,7 +2872,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>155</v>
       </c>
@@ -2881,7 +2885,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>156</v>
       </c>
@@ -2894,7 +2898,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
@@ -2910,7 +2914,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>160</v>
       </c>
@@ -2923,7 +2927,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>162</v>
       </c>
@@ -2936,7 +2940,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>165</v>
       </c>
@@ -2949,7 +2953,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>168</v>
       </c>
@@ -2962,7 +2966,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>171</v>
       </c>
@@ -2972,10 +2976,13 @@
       <c r="C73" s="2" t="s">
         <v>173</v>
       </c>
+      <c r="D73" s="2" t="s">
+        <v>352</v>
+      </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>174</v>
       </c>
@@ -2993,7 +3000,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>175</v>
       </c>
@@ -3006,7 +3013,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>178</v>
       </c>
@@ -3019,7 +3026,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>183</v>
       </c>
@@ -3032,7 +3039,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>186</v>
       </c>
@@ -3047,7 +3054,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>188</v>
       </c>
@@ -3060,7 +3067,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>192</v>
       </c>
@@ -3073,7 +3080,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>194</v>
       </c>
@@ -3086,7 +3093,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>197</v>
       </c>
@@ -3102,7 +3109,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>200</v>
       </c>
@@ -3115,7 +3122,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>205</v>
       </c>
@@ -3128,7 +3135,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>208</v>
       </c>
@@ -3141,7 +3148,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>211</v>
       </c>
@@ -3157,7 +3164,7 @@
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>214</v>
       </c>
@@ -3170,7 +3177,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>217</v>
       </c>
@@ -3186,7 +3193,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>220</v>
       </c>
@@ -3199,7 +3206,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>226</v>
       </c>
@@ -3212,7 +3219,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>229</v>
       </c>
@@ -3225,7 +3232,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>232</v>
       </c>
@@ -3238,7 +3245,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>234</v>
       </c>
@@ -3251,7 +3258,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>236</v>
       </c>
@@ -3264,7 +3271,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>238</v>
       </c>
@@ -3277,7 +3284,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>241</v>
       </c>
@@ -3290,7 +3297,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>247</v>
       </c>
@@ -3306,7 +3313,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>244</v>
       </c>
@@ -3319,7 +3326,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>250</v>
       </c>
@@ -3335,7 +3342,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>253</v>
       </c>
@@ -3348,7 +3355,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>256</v>
       </c>
@@ -3361,7 +3368,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>259</v>
       </c>
@@ -3374,7 +3381,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>261</v>
       </c>
@@ -3387,7 +3394,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>264</v>
       </c>
@@ -3400,7 +3407,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>267</v>
       </c>
@@ -3413,7 +3420,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>269</v>
       </c>
@@ -3426,7 +3433,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>271</v>
       </c>
@@ -3439,7 +3446,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>278</v>
       </c>
@@ -3452,7 +3459,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>280</v>
       </c>
@@ -3465,7 +3472,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>282</v>
       </c>
@@ -3478,7 +3485,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>284</v>
       </c>
@@ -3491,7 +3498,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>287</v>
       </c>
@@ -3504,7 +3511,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>289</v>
       </c>
@@ -3517,38 +3524,38 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A114" s="9" t="s">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A114" s="10" t="s">
         <v>291</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="C114" s="9" t="s">
+      <c r="C114" s="10" t="s">
         <v>295</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A115" s="9"/>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A115" s="10"/>
       <c r="B115" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="10"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A116" s="9"/>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A116" s="10"/>
       <c r="B116" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="10"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>296</v>
       </c>
@@ -3561,7 +3568,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>298</v>
       </c>
@@ -3574,7 +3581,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>304</v>
       </c>
@@ -3587,7 +3594,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>307</v>
       </c>
@@ -3600,7 +3607,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>309</v>
       </c>
@@ -3613,7 +3620,7 @@
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>313</v>
       </c>
@@ -3626,7 +3633,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>315</v>
       </c>
@@ -3639,7 +3646,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>319</v>
       </c>
@@ -3652,29 +3659,29 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="B125" s="10" t="s">
+      <c r="B125" s="9" t="s">
         <v>324</v>
       </c>
       <c r="C125" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B126" s="10" t="s">
+      <c r="B126" s="9" t="s">
         <v>328</v>
       </c>
       <c r="C126" s="4" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>329</v>
       </c>
@@ -3685,7 +3692,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>332</v>
       </c>
@@ -3696,7 +3703,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>334</v>
       </c>
@@ -3707,7 +3714,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>335</v>
       </c>
@@ -3718,18 +3725,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="B131" s="10" t="s">
+      <c r="B131" s="9" t="s">
         <v>338</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>341</v>
       </c>
@@ -3740,7 +3747,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>344</v>
       </c>
@@ -3751,18 +3758,18 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B134" s="10" t="s">
+      <c r="B134" s="9" t="s">
         <v>346</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>348</v>
       </c>
@@ -3773,7 +3780,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>350</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEB1C5F5-53E5-4B10-A80E-60B76156B5FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA9C6A-322D-4871-8E80-AEB36A58C662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="353">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="360">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1576,6 +1576,34 @@
   </si>
   <si>
     <t>8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.26</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同花顺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师-问财集群（杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新华三</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1967,10 +1995,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F136"/>
+  <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
+      <selection activeCell="B140" sqref="B140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2338,7 +2366,7 @@
       <c r="B26" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="3" t="s">
         <v>47</v>
       </c>
       <c r="E26" s="2"/>
@@ -3352,6 +3380,9 @@
       <c r="C100" s="2" t="s">
         <v>255</v>
       </c>
+      <c r="D100" s="2" t="s">
+        <v>353</v>
+      </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
@@ -3455,6 +3486,9 @@
       </c>
       <c r="C108" s="2" t="s">
         <v>277</v>
+      </c>
+      <c r="D108" s="2" t="s">
+        <v>354</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
@@ -3653,7 +3687,7 @@
       <c r="B124" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="C124" s="2" t="s">
+      <c r="C124" s="3" t="s">
         <v>305</v>
       </c>
       <c r="E124" s="2"/>
@@ -3789,6 +3823,28 @@
       </c>
       <c r="C136" s="2" t="s">
         <v>331</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87CA9C6A-322D-4871-8E80-AEB36A58C662}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A753D2-CACC-4E6F-8308-0A699D59103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="431" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="363">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1604,6 +1604,18 @@
   </si>
   <si>
     <t>软件开发工程师-Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.27</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1997,8 +2009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A120" workbookViewId="0">
-      <selection activeCell="B140" sqref="B140"/>
+    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="J108" sqref="J108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2601,6 +2613,9 @@
       <c r="C43" s="2" t="s">
         <v>102</v>
       </c>
+      <c r="D43" s="2" t="s">
+        <v>362</v>
+      </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
@@ -2705,6 +2720,9 @@
       <c r="C51" s="2" t="s">
         <v>118</v>
       </c>
+      <c r="D51" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
@@ -2760,6 +2778,9 @@
       <c r="C55" s="2" t="s">
         <v>134</v>
       </c>
+      <c r="D55" s="2" t="s">
+        <v>361</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
@@ -2844,6 +2865,9 @@
       </c>
       <c r="C61" s="2" t="s">
         <v>142</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>361</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3737,7 +3761,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>334</v>
       </c>
@@ -3748,7 +3772,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>335</v>
       </c>
@@ -3759,7 +3783,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>337</v>
       </c>
@@ -3770,7 +3794,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>341</v>
       </c>
@@ -3781,7 +3805,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>344</v>
       </c>
@@ -3792,7 +3816,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>345</v>
       </c>
@@ -3803,7 +3827,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>348</v>
       </c>
@@ -3814,7 +3838,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>350</v>
       </c>
@@ -3825,7 +3849,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>355</v>
       </c>
@@ -3835,8 +3859,11 @@
       <c r="C137" s="2" t="s">
         <v>357</v>
       </c>
-    </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D137" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>358</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43A753D2-CACC-4E6F-8308-0A699D59103B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD757EA9-5C3D-4633-A3FB-1EC2D5595665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="369">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -686,10 +686,6 @@
   </si>
   <si>
     <t>视源CVTE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Web后台开发工程师（广州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1375,14 +1371,6 @@
   </si>
   <si>
     <t>Java工程师（IT应用）（东莞、西安、南京）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.28
-8.23
-8.23
-8.23
-8.23</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1595,10 +1583,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>8.25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>新华三</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1616,6 +1600,75 @@
   </si>
   <si>
     <t>8.18</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>浩鲸科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（厦门）
+第2志愿：Java开发工程师（长沙）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烽火通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：IT软件工程师（武汉）
+第2志愿：软件研发工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Web后台开发工程师（广州）（提前批）
+Web后台开发工程师（广州）（正式批）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.6
+8.28</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+8.28
+8.28（冲突，做的交易技术）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">6.28
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.23</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+8.23
+8.23
+8.23</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2007,10 +2060,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F138"/>
+  <dimension ref="A1:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="J108" sqref="J108"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D38" sqref="D38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2019,7 +2072,7 @@
     <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -2038,7 +2091,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2052,7 +2105,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="F2" s="2">
         <v>8.24</v>
@@ -2114,7 +2167,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -2146,7 +2199,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -2230,10 +2283,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2282,13 +2335,13 @@
         <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>317</v>
+        <v>368</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2321,7 +2374,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
@@ -2340,7 +2393,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2436,7 +2489,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2478,7 +2531,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2488,10 +2541,10 @@
         <v>71</v>
       </c>
       <c r="B34" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="C34" s="4" t="s">
         <v>181</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>182</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
@@ -2536,15 +2589,18 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>311</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>312</v>
+      <c r="D38" s="4" t="s">
+        <v>367</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2582,7 +2638,7 @@
         <v>92</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>93</v>
@@ -2614,7 +2670,7 @@
         <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2721,7 +2777,7 @@
         <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2737,7 +2793,7 @@
         <v>121</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2779,7 +2835,7 @@
         <v>134</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2815,10 +2871,10 @@
         <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
@@ -2835,7 +2891,7 @@
         <v>142</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2851,7 +2907,7 @@
         <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2867,7 +2923,7 @@
         <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2929,10 +2985,10 @@
         <v>155</v>
       </c>
       <c r="B66" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="C66" s="4" t="s">
         <v>248</v>
-      </c>
-      <c r="C66" s="4" t="s">
-        <v>249</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -2950,28 +3006,28 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="B68" s="2" t="s">
-        <v>159</v>
-      </c>
-      <c r="C68" s="2" t="s">
-        <v>152</v>
+      <c r="B68" s="4" t="s">
+        <v>365</v>
+      </c>
+      <c r="C68" s="4" t="s">
+        <v>366</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>160</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>161</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>152</v>
@@ -2981,616 +3037,616 @@
     </row>
     <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="B70" s="4" t="s">
         <v>162</v>
       </c>
-      <c r="B70" s="4" t="s">
+      <c r="C70" s="2" t="s">
         <v>163</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>164</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="B71" s="2" t="s">
-        <v>166</v>
-      </c>
       <c r="C71" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>167</v>
+      </c>
+      <c r="B72" s="4" t="s">
         <v>168</v>
       </c>
-      <c r="B72" s="4" t="s">
+      <c r="C72" s="2" t="s">
         <v>169</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>170</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C73" s="2" t="s">
-        <v>173</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="B75" s="2" t="s">
-        <v>176</v>
-      </c>
       <c r="C75" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="B76" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>178</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C76" s="2" t="s">
-        <v>179</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B77" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B77" s="4" t="s">
+      <c r="C77" s="2" t="s">
         <v>184</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B78" s="4" t="s">
         <v>186</v>
       </c>
-      <c r="B78" s="4" t="s">
-        <v>187</v>
-      </c>
       <c r="C78" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>191</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>194</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>195</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>196</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>199</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>200</v>
       </c>
-      <c r="B83" s="2" t="s">
-        <v>201</v>
-      </c>
       <c r="C83" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>205</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>206</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>207</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>209</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>213</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>221</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>222</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>226</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>227</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>228</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>229</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>230</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>232</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>233</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>235</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>237</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>238</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>239</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>240</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>241</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>242</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>244</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>245</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>246</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>257</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>263</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>264</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>265</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>267</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>268</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>270</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>271</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>273</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>281</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>283</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>284</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>286</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>285</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>288</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>289</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>290</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C114" s="10" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3598,7 +3654,7 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C115" s="10"/>
       <c r="E115" s="2"/>
@@ -3607,7 +3663,7 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C116" s="10"/>
       <c r="E116" s="2"/>
@@ -3615,263 +3671,285 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>299</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>304</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>305</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>307</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>308</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>315</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>316</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>322</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B125" s="9" t="s">
-        <v>324</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B126" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="B126" s="9" t="s">
-        <v>328</v>
-      </c>
       <c r="C126" s="4" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C127" s="2" t="s">
         <v>329</v>
-      </c>
-      <c r="B127" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>331</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>344</v>
+      </c>
+      <c r="C134" s="4" t="s">
         <v>345</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>346</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>347</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="C137" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>357</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>357</v>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A139" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>361</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>364</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>362</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD757EA9-5C3D-4633-A3FB-1EC2D5595665}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DB726-B864-4803-9B4A-8C03D6C5240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7710" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="443" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="377">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1086,11 +1086,6 @@
   <si>
     <t>测试工程师（上海）
 java后端研发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8.6
-8.18</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1669,6 +1664,57 @@
 8.23
 8.23</t>
     </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民生银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2023届秋季校园招聘——“研发工程师”赛道（北京，总行信息科技部）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游族网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：后端开发工程师
+第2志愿：系统开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">8.6
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.18</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金恩信息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.29</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2060,10 +2106,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F140"/>
+  <dimension ref="A1:F143"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D38" sqref="D38"/>
+    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
+      <selection activeCell="B144" sqref="B144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2091,7 +2137,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2283,10 +2329,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>337</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>338</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2335,13 +2381,13 @@
         <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2374,7 +2420,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
@@ -2393,7 +2439,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2531,7 +2577,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2594,13 +2640,13 @@
         <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>310</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>311</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2670,7 +2716,7 @@
         <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2777,7 +2823,7 @@
         <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2835,7 +2881,7 @@
         <v>134</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2923,7 +2969,7 @@
         <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -2988,7 +3034,7 @@
         <v>247</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>248</v>
+        <v>373</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3011,10 +3057,10 @@
         <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>364</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>365</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>366</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>198</v>
@@ -3085,7 +3131,7 @@
         <v>172</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3101,10 +3147,10 @@
         <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>302</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -3267,7 +3313,7 @@
         <v>212</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
@@ -3296,7 +3342,7 @@
         <v>215</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
@@ -3416,7 +3462,7 @@
         <v>239</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
@@ -3436,217 +3482,217 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>251</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>253</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>254</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>256</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>260</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>261</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>262</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>263</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>264</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>267</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>269</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>270</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>271</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>272</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>278</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>280</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>282</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>283</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>285</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>284</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>286</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>287</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>288</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>289</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C114" s="10" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3654,7 +3700,7 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C115" s="10"/>
       <c r="E115" s="2"/>
@@ -3663,7 +3709,7 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C116" s="10"/>
       <c r="E116" s="2"/>
@@ -3671,285 +3717,318 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>296</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>303</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>305</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>304</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>315</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>318</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>321</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="C125" s="4" t="s">
         <v>322</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>323</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>325</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>324</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>326</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>325</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>330</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>331</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>328</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>333</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>336</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>339</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>340</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="C134" s="4" t="s">
         <v>344</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>345</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>346</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>348</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>349</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>353</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>354</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>355</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>356</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>360</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="2" t="s">
         <v>361</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>363</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>364</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>372</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>376</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403DB726-B864-4803-9B4A-8C03D6C5240B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC4F011-0CE8-42AC-8CA2-AEE4504D9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7710" yWindow="3600" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="452" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="390">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -862,10 +862,6 @@
   </si>
   <si>
     <t>亿道集团</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>软件工程师（Java方向）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1715,6 +1711,63 @@
   </si>
   <si>
     <t>8.29</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师（Java方向）（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>趣丸科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中邮消费金融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（Java）（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国邮政储蓄银行（智联）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>U+金融科技岗（总行审计条线，武汉）
+U+信息技术岗（总行信息科技板块，成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>途牛</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（南京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中科曙光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（青岛、西安）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诗悦网络</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台工程师（广州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2106,10 +2159,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F143"/>
+  <dimension ref="A1:F149"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A135" workbookViewId="0">
-      <selection activeCell="B144" sqref="B144"/>
+    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
+      <selection activeCell="D148" sqref="D148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2137,7 +2190,7 @@
         <v>79</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2151,7 +2204,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="F2" s="2">
         <v>8.24</v>
@@ -2213,7 +2266,7 @@
         <v>109</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -2245,7 +2298,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>17</v>
@@ -2329,10 +2382,10 @@
         <v>29</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="4" t="s">
         <v>336</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>337</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
@@ -2381,13 +2434,13 @@
         <v>91</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
@@ -2420,7 +2473,7 @@
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>41</v>
@@ -2439,7 +2492,7 @@
         <v>90</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
@@ -2535,7 +2588,7 @@
         <v>63</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
@@ -2577,7 +2630,7 @@
         <v>69</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
@@ -2640,13 +2693,13 @@
         <v>83</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>309</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>310</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
@@ -2716,7 +2769,7 @@
         <v>102</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -2823,7 +2876,7 @@
         <v>118</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2839,7 +2892,7 @@
         <v>121</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
@@ -2881,7 +2934,7 @@
         <v>134</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2917,10 +2970,10 @@
         <v>139</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
@@ -2937,7 +2990,7 @@
         <v>142</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2953,7 +3006,7 @@
         <v>142</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
@@ -2969,7 +3022,7 @@
         <v>142</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
@@ -3031,10 +3084,10 @@
         <v>155</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
@@ -3057,10 +3110,10 @@
         <v>158</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>363</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>364</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>365</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>198</v>
@@ -3131,7 +3184,7 @@
         <v>172</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
@@ -3147,10 +3200,10 @@
         <v>172</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>300</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>301</v>
       </c>
       <c r="F74" s="2"/>
     </row>
@@ -3204,7 +3257,7 @@
         <v>184</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F78" s="2"/>
     </row>
@@ -3258,7 +3311,7 @@
         <v>198</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
@@ -3268,7 +3321,7 @@
         <v>199</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>200</v>
+        <v>376</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>198</v>
@@ -3278,421 +3331,421 @@
     </row>
     <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>204</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>205</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>206</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>208</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C86" s="2" t="s">
-        <v>212</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E86" s="2"/>
       <c r="F86" s="2"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>214</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>215</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>217</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>220</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>221</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>225</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>226</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>227</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>229</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>231</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>232</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>234</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>236</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>238</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>239</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>241</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>243</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>244</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>245</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>252</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>253</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>255</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>260</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>261</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>263</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="B105" s="4" t="s">
-        <v>266</v>
-      </c>
       <c r="C105" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>268</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>269</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>271</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>277</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>279</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>280</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>281</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>282</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>283</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>285</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>286</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>287</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>288</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="B114" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>290</v>
-      </c>
       <c r="C114" s="10" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3700,7 +3753,7 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="10"/>
       <c r="B115" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C115" s="10"/>
       <c r="E115" s="2"/>
@@ -3709,7 +3762,7 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="10"/>
       <c r="B116" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C116" s="10"/>
       <c r="E116" s="2"/>
@@ -3717,318 +3770,384 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>295</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>297</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>302</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>304</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>303</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>311</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>312</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>317</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>320</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="C125" s="4" t="s">
         <v>321</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>322</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>324</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>323</v>
-      </c>
-      <c r="B126" s="9" t="s">
-        <v>325</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>324</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="B127" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C127" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B128" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="B128" s="1" t="s">
-        <v>330</v>
-      </c>
       <c r="C128" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B129" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="C129" s="2" t="s">
         <v>327</v>
-      </c>
-      <c r="C129" s="2" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="B130" s="1" t="s">
         <v>332</v>
       </c>
-      <c r="B130" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="C130" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B131" s="9" t="s">
         <v>334</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>335</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B132" s="1" t="s">
         <v>338</v>
       </c>
-      <c r="B132" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="C132" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B134" s="9" t="s">
         <v>342</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="C134" s="4" t="s">
         <v>343</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>344</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B135" s="1" t="s">
         <v>345</v>
       </c>
-      <c r="B135" s="1" t="s">
-        <v>346</v>
-      </c>
       <c r="C135" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B136" s="1" t="s">
         <v>347</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>348</v>
-      </c>
       <c r="C136" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B137" s="1" t="s">
         <v>352</v>
       </c>
-      <c r="B137" s="1" t="s">
-        <v>353</v>
-      </c>
       <c r="C137" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B138" s="1" t="s">
         <v>354</v>
       </c>
-      <c r="B138" s="1" t="s">
-        <v>355</v>
-      </c>
       <c r="C138" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B139" s="9" t="s">
         <v>359</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="C139" s="2" t="s">
         <v>360</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>361</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B140" s="9" t="s">
         <v>362</v>
       </c>
-      <c r="B140" s="9" t="s">
-        <v>363</v>
-      </c>
       <c r="C140" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="B141" s="1" t="s">
         <v>368</v>
       </c>
-      <c r="B141" s="1" t="s">
+      <c r="C141" s="2" t="s">
         <v>369</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>370</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B142" s="9" t="s">
         <v>371</v>
       </c>
-      <c r="B142" s="9" t="s">
-        <v>372</v>
-      </c>
       <c r="C142" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B143" s="1" t="s">
         <v>374</v>
       </c>
-      <c r="B143" s="1" t="s">
+      <c r="C143" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="C143" s="2" t="s">
-        <v>376</v>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>383</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>379</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECC4F011-0CE8-42AC-8CA2-AEE4504D9946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499210CB-FD37-41F2-92AE-F7FCDA34759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="390">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="401">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1768,6 +1768,52 @@
   </si>
   <si>
     <t>后台工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.30（测开北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5（测开北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突
+推迟了，等待消息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红海无限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：后端开发工程师（北京）
+第2志愿：后端工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>华兴源创</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件测试开发工程师（苏州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>宏杉科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java软件开发工程师（杭州）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2159,19 +2205,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F149"/>
+  <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A129" workbookViewId="0">
-      <selection activeCell="D148" sqref="D148"/>
+    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
+      <selection activeCell="B157" sqref="B157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="23.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="5.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -3047,7 +3093,7 @@
       <c r="B63" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="C63" s="2" t="s">
+      <c r="C63" s="3" t="s">
         <v>142</v>
       </c>
       <c r="E63" s="2"/>
@@ -3368,8 +3414,12 @@
       <c r="D86" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E86" s="2"/>
-      <c r="F86" s="2"/>
+      <c r="E86" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
@@ -3409,6 +3459,9 @@
       </c>
       <c r="C89" s="2" t="s">
         <v>220</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>393</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -3830,6 +3883,9 @@
       <c r="C121" s="2" t="s">
         <v>302</v>
       </c>
+      <c r="D121" s="2" t="s">
+        <v>390</v>
+      </c>
       <c r="E121" s="2"/>
       <c r="F121" s="2"/>
     </row>
@@ -3904,6 +3960,9 @@
       <c r="C127" s="2" t="s">
         <v>327</v>
       </c>
+      <c r="D127" s="2" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
@@ -4148,6 +4207,39 @@
       </c>
       <c r="C149" s="2" t="s">
         <v>379</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>395</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499210CB-FD37-41F2-92AE-F7FCDA34759F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13883A-C8EE-4E7D-B107-D7FFAD627644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="402">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1814,6 +1814,10 @@
   </si>
   <si>
     <t>Java软件开发工程师（杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.31</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2207,8 +2211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F152"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A140" workbookViewId="0">
-      <selection activeCell="B157" sqref="B157"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="E95" sqref="E95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3289,6 +3293,9 @@
       <c r="C77" s="2" t="s">
         <v>184</v>
       </c>
+      <c r="D77" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
@@ -3476,6 +3483,9 @@
       <c r="C90" s="2" t="s">
         <v>226</v>
       </c>
+      <c r="D90" s="2" t="s">
+        <v>401</v>
+      </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
@@ -3501,6 +3511,9 @@
       </c>
       <c r="C92" s="2" t="s">
         <v>226</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>401</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E13883A-C8EE-4E7D-B107-D7FFAD627644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF2841-BB81-46F6-8595-EF3B89E5E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="487" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="411">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1818,6 +1818,42 @@
   </si>
   <si>
     <t>8.31</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>奇瑞股份-雄狮科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>车联网平台开发工程师（Java）（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商泰汽车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unity中国</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1（IT软件工程师）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1（测开）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2209,17 +2245,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F152"/>
+  <dimension ref="A1:F155"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="E95" sqref="E95"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E89" sqref="E89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="4" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="8.875" style="1"/>
@@ -3392,6 +3429,9 @@
       <c r="C84" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="D84" s="2" t="s">
+        <v>410</v>
+      </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
@@ -3451,7 +3491,7 @@
       <c r="C88" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="D88" s="2" t="s">
+      <c r="D88" s="3" t="s">
         <v>298</v>
       </c>
       <c r="E88" s="2"/>
@@ -4122,6 +4162,9 @@
       <c r="C140" s="2" t="s">
         <v>360</v>
       </c>
+      <c r="D140" s="2" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
@@ -4253,6 +4296,39 @@
       </c>
       <c r="C152" s="2" t="s">
         <v>395</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>404</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0BF2841-BB81-46F6-8595-EF3B89E5E289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C4743-35A0-441B-A620-673214660EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="427">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1854,6 +1854,75 @@
   </si>
   <si>
     <t>9.1（测开）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拓尔思（邮件投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水滴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：Java开发工程师（北京）
+第2志愿：Java开发工程师
+第3志愿：Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腾讯云智</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>后台开发工程师（成都、南京、无锡）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软（公众号）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨人网络（牛客投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏测试开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8.20
+8.20</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.2
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闻泰科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师-Java方向-方舟实验室（上海）
+软件工程师-Java方向-产品中心（上海）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2245,10 +2314,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F155"/>
+  <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E89" sqref="E89"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2842,6 +2911,9 @@
       <c r="C42" s="2" t="s">
         <v>96</v>
       </c>
+      <c r="D42" s="2" t="s">
+        <v>414</v>
+      </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
@@ -3730,8 +3802,11 @@
       <c r="B105" s="4" t="s">
         <v>265</v>
       </c>
-      <c r="C105" s="2" t="s">
-        <v>260</v>
+      <c r="C105" s="4" t="s">
+        <v>423</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>424</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
@@ -3939,7 +4014,9 @@
       <c r="D121" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="E121" s="2"/>
+      <c r="E121" s="2" t="s">
+        <v>411</v>
+      </c>
       <c r="F121" s="2"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
@@ -4329,6 +4406,72 @@
       </c>
       <c r="C155" s="2" t="s">
         <v>404</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+      <c r="A157" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>416</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A158" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A159" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A160" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A161" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>426</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>414</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{684C4743-35A0-441B-A620-673214660EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FE41B-7ED5-4237-B804-68066BAB33C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2002,7 +2002,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2033,6 +2033,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2316,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
-      <selection activeCell="B134" sqref="B134"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2540,7 +2543,7 @@
       <c r="B15" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="11" t="s">
         <v>336</v>
       </c>
       <c r="E15" s="2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA5FE41B-7ED5-4237-B804-68066BAB33C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390285E-6DC9-4407-901B-5A801723C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2031,11 +2031,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2319,8 +2319,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F161"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
+      <selection activeCell="D131" sqref="D131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2543,7 +2543,7 @@
       <c r="B15" s="4" t="s">
         <v>335</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>336</v>
       </c>
       <c r="E15" s="2"/>
@@ -3922,33 +3922,33 @@
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A114" s="10" t="s">
+      <c r="A114" s="11" t="s">
         <v>288</v>
       </c>
       <c r="B114" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="C114" s="11" t="s">
         <v>292</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A115" s="10"/>
+      <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="C115" s="10"/>
+      <c r="C115" s="11"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A116" s="10"/>
+      <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="C116" s="10"/>
+      <c r="C116" s="11"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5390285E-6DC9-4407-901B-5A801723C10F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90BDB2-5ACF-49FB-B117-787D0A21DF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="519" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="435">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1923,6 +1923,38 @@
   <si>
     <t>软件工程师-Java方向-方舟实验室（上海）
 软件工程师-Java方向-产品中心（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>成都精灵云（邮箱投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鼎桥通信</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2317,10 +2349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F161"/>
+  <dimension ref="A1:F163"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A126" workbookViewId="0">
-      <selection activeCell="D131" sqref="D131"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E107" sqref="E107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3824,6 +3856,9 @@
       <c r="C106" s="2" t="s">
         <v>260</v>
       </c>
+      <c r="D106" s="2" t="s">
+        <v>434</v>
+      </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
@@ -4140,6 +4175,9 @@
       <c r="C131" s="4" t="s">
         <v>321</v>
       </c>
+      <c r="D131" s="2" t="s">
+        <v>432</v>
+      </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
@@ -4466,7 +4504,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>425</v>
       </c>
@@ -4475,6 +4513,31 @@
       </c>
       <c r="C161" s="2" t="s">
         <v>414</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="D163" s="2" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D90BDB2-5ACF-49FB-B117-787D0A21DF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA403E4-DEAB-4E79-AFB0-C6B025B5A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="435">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="454">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>6.19（简历已挂）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>【技术中心】后端软件开发（Java）（北京）—研发类</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -424,10 +420,6 @@
   </si>
   <si>
     <t>7.26</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6.19（未做测评）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1382,42 +1374,6 @@
   </si>
   <si>
     <t>二面</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>7.7（流程终止）</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>8.24</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1955,6 +1911,152 @@
   </si>
   <si>
     <t>9.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>福瑞泰克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件集成测试工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迪普科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件研发岗（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞腾（邮箱投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国农业银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>研发中心（武汉）：软件研发岗、测试开发岗
+数据中心：信息技术工程师岗（上海）、信息技术工程师岗（北京）
+农银人寿：IT类
+农银金科：软件研发岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>斗鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：服务端开发工程师（Java）
+第2志愿：Java开发工程师（大数据方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>同程旅行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>迅雷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器开发工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>7.7（流程终止）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>8.24</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java工程师（深圳）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移卡集团（邮箱投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>【技术中心】后端软件开发（Java）（北京）—研发类
+后端开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>6.19（未做测评）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+9.4</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.6</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2034,7 +2136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2068,6 +2170,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2349,10 +2454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F163"/>
+  <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E107" sqref="E107"/>
+    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
+      <selection activeCell="E171" sqref="E171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2375,13 +2480,13 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2395,7 +2500,7 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="F2" s="2">
         <v>8.24</v>
@@ -2430,34 +2535,34 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>97</v>
+      <c r="B5" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>452</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
     <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C6" s="3" t="s">
         <v>6</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F6" s="2"/>
     </row>
@@ -2466,7 +2571,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>6</v>
@@ -2479,7 +2584,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>6</v>
@@ -2489,52 +2594,52 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>18</v>
       </c>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
     <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>20</v>
-      </c>
       <c r="C10" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>22</v>
-      </c>
       <c r="C11" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="C12" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D12" s="3">
         <v>7.26</v>
@@ -2544,211 +2649,211 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B13" s="2" t="s">
-        <v>26</v>
-      </c>
       <c r="C13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="B14" s="4" t="s">
-        <v>28</v>
-      </c>
       <c r="C14" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
     <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="C15" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="B17" s="4" t="s">
-        <v>34</v>
-      </c>
       <c r="C17" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" s="3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
     <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>318</v>
+        <v>447</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B20" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C20" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
     <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="C24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="C25" s="2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="C26" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="C27" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>55</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>57</v>
       </c>
       <c r="E28" s="3">
         <v>7.19</v>
@@ -2757,55 +2862,55 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="C29" s="2" t="s">
         <v>59</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="C30" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>63</v>
-      </c>
       <c r="D30" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="C31" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
     <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="C32" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>68</v>
       </c>
       <c r="D32" s="2">
         <v>7.23</v>
@@ -2815,52 +2920,52 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
     <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B34" s="4" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>74</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>75</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
     <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B36" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="C36" s="3" t="s">
         <v>77</v>
-      </c>
-      <c r="C36" s="3" t="s">
-        <v>78</v>
       </c>
       <c r="D36" s="6"/>
       <c r="E36" s="2"/>
@@ -2868,42 +2973,42 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="C37" s="2" t="s">
         <v>81</v>
-      </c>
-      <c r="C37" s="2" t="s">
-        <v>82</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
     <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="C38" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D38" s="4" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="C39" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>86</v>
       </c>
       <c r="D39" s="7"/>
       <c r="E39" s="2"/>
@@ -2911,13 +3016,13 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="C40" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>89</v>
       </c>
       <c r="D40" s="7"/>
       <c r="E40" s="2"/>
@@ -2925,136 +3030,136 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>166</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B42" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="B42" s="2" t="s">
+      <c r="C42" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="D42" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="B43" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>102</v>
-      </c>
       <c r="D43" s="2" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
     <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
     <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B45" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
     <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>112</v>
-      </c>
       <c r="C47" s="2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B50" s="2" t="s">
-        <v>119</v>
-      </c>
       <c r="C50" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -3064,110 +3169,110 @@
         <v>360</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="B52" s="2" t="s">
-        <v>122</v>
-      </c>
       <c r="C52" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
     <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>129</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>131</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="C55" s="2" t="s">
         <v>132</v>
       </c>
-      <c r="B55" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>134</v>
-      </c>
       <c r="D55" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
     <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B57" s="4" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
     <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
@@ -3175,796 +3280,796 @@
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C59" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="B59" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>142</v>
-      </c>
       <c r="D59" s="3" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
     <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
     <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B61" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>150</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>152</v>
       </c>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
     <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
     <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
     <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="C68" s="4" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
     <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="B70" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="C70" s="2" t="s">
         <v>161</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="C70" s="2" t="s">
-        <v>163</v>
       </c>
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
     <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
+        <v>165</v>
+      </c>
+      <c r="B72" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="C72" s="2" t="s">
         <v>167</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="C72" s="2" t="s">
-        <v>169</v>
       </c>
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C73" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="B73" s="2" t="s">
-        <v>171</v>
-      </c>
-      <c r="C73" s="2" t="s">
-        <v>172</v>
-      </c>
       <c r="D73" s="2" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
     <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="F74" s="2"/>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
     <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B76" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="B76" s="4" t="s">
-        <v>179</v>
-      </c>
       <c r="C76" s="2" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
     <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B77" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="C77" s="2" t="s">
-        <v>184</v>
-      </c>
       <c r="D77" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
     <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="E78" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F78" s="2"/>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="C79" s="2" t="s">
         <v>187</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>189</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>190</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>192</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
     <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="C81" s="2" t="s">
         <v>193</v>
-      </c>
-      <c r="B81" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C82" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="B82" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="C82" s="2" t="s">
-        <v>198</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
     <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B84" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="C84" s="2" t="s">
         <v>203</v>
       </c>
-      <c r="B84" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="C84" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
     <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B86" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="C86" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="B86" s="4" t="s">
-        <v>210</v>
-      </c>
-      <c r="C86" s="2" t="s">
-        <v>211</v>
-      </c>
       <c r="D86" s="2" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C87" s="2" t="s">
         <v>212</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>213</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>214</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="C88" s="2" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
     <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="C89" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B89" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="C89" s="2" t="s">
-        <v>220</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
     <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="C90" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="B90" s="4" t="s">
-        <v>225</v>
-      </c>
-      <c r="C90" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
     <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
     <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>235</v>
+      </c>
+      <c r="C95" s="2" t="s">
         <v>236</v>
-      </c>
-      <c r="B95" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>238</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
     <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B96" s="4" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
     <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B98" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="C98" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C99" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="B99" s="2" t="s">
-        <v>248</v>
-      </c>
-      <c r="C99" s="2" t="s">
-        <v>249</v>
-      </c>
       <c r="D99" s="2" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C100" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="B100" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="C100" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
     <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="C103" s="2" t="s">
         <v>258</v>
-      </c>
-      <c r="B103" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B104" s="4" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
     <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
     <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B107" s="4" t="s">
+        <v>267</v>
+      </c>
+      <c r="C107" s="2" t="s">
         <v>268</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>270</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
     <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B110" s="4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>281</v>
       </c>
-      <c r="B111" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C111" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
     <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B113" s="4" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
@@ -3972,7 +4077,7 @@
     <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="C115" s="11"/>
       <c r="E115" s="2"/>
@@ -3981,7 +4086,7 @@
     <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="C116" s="11"/>
       <c r="E116" s="2"/>
@@ -3989,555 +4094,645 @@
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>303</v>
-      </c>
       <c r="C119" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
     <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B120" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>411</v>
-      </c>
-      <c r="F121" s="2"/>
+        <v>408</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>453</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="C124" s="3" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
     <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="B125" s="9" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="B126" s="9" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="C126" s="4" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B131" s="9" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B134" s="9" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="C134" s="4" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B137" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>346</v>
+      </c>
+      <c r="D137" s="2" t="s">
         <v>352</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>349</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>355</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B139" s="9" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="B140" s="9" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="B142" s="9" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B145" s="1" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="B146" s="9" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B149" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="C149" s="2" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
     </row>
     <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B150" s="9" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="C150" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="C151" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="C152" s="2" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="C153" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
       <c r="C154" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B157" s="9" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>418</v>
+        <v>415</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B161" s="9" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>428</v>
-      </c>
-      <c r="D163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>433</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="1" t="s">
+        <v>438</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+      <c r="A167" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A168" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>442</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>444</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="1" t="s">
+        <v>450</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BA403E4-DEAB-4E79-AFB0-C6B025B5A5EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB515B1-5D66-4885-9A78-0F4F55108ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2136,7 +2136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2170,9 +2170,6 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2456,8 +2453,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="E171" sqref="E171"/>
+    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2542,7 +2539,7 @@
       <c r="B5" s="4" t="s">
         <v>451</v>
       </c>
-      <c r="C5" s="12" t="s">
+      <c r="C5" s="8" t="s">
         <v>452</v>
       </c>
       <c r="E5" s="2"/>
@@ -3861,7 +3858,7 @@
       <c r="C99" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="3" t="s">
         <v>295</v>
       </c>
       <c r="E99" s="2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB515B1-5D66-4885-9A78-0F4F55108ED7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6527838-18E1-4B76-A0A7-AFB66A48F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="225" windowWidth="28800" windowHeight="15345" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="553" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="455">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2057,6 +2057,10 @@
   </si>
   <si>
     <t>9.6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2453,8 +2457,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A87" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="G108" sqref="G108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4068,6 +4072,9 @@
       <c r="C114" s="11" t="s">
         <v>290</v>
       </c>
+      <c r="D114" s="2" t="s">
+        <v>454</v>
+      </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6527838-18E1-4B76-A0A7-AFB66A48F54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB3185-ABEA-4954-A13E-33B775A0492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="554" uniqueCount="455">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="458">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1249,10 +1249,6 @@
   </si>
   <si>
     <t>招商银行</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招银网络科技：软件开发工程师（杭州、深圳、成都）、测试开发工程师（杭州、深圳、成都）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2061,6 +2057,26 @@
   </si>
   <si>
     <t>9.5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>三面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>意向/Offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>按往年17*14
+交补餐补，南京人才补贴800/月
+公积金各10%
+住宿900左右/月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招银网络科技：软件开发工程师（杭州、深圳、成都）
+测试开发工程师（杭州、深圳、成都）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2455,24 +2471,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F171"/>
+  <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="G108" sqref="G108"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="87.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.375" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2487,10 +2505,16 @@
         <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+        <v>314</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>454</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2506,8 +2530,11 @@
       <c r="F2" s="2">
         <v>8.24</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="H2" s="9" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2523,7 +2550,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2536,20 +2563,20 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>451</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>452</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2567,7 +2594,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2607,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:6" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2593,7 +2620,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>227</v>
       </c>
@@ -2606,7 +2633,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2619,7 +2646,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2632,7 +2659,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2648,7 +2675,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2661,7 +2688,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2674,20 +2701,20 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>331</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>333</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2700,7 +2727,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2713,7 +2740,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2726,23 +2753,23 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2755,7 +2782,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2768,7 +2795,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>261</v>
       </c>
@@ -2781,7 +2808,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2794,7 +2821,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2807,7 +2834,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2820,7 +2847,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2833,7 +2860,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2846,7 +2873,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2861,7 +2888,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2874,7 +2901,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2890,7 +2917,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2903,7 +2930,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2919,7 +2946,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2932,7 +2959,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2945,7 +2972,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2958,7 +2985,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2972,7 +2999,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -2985,23 +3012,23 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>306</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>307</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3015,7 +3042,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3029,7 +3056,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3042,7 +3069,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3053,12 +3080,12 @@
         <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3069,12 +3096,12 @@
         <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3087,7 +3114,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3100,7 +3127,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3113,7 +3140,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3126,7 +3153,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3139,7 +3166,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3152,7 +3179,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3165,7 +3192,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3176,12 +3203,12 @@
         <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3197,7 +3224,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3210,7 +3237,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3223,7 +3250,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3234,12 +3261,12 @@
         <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3252,7 +3279,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3265,7 +3292,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3279,7 +3306,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3295,7 +3322,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3311,7 +3338,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3322,12 +3349,12 @@
         <v>140</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3340,7 +3367,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3353,7 +3380,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3366,7 +3393,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3379,7 +3406,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3387,12 +3414,12 @@
         <v>244</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3405,15 +3432,15 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>360</v>
-      </c>
-      <c r="C68" s="4" t="s">
-        <v>361</v>
       </c>
       <c r="D68" s="2" t="s">
         <v>196</v>
@@ -3421,7 +3448,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3434,7 +3461,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3447,7 +3474,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3460,7 +3487,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3473,7 +3500,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3484,12 +3511,12 @@
         <v>170</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3500,14 +3527,14 @@
         <v>170</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="E74" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>298</v>
-      </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3520,7 +3547,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3533,7 +3560,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3544,12 +3571,12 @@
         <v>182</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -3564,7 +3591,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
@@ -3577,7 +3604,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>189</v>
       </c>
@@ -3590,7 +3617,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>191</v>
       </c>
@@ -3603,7 +3630,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>194</v>
       </c>
@@ -3619,12 +3646,12 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>197</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>196</v>
@@ -3632,7 +3659,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -3643,12 +3670,12 @@
         <v>203</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -3661,7 +3688,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>207</v>
       </c>
@@ -3675,13 +3702,13 @@
         <v>269</v>
       </c>
       <c r="E86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="F86" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="F86" s="2" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>210</v>
       </c>
@@ -3694,7 +3721,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -3705,12 +3732,12 @@
         <v>212</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -3721,12 +3748,12 @@
         <v>218</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>222</v>
       </c>
@@ -3737,12 +3764,12 @@
         <v>224</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -3755,7 +3782,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>228</v>
       </c>
@@ -3766,12 +3793,12 @@
         <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -3784,7 +3811,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>232</v>
       </c>
@@ -3797,7 +3824,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>234</v>
       </c>
@@ -3810,7 +3837,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3823,7 +3850,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
@@ -3839,7 +3866,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>240</v>
       </c>
@@ -3852,7 +3879,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>245</v>
       </c>
@@ -3863,12 +3890,12 @@
         <v>247</v>
       </c>
       <c r="D99" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>248</v>
       </c>
@@ -3879,12 +3906,12 @@
         <v>250</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>251</v>
       </c>
@@ -3897,7 +3924,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -3910,7 +3937,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>256</v>
       </c>
@@ -3923,7 +3950,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>259</v>
       </c>
@@ -3936,7 +3963,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>262</v>
       </c>
@@ -3944,15 +3971,15 @@
         <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
+        <v>419</v>
+      </c>
+      <c r="D105" s="4" t="s">
         <v>420</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>421</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
@@ -3963,12 +3990,12 @@
         <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>266</v>
       </c>
@@ -3981,7 +4008,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>273</v>
       </c>
@@ -3992,12 +4019,12 @@
         <v>272</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>275</v>
       </c>
@@ -4010,7 +4037,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -4023,7 +4050,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
@@ -4036,7 +4063,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -4049,7 +4076,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>284</v>
       </c>
@@ -4062,681 +4089,681 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>286</v>
       </c>
-      <c r="B114" s="2" t="s">
-        <v>287</v>
+      <c r="B114" s="4" t="s">
+        <v>457</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C115" s="11"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C116" s="11"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>292</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>293</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>294</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>299</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>301</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>300</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>302</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>303</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>305</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>309</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>311</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>314</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>316</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="C125" s="4" t="s">
         <v>317</v>
       </c>
-      <c r="C125" s="4" t="s">
+    </row>
+    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="9" t="s">
+        <v>320</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>319</v>
       </c>
-      <c r="B126" s="9" t="s">
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>322</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>329</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>331</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>338</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>355</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>358</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>367</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>392</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>422</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>426</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>429</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>338</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>346</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>356</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>359</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>357</v>
-      </c>
-      <c r="D140" s="2" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>368</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>380</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>393</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>399</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>405</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>413</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>418</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>423</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>427</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>428</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>425</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B164" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="C164" s="2" t="s">
         <v>433</v>
       </c>
-      <c r="C164" s="2" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>434</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="B165" s="1" t="s">
         <v>435</v>
       </c>
-      <c r="B165" s="1" t="s">
+      <c r="C165" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>436</v>
       </c>
-      <c r="C165" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="C166" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="B167" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="C167" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="B168" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="C168" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="B169" s="9" t="s">
         <v>443</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="C169" s="2" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>444</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
+      <c r="B170" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="B170" s="1" t="s">
-        <v>446</v>
-      </c>
       <c r="C170" s="2" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B171" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="C171" s="2" t="s">
         <v>448</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>449</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EFB3185-ABEA-4954-A13E-33B775A0492F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A1ADB-B60A-41C0-B972-10DD66564B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2473,24 +2473,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H171"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
+      <selection activeCell="E98" sqref="E98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="4.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2514,7 +2514,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2534,7 +2534,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2550,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2563,7 +2563,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2594,7 +2594,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2607,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2620,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>227</v>
       </c>
@@ -2633,7 +2633,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2646,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2659,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2675,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2688,7 +2688,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2701,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2714,7 +2714,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2727,7 +2727,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2740,7 +2740,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2753,7 +2753,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2782,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2795,7 +2795,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>261</v>
       </c>
@@ -2808,7 +2808,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2821,7 +2821,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2834,7 +2834,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2847,7 +2847,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2860,7 +2860,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2873,7 +2873,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2888,7 +2888,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2901,7 +2901,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2917,7 +2917,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2930,7 +2930,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +2946,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2959,7 +2959,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2972,7 +2972,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2985,7 +2985,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2999,20 +2999,20 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C37" s="2" t="s">
+      <c r="C37" s="3" t="s">
         <v>81</v>
       </c>
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3028,7 +3028,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3042,7 +3042,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3069,7 +3069,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3085,7 +3085,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3101,7 +3101,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3114,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3127,7 +3127,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3140,7 +3140,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3153,7 +3153,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3166,7 +3166,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3179,7 +3179,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3192,7 +3192,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3208,7 +3208,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3224,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3237,7 +3237,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3266,7 +3266,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3279,7 +3279,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3292,7 +3292,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3306,7 +3306,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3322,7 +3322,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3338,7 +3338,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3354,7 +3354,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3367,7 +3367,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3380,7 +3380,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3393,7 +3393,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3406,7 +3406,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3419,7 +3419,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3432,7 +3432,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3448,7 +3448,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3461,7 +3461,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3474,7 +3474,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3487,7 +3487,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3500,7 +3500,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3516,7 +3516,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3534,7 +3534,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3547,7 +3547,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3560,7 +3560,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -3591,7 +3591,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
@@ -3604,7 +3604,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>189</v>
       </c>
@@ -3617,7 +3617,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>191</v>
       </c>
@@ -3630,7 +3630,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>194</v>
       </c>
@@ -3646,7 +3646,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>197</v>
       </c>
@@ -3659,7 +3659,7 @@
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -3675,7 +3675,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -3688,7 +3688,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>207</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>210</v>
       </c>
@@ -3721,7 +3721,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -3737,7 +3737,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>222</v>
       </c>
@@ -3769,7 +3769,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -3782,7 +3782,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>228</v>
       </c>
@@ -3798,7 +3798,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -3811,7 +3811,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>232</v>
       </c>
@@ -3824,7 +3824,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>234</v>
       </c>
@@ -3837,7 +3837,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3850,7 +3850,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
@@ -3866,7 +3866,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>240</v>
       </c>
@@ -3879,7 +3879,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>245</v>
       </c>
@@ -3895,7 +3895,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>248</v>
       </c>
@@ -3911,7 +3911,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>251</v>
       </c>
@@ -3924,7 +3924,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -3937,7 +3937,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>256</v>
       </c>
@@ -3950,7 +3950,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>259</v>
       </c>
@@ -3963,7 +3963,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>262</v>
       </c>
@@ -3979,7 +3979,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
@@ -3995,7 +3995,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>266</v>
       </c>
@@ -4008,7 +4008,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>273</v>
       </c>
@@ -4024,7 +4024,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>275</v>
       </c>
@@ -4037,7 +4037,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -4050,7 +4050,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
@@ -4063,7 +4063,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -4076,7 +4076,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>284</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>286</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>287</v>
@@ -4114,7 +4114,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>288</v>
@@ -4123,7 +4123,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>290</v>
       </c>
@@ -4136,7 +4136,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>292</v>
       </c>
@@ -4149,7 +4149,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>298</v>
       </c>
@@ -4162,7 +4162,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>301</v>
       </c>
@@ -4175,7 +4175,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>303</v>
       </c>
@@ -4195,7 +4195,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>307</v>
       </c>
@@ -4208,7 +4208,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>309</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>312</v>
       </c>
@@ -4234,7 +4234,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>315</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>318</v>
       </c>
@@ -4256,7 +4256,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -4270,7 +4270,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
@@ -4281,7 +4281,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -4292,7 +4292,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>329</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>333</v>
       </c>
@@ -4328,7 +4328,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>336</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>337</v>
       </c>
@@ -4350,7 +4350,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>340</v>
       </c>
@@ -4361,7 +4361,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>342</v>
       </c>
@@ -4372,7 +4372,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>347</v>
       </c>
@@ -4386,7 +4386,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>349</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>354</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>357</v>
       </c>
@@ -4422,7 +4422,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>363</v>
       </c>
@@ -4433,7 +4433,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>366</v>
       </c>
@@ -4444,7 +4444,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>369</v>
       </c>
@@ -4455,7 +4455,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>373</v>
       </c>
@@ -4466,7 +4466,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>376</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>378</v>
       </c>
@@ -4488,7 +4488,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>380</v>
       </c>
@@ -4499,7 +4499,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>382</v>
       </c>
@@ -4510,7 +4510,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>384</v>
       </c>
@@ -4521,7 +4521,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>390</v>
       </c>
@@ -4532,7 +4532,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>393</v>
       </c>
@@ -4543,7 +4543,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>395</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>398</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>401</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>403</v>
       </c>
@@ -4587,7 +4587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>408</v>
       </c>
@@ -4598,7 +4598,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>411</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>413</v>
       </c>
@@ -4620,7 +4620,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>416</v>
       </c>
@@ -4631,7 +4631,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>417</v>
       </c>
@@ -4642,7 +4642,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>421</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>425</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>426</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>431</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>434</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>437</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>438</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>440</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>442</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>444</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>449</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C4A1ADB-B60A-41C0-B972-10DD66564B91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC970C9-D493-427D-9C61-8C4001A72B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="557" uniqueCount="458">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="474">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1735,11 +1735,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冲突
-推迟了，等待消息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红海无限</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1798,10 +1793,6 @@
   </si>
   <si>
     <t>软件开发工程师</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1（IT软件工程师）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2077,6 +2068,80 @@
   <si>
     <t>招银网络科技：软件开发工程师（杭州、深圳、成都）
 测试开发工程师（杭州、深圳、成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8（测开北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>x
+原定9.7，时间冲突放弃
+x</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7（IT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.1（IT）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突推迟（9.7）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FunPlus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>锐明技术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（成都）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java后端开发工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>纳芯微电子（邮箱投递）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS直聘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天弘基金</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（北京）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2471,26 +2536,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H171"/>
+  <dimension ref="A1:H177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A92" workbookViewId="0">
-      <selection activeCell="E98" sqref="E98"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="E164" sqref="E164"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="4.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="6" max="7" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2508,13 +2572,13 @@
         <v>314</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2531,10 +2595,10 @@
         <v>8.24</v>
       </c>
       <c r="H2" s="9" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2550,7 +2614,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2563,20 +2627,20 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2594,7 +2658,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2607,7 +2671,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2620,7 +2684,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>227</v>
       </c>
@@ -2633,7 +2697,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2646,7 +2710,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2659,7 +2723,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2675,7 +2739,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2688,7 +2752,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2701,7 +2765,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2714,7 +2778,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2727,7 +2791,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2740,7 +2804,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2753,7 +2817,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2764,12 +2828,12 @@
         <v>362</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2782,7 +2846,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2795,7 +2859,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>261</v>
       </c>
@@ -2808,7 +2872,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2821,7 +2885,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2834,7 +2898,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2847,7 +2911,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2860,7 +2924,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2873,7 +2937,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2888,7 +2952,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2901,7 +2965,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2917,7 +2981,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2930,7 +2994,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -2946,7 +3010,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -2959,7 +3023,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -2972,7 +3036,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -2985,7 +3049,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -2999,7 +3063,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3012,7 +3076,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3028,7 +3092,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3042,7 +3106,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3056,7 +3120,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3069,7 +3133,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3080,12 +3144,12 @@
         <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3101,7 +3165,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3114,7 +3178,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3127,7 +3191,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3140,7 +3204,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3153,7 +3217,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3166,7 +3230,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3179,7 +3243,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3192,7 +3256,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3208,7 +3272,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3224,7 +3288,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3237,7 +3301,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3250,7 +3314,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3266,7 +3330,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3279,7 +3343,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3292,7 +3356,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3306,7 +3370,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3322,7 +3386,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3338,7 +3402,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3354,7 +3418,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3367,7 +3431,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3380,7 +3444,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3393,7 +3457,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3406,7 +3470,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3419,7 +3483,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3432,7 +3496,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3448,7 +3512,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3458,10 +3522,13 @@
       <c r="C69" s="2" t="s">
         <v>150</v>
       </c>
+      <c r="D69" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3474,7 +3541,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3487,7 +3554,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3500,7 +3567,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3516,7 +3583,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3529,12 +3596,12 @@
       <c r="D74" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="E74" s="2" t="s">
+      <c r="E74" s="6" t="s">
         <v>297</v>
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3547,7 +3614,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3560,7 +3627,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3571,12 +3638,12 @@
         <v>182</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -3591,7 +3658,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
@@ -3604,7 +3671,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>189</v>
       </c>
@@ -3617,7 +3684,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>191</v>
       </c>
@@ -3630,7 +3697,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>194</v>
       </c>
@@ -3646,7 +3713,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>197</v>
       </c>
@@ -3656,10 +3723,12 @@
       <c r="C83" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="E83" s="2"/>
+      <c r="E83" s="2" t="s">
+        <v>457</v>
+      </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -3670,12 +3739,12 @@
         <v>203</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -3688,7 +3757,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>207</v>
       </c>
@@ -3707,8 +3776,11 @@
       <c r="F86" s="2" t="s">
         <v>388</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G86" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>210</v>
       </c>
@@ -3721,7 +3793,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -3737,7 +3809,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -3748,12 +3820,12 @@
         <v>218</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>389</v>
+        <v>461</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>222</v>
       </c>
@@ -3764,12 +3836,12 @@
         <v>224</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -3782,7 +3854,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>228</v>
       </c>
@@ -3793,12 +3865,12 @@
         <v>224</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -3811,7 +3883,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>232</v>
       </c>
@@ -3824,7 +3896,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>234</v>
       </c>
@@ -3837,7 +3909,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3850,7 +3922,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
@@ -3866,7 +3938,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>240</v>
       </c>
@@ -3879,7 +3951,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>245</v>
       </c>
@@ -3895,7 +3967,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>248</v>
       </c>
@@ -3911,7 +3983,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>251</v>
       </c>
@@ -3924,7 +3996,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -3937,7 +4009,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>256</v>
       </c>
@@ -3950,7 +4022,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>259</v>
       </c>
@@ -3963,7 +4035,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>262</v>
       </c>
@@ -3971,15 +4043,15 @@
         <v>263</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
@@ -3990,12 +4062,12 @@
         <v>258</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>266</v>
       </c>
@@ -4008,7 +4080,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>273</v>
       </c>
@@ -4024,7 +4096,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>275</v>
       </c>
@@ -4037,7 +4109,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -4050,7 +4122,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
@@ -4063,7 +4135,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -4076,7 +4148,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>284</v>
       </c>
@@ -4089,23 +4161,23 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>286</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="C114" s="11" t="s">
         <v>289</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>287</v>
@@ -4114,7 +4186,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>288</v>
@@ -4123,7 +4195,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>290</v>
       </c>
@@ -4136,7 +4208,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>292</v>
       </c>
@@ -4149,7 +4221,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>298</v>
       </c>
@@ -4162,7 +4234,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>301</v>
       </c>
@@ -4175,7 +4247,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>303</v>
       </c>
@@ -4189,13 +4261,13 @@
         <v>386</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>307</v>
       </c>
@@ -4208,7 +4280,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>309</v>
       </c>
@@ -4221,7 +4293,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>312</v>
       </c>
@@ -4234,7 +4306,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>315</v>
       </c>
@@ -4245,7 +4317,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>318</v>
       </c>
@@ -4256,7 +4328,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -4270,7 +4342,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
@@ -4281,7 +4353,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -4292,7 +4364,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
@@ -4303,7 +4375,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>329</v>
       </c>
@@ -4314,10 +4386,10 @@
         <v>317</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>333</v>
       </c>
@@ -4328,7 +4400,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>336</v>
       </c>
@@ -4339,7 +4411,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>337</v>
       </c>
@@ -4349,8 +4421,11 @@
       <c r="C134" s="4" t="s">
         <v>339</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D134" s="4" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>340</v>
       </c>
@@ -4361,7 +4436,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>342</v>
       </c>
@@ -4372,7 +4447,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>347</v>
       </c>
@@ -4386,7 +4461,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>349</v>
       </c>
@@ -4397,7 +4472,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>354</v>
       </c>
@@ -4408,7 +4483,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>357</v>
       </c>
@@ -4419,10 +4494,13 @@
         <v>356</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+        <v>460</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>363</v>
       </c>
@@ -4433,7 +4511,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>366</v>
       </c>
@@ -4444,7 +4522,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>369</v>
       </c>
@@ -4455,7 +4533,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>373</v>
       </c>
@@ -4466,7 +4544,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>376</v>
       </c>
@@ -4477,7 +4555,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>378</v>
       </c>
@@ -4488,7 +4566,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>380</v>
       </c>
@@ -4499,7 +4577,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>382</v>
       </c>
@@ -4510,7 +4588,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>384</v>
       </c>
@@ -4521,249 +4599,318 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>391</v>
+      </c>
+      <c r="C150" s="2" t="s">
         <v>390</v>
       </c>
-      <c r="B150" s="9" t="s">
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
         <v>392</v>
       </c>
-      <c r="C150" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
+      <c r="B151" s="1" t="s">
         <v>393</v>
       </c>
-      <c r="B151" s="1" t="s">
+      <c r="C151" s="2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
         <v>394</v>
       </c>
-      <c r="C151" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
+      <c r="B152" s="1" t="s">
         <v>395</v>
       </c>
-      <c r="B152" s="1" t="s">
-        <v>396</v>
-      </c>
       <c r="C152" s="2" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B153" s="1" t="s">
         <v>398</v>
       </c>
-      <c r="B153" s="1" t="s">
+      <c r="C153" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C153" s="2" t="s">
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
         <v>400</v>
       </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
+      <c r="B154" s="1" t="s">
         <v>401</v>
       </c>
-      <c r="B154" s="1" t="s">
+      <c r="C154" s="2" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
         <v>402</v>
       </c>
-      <c r="C154" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="1" t="s">
         <v>403</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>404</v>
-      </c>
       <c r="C155" s="2" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="C156" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="B156" s="1" t="s">
+    </row>
+    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="C156" s="2" t="s">
+      <c r="B157" s="9" t="s">
         <v>410</v>
       </c>
-    </row>
-    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
+      <c r="C157" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B158" s="1" t="s">
         <v>412</v>
       </c>
-      <c r="C157" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
+      <c r="C158" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B159" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="B158" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
+      <c r="C159" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B160" s="1" t="s">
         <v>416</v>
       </c>
-      <c r="B159" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>418</v>
-      </c>
       <c r="C160" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>420</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B162" s="1" t="s">
         <v>421</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="C162" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="C161" s="2" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="B163" s="1" t="s">
         <v>425</v>
       </c>
-      <c r="B162" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>426</v>
-      </c>
-      <c r="B163" s="1" t="s">
+      <c r="C163" s="2" t="s">
+        <v>422</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>427</v>
       </c>
-      <c r="C163" s="2" t="s">
-        <v>424</v>
-      </c>
-      <c r="D163" s="2" t="s">
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
         <v>429</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
+      <c r="B164" s="1" t="s">
+        <v>430</v>
+      </c>
+      <c r="C164" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="B164" s="1" t="s">
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
         <v>432</v>
       </c>
-      <c r="C164" s="2" t="s">
+      <c r="B165" s="1" t="s">
         <v>433</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
+      <c r="C165" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B166" s="1" t="s">
         <v>434</v>
       </c>
-      <c r="B165" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
+      <c r="C166" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>436</v>
+      </c>
+      <c r="B167" s="9" t="s">
         <v>437</v>
       </c>
-      <c r="B166" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
+      <c r="C167" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
         <v>438</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B168" s="9" t="s">
         <v>439</v>
       </c>
-      <c r="C167" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
+      <c r="C168" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
         <v>440</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B169" s="9" t="s">
         <v>441</v>
       </c>
-      <c r="C168" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
+      <c r="C169" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
         <v>442</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B170" s="1" t="s">
         <v>443</v>
       </c>
-      <c r="C169" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>444</v>
-      </c>
-      <c r="B170" s="1" t="s">
+      <c r="C170" s="2" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B171" s="1" t="s">
         <v>445</v>
       </c>
-      <c r="C170" s="2" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>447</v>
-      </c>
       <c r="C171" s="2" t="s">
-        <v>448</v>
+        <v>446</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>462</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="C172" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C173" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>470</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>472</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="C177" s="2" t="s">
+        <v>464</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC970C9-D493-427D-9C61-8C4001A72B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBA6AD-A1D7-48F1-B9BE-D63266033D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="581" uniqueCount="474">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="481">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2142,6 +2142,35 @@
   </si>
   <si>
     <t>Java开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>玄武云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（广州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>博乐科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏客户端开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>格兰菲（51job）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件工程师-测试开发（上海）
+软件工程师-测试开发（武汉）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2536,25 +2565,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H177"/>
+  <dimension ref="A1:H180"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E164" sqref="E164"/>
+      <selection activeCell="E167" sqref="E167"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2578,7 +2607,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2598,7 +2627,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2614,7 +2643,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2627,7 +2656,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2669,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2658,7 +2687,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2671,7 +2700,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2684,7 +2713,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>227</v>
       </c>
@@ -2697,7 +2726,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2710,7 +2739,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2723,7 +2752,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2739,7 +2768,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2752,7 +2781,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2765,7 +2794,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2778,7 +2807,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2791,7 +2820,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2804,7 +2833,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2817,7 +2846,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2833,7 +2862,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2846,7 +2875,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2859,7 +2888,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>261</v>
       </c>
@@ -2872,7 +2901,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2885,7 +2914,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2898,7 +2927,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2911,7 +2940,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2924,7 +2953,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2937,7 +2966,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2952,7 +2981,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2965,7 +2994,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -2981,7 +3010,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -2994,7 +3023,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3010,7 +3039,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3023,7 +3052,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3036,7 +3065,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3049,7 +3078,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3063,7 +3092,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3076,7 +3105,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3092,7 +3121,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3106,7 +3135,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3120,7 +3149,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3133,7 +3162,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3149,7 +3178,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3165,7 +3194,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3178,7 +3207,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3191,7 +3220,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3204,7 +3233,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3217,7 +3246,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3230,7 +3259,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3243,7 +3272,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3256,7 +3285,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3272,7 +3301,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3288,7 +3317,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3301,7 +3330,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3314,7 +3343,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3330,7 +3359,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3343,7 +3372,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3356,7 +3385,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3370,7 +3399,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3386,7 +3415,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3402,7 +3431,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3418,7 +3447,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3431,7 +3460,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3444,7 +3473,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3457,7 +3486,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3470,7 +3499,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3483,7 +3512,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3496,7 +3525,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3512,7 +3541,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3528,7 +3557,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3541,7 +3570,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3554,7 +3583,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3567,7 +3596,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3583,7 +3612,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3601,7 +3630,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3614,7 +3643,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3627,7 +3656,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3643,7 +3672,7 @@
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>183</v>
       </c>
@@ -3658,7 +3687,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>185</v>
       </c>
@@ -3671,7 +3700,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>189</v>
       </c>
@@ -3684,7 +3713,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>191</v>
       </c>
@@ -3697,7 +3726,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>194</v>
       </c>
@@ -3713,7 +3742,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>197</v>
       </c>
@@ -3728,7 +3757,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>201</v>
       </c>
@@ -3744,7 +3773,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>204</v>
       </c>
@@ -3757,7 +3786,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>207</v>
       </c>
@@ -3780,7 +3809,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>210</v>
       </c>
@@ -3793,7 +3822,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>213</v>
       </c>
@@ -3809,7 +3838,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>216</v>
       </c>
@@ -3825,7 +3854,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>222</v>
       </c>
@@ -3841,7 +3870,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>225</v>
       </c>
@@ -3854,7 +3883,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>228</v>
       </c>
@@ -3870,7 +3899,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>230</v>
       </c>
@@ -3883,7 +3912,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>232</v>
       </c>
@@ -3896,7 +3925,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>234</v>
       </c>
@@ -3909,7 +3938,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>237</v>
       </c>
@@ -3922,7 +3951,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>243</v>
       </c>
@@ -3938,7 +3967,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>240</v>
       </c>
@@ -3951,7 +3980,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>245</v>
       </c>
@@ -3967,7 +3996,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>248</v>
       </c>
@@ -3983,7 +4012,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>251</v>
       </c>
@@ -3996,7 +4025,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>254</v>
       </c>
@@ -4009,7 +4038,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>256</v>
       </c>
@@ -4022,7 +4051,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>259</v>
       </c>
@@ -4035,7 +4064,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>262</v>
       </c>
@@ -4051,7 +4080,7 @@
       <c r="E105" s="2"/>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>264</v>
       </c>
@@ -4067,7 +4096,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>266</v>
       </c>
@@ -4080,7 +4109,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>273</v>
       </c>
@@ -4096,7 +4125,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>275</v>
       </c>
@@ -4109,7 +4138,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>277</v>
       </c>
@@ -4122,7 +4151,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>279</v>
       </c>
@@ -4135,7 +4164,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>282</v>
       </c>
@@ -4148,7 +4177,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>284</v>
       </c>
@@ -4161,7 +4190,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>286</v>
       </c>
@@ -4177,7 +4206,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>287</v>
@@ -4186,7 +4215,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>288</v>
@@ -4195,7 +4224,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>290</v>
       </c>
@@ -4208,7 +4237,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>292</v>
       </c>
@@ -4221,7 +4250,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>298</v>
       </c>
@@ -4234,7 +4263,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>301</v>
       </c>
@@ -4247,7 +4276,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>303</v>
       </c>
@@ -4267,7 +4296,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>307</v>
       </c>
@@ -4280,7 +4309,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>309</v>
       </c>
@@ -4293,7 +4322,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>312</v>
       </c>
@@ -4306,7 +4335,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>315</v>
       </c>
@@ -4317,7 +4346,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>318</v>
       </c>
@@ -4328,7 +4357,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>321</v>
       </c>
@@ -4342,7 +4371,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>324</v>
       </c>
@@ -4353,7 +4382,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>326</v>
       </c>
@@ -4364,7 +4393,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>327</v>
       </c>
@@ -4375,7 +4404,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>329</v>
       </c>
@@ -4389,7 +4418,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>333</v>
       </c>
@@ -4400,7 +4429,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>336</v>
       </c>
@@ -4411,7 +4440,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>337</v>
       </c>
@@ -4425,7 +4454,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>340</v>
       </c>
@@ -4436,7 +4465,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>342</v>
       </c>
@@ -4447,7 +4476,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>347</v>
       </c>
@@ -4461,7 +4490,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>349</v>
       </c>
@@ -4472,7 +4501,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>354</v>
       </c>
@@ -4483,7 +4512,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>357</v>
       </c>
@@ -4500,7 +4529,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>363</v>
       </c>
@@ -4511,7 +4540,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>366</v>
       </c>
@@ -4522,7 +4551,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>369</v>
       </c>
@@ -4533,7 +4562,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>373</v>
       </c>
@@ -4544,7 +4573,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>376</v>
       </c>
@@ -4555,7 +4584,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>378</v>
       </c>
@@ -4566,7 +4595,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>380</v>
       </c>
@@ -4577,7 +4606,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>382</v>
       </c>
@@ -4588,7 +4617,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>384</v>
       </c>
@@ -4599,7 +4628,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>389</v>
       </c>
@@ -4610,7 +4639,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>392</v>
       </c>
@@ -4621,7 +4650,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>394</v>
       </c>
@@ -4632,7 +4661,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>397</v>
       </c>
@@ -4643,7 +4672,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>400</v>
       </c>
@@ -4654,7 +4683,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>402</v>
       </c>
@@ -4665,7 +4694,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>406</v>
       </c>
@@ -4676,7 +4705,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>409</v>
       </c>
@@ -4687,7 +4716,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>411</v>
       </c>
@@ -4698,7 +4727,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>414</v>
       </c>
@@ -4709,7 +4738,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>415</v>
       </c>
@@ -4720,7 +4749,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>419</v>
       </c>
@@ -4731,7 +4760,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>423</v>
       </c>
@@ -4742,7 +4771,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>424</v>
       </c>
@@ -4756,7 +4785,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>429</v>
       </c>
@@ -4767,7 +4796,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>432</v>
       </c>
@@ -4778,7 +4807,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>435</v>
       </c>
@@ -4789,7 +4818,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>436</v>
       </c>
@@ -4800,7 +4829,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>438</v>
       </c>
@@ -4811,7 +4840,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>440</v>
       </c>
@@ -4825,7 +4854,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>442</v>
       </c>
@@ -4836,7 +4865,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>447</v>
       </c>
@@ -4847,7 +4876,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>462</v>
       </c>
@@ -4858,7 +4887,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>465</v>
       </c>
@@ -4869,7 +4898,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>467</v>
       </c>
@@ -4880,7 +4909,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>470</v>
       </c>
@@ -4891,7 +4920,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>471</v>
       </c>
@@ -4902,7 +4931,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>472</v>
       </c>
@@ -4911,6 +4940,39 @@
       </c>
       <c r="C177" s="2" t="s">
         <v>464</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
+        <v>474</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="C178" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>478</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>480</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>476</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F6EBA6AD-A1D7-48F1-B9BE-D63266033D74}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06B91F-0A97-4F4A-A058-68A659FA4EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="489">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -782,11 +782,6 @@
   </si>
   <si>
     <t>顺丰科技</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>第1志愿：测试开发工程师（深圳）
-第2志愿：Java开发工程师（深圳）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -2079,12 +2074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>x
-原定9.7，时间冲突放弃
-x</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.7（IT）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2171,6 +2160,52 @@
   <si>
     <t>软件工程师-测试开发（上海）
 软件工程师-测试开发（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HR面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13（测开北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.8
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.9（HR）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.9
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第1志愿：测试开发工程师（深圳）
+第2志愿：Java开发工程师（武汉）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">8.31
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？
+原定9.7，时间冲突放弃
+？</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2565,25 +2600,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H180"/>
+  <dimension ref="A1:I180"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="E167" sqref="E167"/>
+    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
+      <selection activeCell="E117" sqref="E117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="8.875" style="1"/>
+    <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2598,16 +2634,19 @@
         <v>78</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>452</v>
       </c>
-      <c r="H1" s="1" t="s">
-        <v>453</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2618,16 +2657,16 @@
         <v>4</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F2" s="2">
         <v>8.24</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="I2" s="9" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2643,7 +2682,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2656,20 +2695,20 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="4" t="s">
+        <v>447</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>448</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>449</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2683,11 +2722,11 @@
         <v>107</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2700,7 +2739,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:8" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2713,9 +2752,9 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
@@ -2726,7 +2765,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2739,7 +2778,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2752,7 +2791,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2768,7 +2807,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2781,7 +2820,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2794,20 +2833,20 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:8" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="C15" s="10" t="s">
         <v>331</v>
-      </c>
-      <c r="C15" s="10" t="s">
-        <v>332</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2820,7 +2859,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2833,7 +2872,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2846,23 +2885,23 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2875,7 +2914,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2888,9 +2927,9 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B22" s="4" t="s">
         <v>40</v>
@@ -2901,7 +2940,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2909,12 +2948,12 @@
         <v>89</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2927,7 +2966,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2940,7 +2979,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2953,7 +2992,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -2966,7 +3005,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -2981,7 +3020,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -2994,7 +3033,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3005,12 +3044,12 @@
         <v>62</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3023,7 +3062,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3039,7 +3078,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3047,12 +3086,12 @@
         <v>68</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3065,7 +3104,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3078,7 +3117,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3092,7 +3131,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3105,23 +3144,23 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B38" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="C38" s="4" t="s">
         <v>305</v>
       </c>
-      <c r="C38" s="4" t="s">
-        <v>306</v>
-      </c>
       <c r="D38" s="4" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3135,7 +3174,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3149,7 +3188,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3162,7 +3201,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3173,12 +3212,12 @@
         <v>95</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3189,12 +3228,12 @@
         <v>100</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3207,7 +3246,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3220,7 +3259,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3233,7 +3272,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3246,7 +3285,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3259,7 +3298,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3272,7 +3311,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3285,7 +3324,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3296,12 +3335,12 @@
         <v>116</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3312,12 +3351,12 @@
         <v>119</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3330,7 +3369,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3343,7 +3382,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3354,12 +3393,12 @@
         <v>132</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3372,7 +3411,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3385,21 +3424,21 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B58" s="4" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D58" s="6"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3410,12 +3449,12 @@
         <v>140</v>
       </c>
       <c r="D59" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3426,12 +3465,12 @@
         <v>140</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3442,12 +3481,12 @@
         <v>140</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3460,7 +3499,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3473,7 +3512,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3486,7 +3525,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3499,20 +3538,20 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3525,23 +3564,23 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B68" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="C68" s="4" t="s">
-        <v>360</v>
-      </c>
       <c r="D68" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3552,12 +3591,12 @@
         <v>150</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3570,7 +3609,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3583,7 +3622,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3596,7 +3635,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3607,12 +3646,12 @@
         <v>170</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3623,14 +3662,14 @@
         <v>170</v>
       </c>
       <c r="D74" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="E74" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="E74" s="6" t="s">
-        <v>297</v>
-      </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3643,7 +3682,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3656,1323 +3695,1336 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
+        <v>485</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C77" s="2" t="s">
+      <c r="D77" s="4" t="s">
+        <v>486</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="4" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="D77" s="2" t="s">
-        <v>396</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A78" s="2" t="s">
+      <c r="B78" s="4" t="s">
         <v>183</v>
       </c>
-      <c r="B78" s="4" t="s">
+      <c r="C78" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="E78" s="6" t="s">
+        <v>220</v>
+      </c>
+      <c r="F78" s="2"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C78" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="E78" s="6" t="s">
-        <v>221</v>
-      </c>
-      <c r="F78" s="2"/>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A79" s="2" t="s">
+      <c r="B79" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="C79" s="2" t="s">
         <v>186</v>
-      </c>
-      <c r="C79" s="2" t="s">
-        <v>187</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C80" s="2" t="s">
         <v>189</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C80" s="2" t="s">
-        <v>190</v>
       </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:7" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B81" s="4" t="s">
         <v>191</v>
       </c>
-      <c r="B81" s="4" t="s">
+      <c r="C81" s="2" t="s">
         <v>192</v>
-      </c>
-      <c r="C81" s="2" t="s">
-        <v>193</v>
       </c>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="B82" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="C82" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="C82" s="2" t="s">
-        <v>196</v>
-      </c>
       <c r="D82" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C83" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>457</v>
+        <v>482</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B84" s="4" t="s">
         <v>201</v>
       </c>
-      <c r="B84" s="4" t="s">
+      <c r="C84" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="C84" s="2" t="s">
-        <v>203</v>
-      </c>
       <c r="D84" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="B85" s="2" t="s">
-        <v>205</v>
-      </c>
       <c r="C85" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B86" s="4" t="s">
         <v>207</v>
       </c>
-      <c r="B86" s="4" t="s">
+      <c r="C86" s="2" t="s">
         <v>208</v>
       </c>
-      <c r="C86" s="2" t="s">
+      <c r="D86" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>387</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="D86" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>387</v>
-      </c>
-      <c r="F86" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>456</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="2" t="s">
+      <c r="B87" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="C87" s="2" t="s">
         <v>211</v>
-      </c>
-      <c r="C87" s="2" t="s">
-        <v>212</v>
       </c>
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>213</v>
       </c>
-      <c r="B88" s="2" t="s">
-        <v>214</v>
-      </c>
       <c r="C88" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D88" s="3" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="B89" s="4" t="s">
         <v>216</v>
       </c>
-      <c r="B89" s="4" t="s">
+      <c r="C89" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="C89" s="2" t="s">
-        <v>218</v>
-      </c>
       <c r="D89" s="4" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="B90" s="4" t="s">
+      <c r="C90" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="C90" s="2" t="s">
-        <v>224</v>
-      </c>
       <c r="D90" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="B91" s="2" t="s">
-        <v>226</v>
-      </c>
       <c r="C91" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="B92" s="4" t="s">
         <v>228</v>
       </c>
-      <c r="B92" s="4" t="s">
-        <v>229</v>
-      </c>
       <c r="C92" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="B93" s="2" t="s">
-        <v>231</v>
-      </c>
       <c r="C93" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="B94" s="2" t="s">
-        <v>233</v>
-      </c>
       <c r="C94" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B95" s="4" t="s">
         <v>234</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="C95" s="2" t="s">
         <v>235</v>
-      </c>
-      <c r="C95" s="2" t="s">
-        <v>236</v>
       </c>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B96" s="4" t="s">
         <v>237</v>
       </c>
-      <c r="B96" s="4" t="s">
-        <v>238</v>
-      </c>
       <c r="C96" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="B98" s="4" t="s">
         <v>240</v>
       </c>
-      <c r="B98" s="4" t="s">
+      <c r="C98" s="2" t="s">
         <v>241</v>
-      </c>
-      <c r="C98" s="2" t="s">
-        <v>242</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>245</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="C99" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="C99" s="2" t="s">
-        <v>247</v>
-      </c>
       <c r="D99" s="3" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>248</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="C100" s="2" t="s">
         <v>249</v>
       </c>
-      <c r="C100" s="2" t="s">
-        <v>250</v>
-      </c>
       <c r="D100" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="B101" s="2" t="s">
-        <v>252</v>
-      </c>
       <c r="C101" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="B103" s="4" t="s">
         <v>256</v>
       </c>
-      <c r="B103" s="4" t="s">
+      <c r="C103" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="C103" s="2" t="s">
-        <v>258</v>
       </c>
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" s="4" t="s">
         <v>259</v>
       </c>
-      <c r="B104" s="4" t="s">
-        <v>260</v>
-      </c>
       <c r="C104" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="B105" s="4" t="s">
         <v>262</v>
       </c>
-      <c r="B105" s="4" t="s">
+      <c r="C105" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="D105" s="4" t="s">
+        <v>417</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="F105" s="2"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C105" s="4" t="s">
-        <v>417</v>
-      </c>
-      <c r="D105" s="4" t="s">
-        <v>418</v>
-      </c>
-      <c r="E105" s="2"/>
-      <c r="F105" s="2"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A106" s="2" t="s">
+      <c r="B106" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="B106" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="C106" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="B107" s="4" t="s">
         <v>266</v>
       </c>
-      <c r="B107" s="4" t="s">
+      <c r="C107" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="C107" s="2" t="s">
-        <v>268</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="B108" s="2" t="s">
-        <v>274</v>
-      </c>
       <c r="C108" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="B109" s="2" t="s">
-        <v>276</v>
-      </c>
       <c r="C109" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B110" s="4" t="s">
         <v>277</v>
       </c>
-      <c r="B110" s="4" t="s">
-        <v>278</v>
-      </c>
       <c r="C110" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C111" s="2" t="s">
         <v>279</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="C111" s="2" t="s">
-        <v>280</v>
       </c>
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="B112" s="2" t="s">
-        <v>283</v>
-      </c>
       <c r="C112" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="B113" s="4" t="s">
         <v>284</v>
       </c>
-      <c r="B113" s="4" t="s">
-        <v>285</v>
-      </c>
       <c r="C113" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B114" s="4" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C115" s="11"/>
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C116" s="11"/>
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>290</v>
       </c>
-      <c r="B117" s="2" t="s">
-        <v>291</v>
-      </c>
       <c r="C117" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="B118" s="2" t="s">
-        <v>293</v>
-      </c>
       <c r="C118" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="C119" s="2" t="s">
         <v>298</v>
       </c>
-      <c r="B119" s="2" t="s">
-        <v>300</v>
-      </c>
-      <c r="C119" s="2" t="s">
-        <v>299</v>
+      <c r="D119" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B120" s="4" t="s">
         <v>301</v>
       </c>
-      <c r="B120" s="4" t="s">
-        <v>302</v>
-      </c>
       <c r="C120" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>304</v>
-      </c>
       <c r="C121" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.2">
+        <v>449</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>308</v>
-      </c>
       <c r="C122" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>310</v>
-      </c>
       <c r="C123" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="B124" s="2" t="s">
-        <v>313</v>
-      </c>
       <c r="C124" s="3" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="9" t="s">
         <v>315</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="C125" s="4" t="s">
         <v>316</v>
       </c>
-      <c r="C125" s="4" t="s">
+    </row>
+    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" ht="57" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="B126" s="9" t="s">
+        <v>319</v>
+      </c>
+      <c r="C126" s="4" t="s">
         <v>318</v>
       </c>
-      <c r="B126" s="9" t="s">
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
-      <c r="C126" s="4" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="B127" s="1" t="s">
         <v>321</v>
       </c>
-      <c r="B127" s="1" t="s">
+      <c r="C127" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C127" s="2" t="s">
+      <c r="D127" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
-      <c r="D127" s="2" t="s">
-        <v>386</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="B128" s="1" t="s">
         <v>324</v>
       </c>
-      <c r="B128" s="1" t="s">
+      <c r="C128" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
-      <c r="C128" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="B129" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="C129" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
-      <c r="B129" s="1" t="s">
+      <c r="B130" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="C130" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="C129" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="B130" s="1" t="s">
+    </row>
+    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
-      <c r="C130" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A131" s="1" t="s">
+      <c r="B131" s="9" t="s">
         <v>329</v>
       </c>
-      <c r="B131" s="9" t="s">
-        <v>330</v>
-      </c>
       <c r="C131" s="4" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D131" s="2" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="C134" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="D134" s="4" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="C135" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="C136" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="C137" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="D137" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="C138" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>354</v>
+      </c>
+      <c r="C139" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>357</v>
+      </c>
+      <c r="C140" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="D140" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="E140" s="1" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C141" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>366</v>
+      </c>
+      <c r="C142" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="C143" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="C144" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C145" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="C146" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>390</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="C155" s="2" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="C156" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>408</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>409</v>
+      </c>
+      <c r="C157" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="C158" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="C160" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>419</v>
+      </c>
+      <c r="C161" s="2" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="C162" s="2" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A163" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>424</v>
+      </c>
+      <c r="C163" s="2" t="s">
+        <v>421</v>
+      </c>
+      <c r="D163" s="2" t="s">
         <v>426</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="B132" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="C132" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="1" t="s">
-        <v>336</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="C133" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
-      <c r="A134" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="B134" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="C134" s="4" t="s">
-        <v>339</v>
-      </c>
-      <c r="D134" s="4" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="B135" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="C135" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="B136" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="C136" s="2" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A137" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="B137" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="C137" s="2" t="s">
-        <v>345</v>
-      </c>
-      <c r="D137" s="2" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A138" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="B138" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="C138" s="2" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A139" s="1" t="s">
-        <v>354</v>
-      </c>
-      <c r="B139" s="9" t="s">
-        <v>355</v>
-      </c>
-      <c r="C139" s="2" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A140" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="B140" s="9" t="s">
-        <v>358</v>
-      </c>
-      <c r="C140" s="2" t="s">
-        <v>356</v>
-      </c>
-      <c r="D140" s="2" t="s">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>428</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="C164" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>431</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="C165" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>434</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="C166" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>436</v>
+      </c>
+      <c r="C167" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>438</v>
+      </c>
+      <c r="C168" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>440</v>
+      </c>
+      <c r="C169" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="D169" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="C170" s="2" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>446</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C171" s="2" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="E140" s="1" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A141" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="B141" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="C141" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A142" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="B142" s="9" t="s">
-        <v>367</v>
-      </c>
-      <c r="C142" s="2" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A143" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="B143" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="C143" s="2" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A144" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="B144" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="C144" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A145" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="B145" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="C145" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A146" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="B146" s="9" t="s">
-        <v>379</v>
-      </c>
-      <c r="C146" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A147" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="B147" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="C147" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A148" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="B148" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C148" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A149" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="B149" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="C149" s="2" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A150" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="B150" s="9" t="s">
-        <v>391</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A151" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="B151" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="C151" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A152" s="1" t="s">
-        <v>394</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="C152" s="2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A153" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="B153" s="1" t="s">
-        <v>398</v>
-      </c>
-      <c r="C153" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>400</v>
-      </c>
-      <c r="B154" s="1" t="s">
-        <v>401</v>
-      </c>
-      <c r="C154" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
-        <v>402</v>
-      </c>
-      <c r="B155" s="1" t="s">
-        <v>403</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>406</v>
-      </c>
-      <c r="B156" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
-      <c r="A157" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="B157" s="9" t="s">
-        <v>410</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A158" s="1" t="s">
-        <v>411</v>
-      </c>
-      <c r="B158" s="1" t="s">
-        <v>412</v>
-      </c>
-      <c r="C158" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A159" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="B159" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="C159" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A160" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>416</v>
-      </c>
-      <c r="C160" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A161" s="1" t="s">
-        <v>419</v>
-      </c>
-      <c r="B161" s="9" t="s">
-        <v>420</v>
-      </c>
-      <c r="C161" s="2" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A162" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="B162" s="1" t="s">
-        <v>421</v>
-      </c>
-      <c r="C162" s="2" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A163" s="1" t="s">
-        <v>424</v>
-      </c>
-      <c r="B163" s="1" t="s">
-        <v>425</v>
-      </c>
-      <c r="C163" s="2" t="s">
-        <v>422</v>
-      </c>
-      <c r="D163" s="2" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A164" s="1" t="s">
-        <v>429</v>
-      </c>
-      <c r="B164" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="C164" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A165" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="B165" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="C165" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A166" s="1" t="s">
-        <v>435</v>
-      </c>
-      <c r="B166" s="1" t="s">
-        <v>434</v>
-      </c>
-      <c r="C166" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
-      <c r="A167" s="1" t="s">
-        <v>436</v>
-      </c>
-      <c r="B167" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="C167" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A168" s="1" t="s">
-        <v>438</v>
-      </c>
-      <c r="B168" s="9" t="s">
-        <v>439</v>
-      </c>
-      <c r="C168" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A169" s="1" t="s">
-        <v>440</v>
-      </c>
-      <c r="B169" s="9" t="s">
-        <v>441</v>
-      </c>
-      <c r="C169" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="D169" s="2" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A170" s="1" t="s">
-        <v>442</v>
-      </c>
-      <c r="B170" s="1" t="s">
-        <v>443</v>
-      </c>
-      <c r="C170" s="2" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A171" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="B171" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="C171" s="2" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A172" s="1" t="s">
+      <c r="B172" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>468</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>468</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="C175" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>469</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="C177" s="2" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>473</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>476</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="C179" s="2" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>477</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="9" t="s">
         <v>478</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>479</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>480</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D06B91F-0A97-4F4A-A058-68A659FA4EAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B6FD17-C7E0-4FC7-A8B7-90C86D57BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="489">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="492">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2206,6 +2206,18 @@
     <t>？
 原定9.7，时间冲突放弃
 ？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大华股份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java开发工程师（杭州）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2600,26 +2612,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I180"/>
+  <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" workbookViewId="0">
-      <selection activeCell="E117" sqref="E117"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="D183" sqref="D183"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2646,7 +2658,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2666,7 +2678,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2682,7 +2694,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2695,7 +2707,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2708,7 +2720,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2726,7 +2738,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2739,7 +2751,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2752,7 +2764,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2765,7 +2777,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2778,7 +2790,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2791,7 +2803,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2807,7 +2819,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2820,7 +2832,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2833,7 +2845,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2846,7 +2858,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2859,7 +2871,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2872,7 +2884,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +2897,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2901,7 +2913,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2914,7 +2926,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2927,7 +2939,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -2940,7 +2952,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2953,7 +2965,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2966,7 +2978,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2979,7 +2991,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -2992,7 +3004,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3005,7 +3017,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3020,7 +3032,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3033,7 +3045,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3049,7 +3061,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3062,7 +3074,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3078,7 +3090,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3091,7 +3103,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3104,7 +3116,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3117,7 +3129,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3131,7 +3143,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3144,7 +3156,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3160,7 +3172,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3174,7 +3186,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3188,7 +3200,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3201,7 +3213,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3217,7 +3229,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3233,7 +3245,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3246,7 +3258,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3259,7 +3271,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3272,7 +3284,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3285,7 +3297,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3298,7 +3310,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3311,7 +3323,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3324,7 +3336,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3340,7 +3352,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3356,7 +3368,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3369,7 +3381,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3382,7 +3394,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3398,7 +3410,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3411,7 +3423,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3424,7 +3436,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3438,7 +3450,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3454,7 +3466,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3470,7 +3482,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3486,7 +3498,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3499,7 +3511,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3512,7 +3524,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3525,7 +3537,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3538,7 +3550,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3551,7 +3563,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3564,7 +3576,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3580,7 +3592,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3596,7 +3608,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3609,7 +3621,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3622,7 +3634,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3635,7 +3647,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3651,7 +3663,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3669,7 +3681,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3682,7 +3694,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3695,7 +3707,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3713,7 +3725,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3728,7 +3740,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3741,7 +3753,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3754,7 +3766,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3767,7 +3779,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3783,7 +3795,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3798,7 +3810,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3814,7 +3826,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3827,7 +3839,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -3853,7 +3865,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -3866,7 +3878,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3882,7 +3894,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -3898,7 +3910,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -3914,7 +3926,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -3927,7 +3939,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -3943,7 +3955,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -3956,7 +3968,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3969,7 +3981,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -3982,7 +3994,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -3995,7 +4007,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4011,7 +4023,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4024,7 +4036,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4040,7 +4052,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4056,7 +4068,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4069,7 +4081,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4082,7 +4094,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4095,7 +4107,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4108,7 +4120,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4126,7 +4138,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4142,7 +4154,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4155,7 +4167,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4171,7 +4183,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4184,7 +4196,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4197,7 +4209,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4210,7 +4222,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4223,7 +4235,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4236,7 +4248,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4252,7 +4264,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4261,7 +4273,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4270,7 +4282,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4283,7 +4295,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4296,7 +4308,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4312,7 +4324,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4325,7 +4337,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4348,7 +4360,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4361,7 +4373,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4374,7 +4386,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4387,7 +4399,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4398,7 +4410,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4409,7 +4421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4423,7 +4435,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4434,7 +4446,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4445,7 +4457,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4456,7 +4468,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4470,7 +4482,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4481,7 +4493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4492,7 +4504,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4506,7 +4518,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4517,7 +4529,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4528,7 +4540,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4542,7 +4554,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4553,7 +4565,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4564,7 +4576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4581,7 +4593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4592,7 +4604,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4603,7 +4615,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4614,7 +4626,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4625,7 +4637,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4636,7 +4648,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4647,7 +4659,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4658,7 +4670,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4669,7 +4681,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4680,7 +4692,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4691,7 +4703,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4702,7 +4714,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4713,7 +4725,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4724,7 +4736,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4735,7 +4747,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4746,7 +4758,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4757,7 +4769,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4768,7 +4780,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4779,7 +4791,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4790,7 +4802,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4801,7 +4813,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4812,7 +4824,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -4823,7 +4835,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -4837,7 +4849,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -4848,7 +4860,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -4859,7 +4871,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -4870,7 +4882,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -4881,7 +4893,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -4892,7 +4904,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -4906,7 +4918,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -4917,7 +4929,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -4928,7 +4940,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>460</v>
       </c>
@@ -4939,7 +4951,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>463</v>
       </c>
@@ -4950,7 +4962,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>465</v>
       </c>
@@ -4961,7 +4973,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>468</v>
       </c>
@@ -4972,7 +4984,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>469</v>
       </c>
@@ -4983,7 +4995,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
@@ -4994,7 +5006,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -5005,7 +5017,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>475</v>
       </c>
@@ -5016,7 +5028,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>477</v>
       </c>
@@ -5025,6 +5037,17 @@
       </c>
       <c r="C180" s="2" t="s">
         <v>474</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>491</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8B6FD17-C7E0-4FC7-A8B7-90C86D57BD8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C25FD1C-2967-4097-87EA-067141A96C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2614,24 +2614,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="D183" sqref="D183"/>
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
+      <selection activeCell="A77" sqref="A77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2658,7 +2658,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2678,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2694,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2707,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2720,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2738,7 +2738,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2751,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2764,7 +2764,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2777,7 +2777,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2790,7 +2790,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2803,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2819,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2832,7 +2832,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2845,7 +2845,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2858,7 +2858,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2871,7 +2871,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2884,7 +2884,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2897,7 +2897,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2913,7 +2913,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +2926,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2939,7 +2939,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -2952,7 +2952,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +2965,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2978,7 +2978,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2991,7 +2991,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3004,7 +3004,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3017,7 +3017,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3032,7 +3032,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3045,7 +3045,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3061,7 +3061,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3074,7 +3074,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3090,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +3103,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3116,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3129,7 +3129,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3143,7 +3143,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3156,7 +3156,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3172,7 +3172,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3186,7 +3186,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3200,7 +3200,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3213,7 +3213,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3229,7 +3229,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3245,7 +3245,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3258,7 +3258,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3271,7 +3271,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3284,7 +3284,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3297,7 +3297,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3310,7 +3310,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3323,7 +3323,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3336,7 +3336,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3352,7 +3352,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3368,7 +3368,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3381,7 +3381,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3394,7 +3394,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3410,7 +3410,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3423,7 +3423,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3436,7 +3436,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3450,7 +3450,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3466,7 +3466,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3482,7 +3482,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3498,7 +3498,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3511,7 +3511,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3524,7 +3524,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3537,7 +3537,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3550,7 +3550,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3563,7 +3563,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3576,7 +3576,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3592,7 +3592,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3608,7 +3608,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3621,7 +3621,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3634,7 +3634,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3647,7 +3647,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3663,7 +3663,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3681,7 +3681,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3694,7 +3694,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3707,7 +3707,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3725,7 +3725,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3740,7 +3740,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3753,7 +3753,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3766,7 +3766,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3779,7 +3779,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3795,7 +3795,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3826,7 +3826,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3839,7 +3839,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -3865,7 +3865,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -3878,7 +3878,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3894,7 +3894,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -3910,7 +3910,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -3968,7 +3968,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3981,7 +3981,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -3994,7 +3994,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4007,7 +4007,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4023,7 +4023,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4036,7 +4036,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4052,7 +4052,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4068,7 +4068,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4081,7 +4081,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4094,7 +4094,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4107,7 +4107,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4120,7 +4120,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4138,7 +4138,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4148,13 +4148,13 @@
       <c r="C106" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="D106" s="2" t="s">
+      <c r="D106" s="3" t="s">
         <v>427</v>
       </c>
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4167,7 +4167,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4183,7 +4183,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4196,7 +4196,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4209,7 +4209,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4222,7 +4222,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4235,7 +4235,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4248,7 +4248,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4264,7 +4264,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4273,7 +4273,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4282,7 +4282,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4295,7 +4295,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4308,7 +4308,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4324,7 +4324,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4337,7 +4337,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4360,7 +4360,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4410,7 +4410,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4435,7 +4435,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4446,7 +4446,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4457,7 +4457,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4468,7 +4468,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4482,7 +4482,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4504,7 +4504,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4518,7 +4518,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4529,7 +4529,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4540,7 +4540,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4554,7 +4554,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4615,7 +4615,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4648,7 +4648,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4659,7 +4659,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4670,7 +4670,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4681,7 +4681,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4692,7 +4692,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4703,7 +4703,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4725,7 +4725,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4736,7 +4736,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4747,7 +4747,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4769,7 +4769,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4780,7 +4780,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4802,7 +4802,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4813,7 +4813,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4824,7 +4824,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -4835,7 +4835,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -4849,7 +4849,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -4860,7 +4860,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -4882,7 +4882,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -4893,7 +4893,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -4904,7 +4904,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -4918,7 +4918,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -4929,7 +4929,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -4940,7 +4940,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>460</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>463</v>
       </c>
@@ -4962,7 +4962,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>465</v>
       </c>
@@ -4973,7 +4973,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>468</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>469</v>
       </c>
@@ -4995,7 +4995,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
@@ -5006,7 +5006,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -5017,7 +5017,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>475</v>
       </c>
@@ -5028,7 +5028,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>477</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>489</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C25FD1C-2967-4097-87EA-067141A96C58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B9D19-EB98-46DE-9465-AA931C7493F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="599" uniqueCount="492">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="493">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2218,6 +2218,10 @@
   </si>
   <si>
     <t>9.8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2614,24 +2618,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="A77" sqref="A77"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E153" sqref="E153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2658,7 +2662,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2678,7 +2682,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2694,7 +2698,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2707,7 +2711,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2720,7 +2724,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2738,7 +2742,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2751,7 +2755,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2764,7 +2768,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2777,7 +2781,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2790,7 +2794,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2803,7 +2807,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2819,7 +2823,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2832,7 +2836,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2845,7 +2849,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2858,7 +2862,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2871,7 +2875,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2884,7 +2888,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2897,7 +2901,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2913,7 +2917,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -2926,7 +2930,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -2939,7 +2943,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -2952,7 +2956,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -2965,7 +2969,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2978,7 +2982,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -2991,7 +2995,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3004,7 +3008,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3017,7 +3021,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3032,7 +3036,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3045,7 +3049,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3061,7 +3065,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3074,7 +3078,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3090,7 +3094,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3103,7 +3107,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3116,7 +3120,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3129,7 +3133,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3143,7 +3147,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3156,7 +3160,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3172,7 +3176,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3186,7 +3190,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3200,7 +3204,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3213,7 +3217,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3229,7 +3233,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3245,7 +3249,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3258,7 +3262,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3271,7 +3275,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3284,7 +3288,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3297,7 +3301,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3310,7 +3314,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3323,7 +3327,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3336,7 +3340,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3352,7 +3356,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3368,7 +3372,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3381,7 +3385,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3394,7 +3398,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3410,7 +3414,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3423,7 +3427,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3436,7 +3440,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3450,7 +3454,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3466,7 +3470,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3482,7 +3486,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3498,7 +3502,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3511,7 +3515,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3524,7 +3528,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3537,7 +3541,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3550,7 +3554,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3563,7 +3567,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3576,7 +3580,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3592,7 +3596,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3608,7 +3612,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3621,7 +3625,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3634,7 +3638,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3647,7 +3651,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3663,7 +3667,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3681,7 +3685,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3694,7 +3698,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3707,7 +3711,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3725,7 +3729,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3740,7 +3744,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3753,7 +3757,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3766,7 +3770,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3779,7 +3783,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3795,7 +3799,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3810,7 +3814,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3826,7 +3830,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3839,7 +3843,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -3865,7 +3869,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -3878,7 +3882,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3894,7 +3898,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -3910,7 +3914,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -3926,7 +3930,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -3936,10 +3940,13 @@
       <c r="C91" s="2" t="s">
         <v>223</v>
       </c>
+      <c r="D91" s="3" t="s">
+        <v>492</v>
+      </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -3955,7 +3962,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -3968,7 +3975,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -3981,7 +3988,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -3994,7 +4001,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4007,7 +4014,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4023,7 +4030,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4036,7 +4043,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4052,7 +4059,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4068,7 +4075,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4081,7 +4088,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4094,7 +4101,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4107,7 +4114,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4120,7 +4127,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4138,7 +4145,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4154,7 +4161,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4167,7 +4174,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4183,7 +4190,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4196,7 +4203,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4209,7 +4216,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4222,7 +4229,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4235,7 +4242,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4248,7 +4255,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4264,7 +4271,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4273,7 +4280,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4282,7 +4289,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4295,7 +4302,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4308,7 +4315,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4324,7 +4331,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4337,7 +4344,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4360,7 +4367,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4373,7 +4380,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4386,7 +4393,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4399,7 +4406,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4410,7 +4417,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4421,7 +4428,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4435,7 +4442,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4446,7 +4453,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4457,7 +4464,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4468,7 +4475,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4482,7 +4489,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4493,7 +4500,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4504,7 +4511,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4518,7 +4525,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4529,7 +4536,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4540,7 +4547,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4554,7 +4561,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4565,7 +4572,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4576,7 +4583,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4593,7 +4600,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4604,7 +4611,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4615,7 +4622,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4626,7 +4633,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4637,7 +4644,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4648,7 +4655,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4659,7 +4666,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4670,7 +4677,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4681,7 +4688,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4691,8 +4698,11 @@
       <c r="C149" s="2" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="150" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+      <c r="D149" s="3" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4703,7 +4713,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4714,7 +4724,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4725,7 +4735,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4736,7 +4746,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4747,7 +4757,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4758,7 +4768,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4769,7 +4779,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4780,7 +4790,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4791,7 +4801,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4802,7 +4812,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4813,7 +4823,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4824,7 +4834,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -4835,7 +4845,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -4849,7 +4859,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -4860,7 +4870,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -4871,7 +4881,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -4882,7 +4892,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -4893,7 +4903,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -4904,7 +4914,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -4918,7 +4928,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -4929,7 +4939,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -4940,7 +4950,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>460</v>
       </c>
@@ -4951,7 +4961,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>463</v>
       </c>
@@ -4962,7 +4972,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>465</v>
       </c>
@@ -4973,7 +4983,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>468</v>
       </c>
@@ -4984,7 +4994,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>469</v>
       </c>
@@ -4995,7 +5005,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
@@ -5006,7 +5016,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -5017,7 +5027,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>475</v>
       </c>
@@ -5028,7 +5038,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>477</v>
       </c>
@@ -5039,7 +5049,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>489</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{994B9D19-EB98-46DE-9465-AA931C7493F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A129D2D-096F-41C3-813C-69FD0C36F57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="493">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="511">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2222,6 +2222,79 @@
   </si>
   <si>
     <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发中心（北京）-科技菁英-后端开发工程师（JavaEE方向）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.10</t>
+  </si>
+  <si>
+    <t>9.10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发中心（上海）-科技菁英-后端开发工程师</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据中心（北京）-科技菁英</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>业务研发中心-科技菁英-技术研发岗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国工商银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技运营中心（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件中心（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技岗—湖北省武汉地区分支行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>信息科技岗—上海市分行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国银行（简历编号142367）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>联易融</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Java开发工程师（武汉） </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>安路科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>软件开发工程师-Java（上海）
+软件测试工程师（上海）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚂蚁集团</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试开发工程师
+研发工程师Java</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2301,7 +2374,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2334,6 +2407,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2616,22 +2692,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I181"/>
+  <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E153" sqref="E153"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="F173" sqref="F173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
@@ -5060,10 +5136,121 @@
         <v>491</v>
       </c>
     </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="12" t="s">
+        <v>499</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="12"/>
+      <c r="B183" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C183" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="12"/>
+      <c r="B184" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="12"/>
+      <c r="B185" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>500</v>
+      </c>
+      <c r="C186" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" s="12"/>
+      <c r="B187" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C187" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" s="12"/>
+      <c r="B188" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C188" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" s="12"/>
+      <c r="B189" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B191" s="9" t="s">
+        <v>508</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B192" s="9" t="s">
+        <v>510</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>495</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="C114:C116"/>
+    <mergeCell ref="A182:A185"/>
+    <mergeCell ref="A186:A189"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A129D2D-096F-41C3-813C-69FD0C36F57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D812B-2D79-4126-B2E2-3465320D44FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="628" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="514">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2295,6 +2295,18 @@
   <si>
     <t>测试开发工程师
 研发工程师Java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>放弃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突推迟（9.14）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2694,24 +2706,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F173" sqref="F173"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="9" max="9" width="29.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2738,7 +2750,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2758,7 +2770,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2774,7 +2786,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2787,7 +2799,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2800,7 +2812,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2818,7 +2830,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2831,7 +2843,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2844,7 +2856,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2857,7 +2869,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2870,7 +2882,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2883,7 +2895,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2899,7 +2911,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2912,7 +2924,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2925,7 +2937,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2938,7 +2950,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2951,7 +2963,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2964,7 +2976,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2977,7 +2989,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -2993,7 +3005,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3006,7 +3018,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3019,7 +3031,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -3032,7 +3044,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3045,7 +3057,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3058,7 +3070,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3071,7 +3083,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3084,7 +3096,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3097,7 +3109,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3112,7 +3124,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3125,7 +3137,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3141,7 +3153,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3154,7 +3166,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3170,7 +3182,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3183,7 +3195,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3196,7 +3208,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3209,7 +3221,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3223,7 +3235,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3236,7 +3248,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="57" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3252,7 +3264,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3266,7 +3278,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3280,7 +3292,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3293,7 +3305,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3309,7 +3321,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3325,7 +3337,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3338,7 +3350,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3351,7 +3363,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3364,7 +3376,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3377,7 +3389,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3390,7 +3402,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3403,7 +3415,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3416,7 +3428,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3432,7 +3444,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3448,7 +3460,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3461,7 +3473,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3474,7 +3486,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3490,7 +3502,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3503,7 +3515,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3516,7 +3528,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3530,7 +3542,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3546,7 +3558,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3562,7 +3574,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3578,7 +3590,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3591,7 +3603,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3604,7 +3616,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3617,7 +3629,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3630,7 +3642,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3643,7 +3655,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3656,7 +3668,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3672,7 +3684,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3688,7 +3700,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3701,7 +3713,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3714,7 +3726,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3727,7 +3739,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3743,7 +3755,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3761,7 +3773,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3774,7 +3786,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3787,7 +3799,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3805,7 +3817,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3820,7 +3832,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3833,7 +3845,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3846,7 +3858,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3859,7 +3871,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3875,7 +3887,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3890,7 +3902,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3906,7 +3918,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3919,7 +3931,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -3945,7 +3957,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -3958,7 +3970,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3974,7 +3986,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -3990,7 +4002,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4006,7 +4018,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -4022,7 +4034,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -4038,7 +4050,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -4051,7 +4063,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4064,7 +4076,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -4077,7 +4089,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4090,7 +4102,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4106,7 +4118,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4119,7 +4131,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4135,7 +4147,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4151,7 +4163,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4164,7 +4176,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4177,7 +4189,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4190,7 +4202,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4200,10 +4212,13 @@
       <c r="C104" s="2" t="s">
         <v>257</v>
       </c>
+      <c r="D104" s="2" t="s">
+        <v>513</v>
+      </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4221,7 +4236,7 @@
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4237,7 +4252,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4250,7 +4265,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4266,7 +4281,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4279,7 +4294,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4292,7 +4307,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4305,7 +4320,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4318,7 +4333,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4331,7 +4346,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4347,7 +4362,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4356,7 +4371,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4365,7 +4380,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4378,7 +4393,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4391,7 +4406,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4407,7 +4422,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4420,7 +4435,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4443,7 +4458,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4456,7 +4471,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4469,7 +4484,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4482,7 +4497,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4493,7 +4508,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4504,7 +4519,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4518,7 +4533,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4528,8 +4543,11 @@
       <c r="C128" s="2" t="s">
         <v>322</v>
       </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D128" s="2" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4540,7 +4558,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4551,7 +4569,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4565,7 +4583,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4576,7 +4594,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4587,7 +4605,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="57" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4601,7 +4619,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4612,7 +4630,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4623,7 +4641,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4637,7 +4655,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4648,7 +4666,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4659,7 +4677,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4676,7 +4694,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4687,7 +4705,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4698,7 +4716,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4709,7 +4727,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4720,7 +4738,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4731,7 +4749,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4742,7 +4760,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4753,7 +4771,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4764,7 +4782,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4778,7 +4796,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4789,7 +4807,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4800,7 +4818,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4810,8 +4828,11 @@
       <c r="C152" s="2" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D152" s="3" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4822,7 +4843,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4833,7 +4854,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4844,7 +4865,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4855,7 +4876,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4866,7 +4887,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4877,7 +4898,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4888,7 +4909,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4899,7 +4920,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4910,7 +4931,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -4921,7 +4942,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -4935,7 +4956,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -4946,7 +4967,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -4957,7 +4978,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -4968,7 +4989,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -4979,7 +5000,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -4990,7 +5011,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -5004,7 +5025,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5015,7 +5036,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -5026,7 +5047,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>460</v>
       </c>
@@ -5037,7 +5058,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>463</v>
       </c>
@@ -5048,7 +5069,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>465</v>
       </c>
@@ -5059,7 +5080,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>468</v>
       </c>
@@ -5070,7 +5091,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>469</v>
       </c>
@@ -5081,7 +5102,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>470</v>
       </c>
@@ -5092,7 +5113,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>472</v>
       </c>
@@ -5103,7 +5124,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>475</v>
       </c>
@@ -5114,7 +5135,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>477</v>
       </c>
@@ -5125,7 +5146,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>489</v>
       </c>
@@ -5136,7 +5157,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>499</v>
       </c>
@@ -5147,7 +5168,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>496</v>
@@ -5156,7 +5177,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>497</v>
@@ -5165,7 +5186,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>498</v>
@@ -5174,7 +5195,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>504</v>
       </c>
@@ -5185,7 +5206,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>501</v>
@@ -5194,7 +5215,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>502</v>
@@ -5203,7 +5224,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>503</v>
@@ -5212,7 +5233,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>505</v>
       </c>
@@ -5223,7 +5244,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="191" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>507</v>
       </c>
@@ -5234,7 +5255,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="192" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>509</v>
       </c>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E6D812B-2D79-4126-B2E2-3465320D44FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44964873-57A6-4476-AEB5-E70FFEE0F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="631" uniqueCount="514">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="521">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2082,10 +2082,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冲突推迟（9.7）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunPlus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2302,11 +2298,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>冲突推迟（9.14）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>9.13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突推迟（9.14，已放弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.14
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掌趣科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务器端开发工程师（北京）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运营数据中心-总行运行数据中心（武汉）-通用类岗位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北分行-武汉主城区支行-科技类专项人才</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国建设银行</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2704,26 +2733,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I192"/>
+  <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="F187" sqref="F187"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="64.625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.625" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.58203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2744,13 +2773,13 @@
         <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2770,7 +2799,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2786,7 +2815,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2799,7 +2828,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2812,7 +2841,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2830,7 +2859,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2843,7 +2872,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2856,7 +2885,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2869,7 +2898,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2882,7 +2911,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2895,7 +2924,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2911,7 +2940,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2924,7 +2953,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2937,7 +2966,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2950,7 +2979,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -2963,7 +2992,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -2976,7 +3005,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -2989,7 +3018,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -3005,7 +3034,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3018,7 +3047,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3031,7 +3060,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -3044,7 +3073,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3057,7 +3086,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3070,7 +3099,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3083,7 +3112,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3096,7 +3125,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3109,7 +3138,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3124,7 +3153,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3137,7 +3166,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3153,7 +3182,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3166,7 +3195,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3182,7 +3211,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3195,7 +3224,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3208,7 +3237,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3221,7 +3250,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3235,7 +3264,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3248,7 +3277,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="56" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3264,7 +3293,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3278,7 +3307,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3292,7 +3321,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3305,7 +3334,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3321,7 +3350,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3337,7 +3366,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3350,7 +3379,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3363,7 +3392,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3376,7 +3405,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3389,7 +3418,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3402,7 +3431,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3415,7 +3444,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3428,7 +3457,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3444,7 +3473,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3460,7 +3489,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3473,7 +3502,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3486,7 +3515,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3502,7 +3531,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3515,7 +3544,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3528,7 +3557,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3542,7 +3571,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3558,7 +3587,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3574,7 +3603,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3590,7 +3619,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3603,7 +3632,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3616,7 +3645,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3629,7 +3658,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3642,7 +3671,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3655,7 +3684,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3668,7 +3697,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3684,7 +3713,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3700,7 +3729,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3713,7 +3742,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3726,7 +3755,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3739,7 +3768,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3755,7 +3784,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3773,7 +3802,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3786,7 +3815,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3799,25 +3828,25 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3832,7 +3861,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3845,7 +3874,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3858,7 +3887,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3871,7 +3900,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3887,7 +3916,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3898,11 +3927,11 @@
         <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3918,7 +3947,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3931,7 +3960,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -3954,10 +3983,10 @@
         <v>455</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -3970,7 +3999,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -3986,7 +4015,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -3996,13 +4025,13 @@
       <c r="C89" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="D89" s="4" t="s">
-        <v>459</v>
+      <c r="D89" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4018,7 +4047,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -4029,12 +4058,12 @@
         <v>223</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -4050,7 +4079,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -4063,7 +4092,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4076,7 +4105,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -4089,7 +4118,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4102,7 +4131,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4118,7 +4147,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4128,10 +4157,13 @@
       <c r="C98" s="2" t="s">
         <v>241</v>
       </c>
+      <c r="D98" s="4" t="s">
+        <v>514</v>
+      </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4147,7 +4179,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4163,7 +4195,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4176,7 +4208,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4189,7 +4221,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4202,7 +4234,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4213,12 +4245,12 @@
         <v>257</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4232,11 +4264,11 @@
         <v>417</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F105" s="2"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4252,7 +4284,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4265,7 +4297,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4281,7 +4313,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4294,7 +4326,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4307,7 +4339,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4320,7 +4352,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4333,7 +4365,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4346,7 +4378,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4362,7 +4394,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4371,7 +4403,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4380,7 +4412,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4393,7 +4425,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4406,7 +4438,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4417,12 +4449,12 @@
         <v>298</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4435,7 +4467,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4455,10 +4487,10 @@
         <v>449</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4471,7 +4503,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4481,10 +4513,13 @@
       <c r="C123" s="2" t="s">
         <v>298</v>
       </c>
+      <c r="D123" s="2" t="s">
+        <v>512</v>
+      </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4497,7 +4532,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4508,7 +4543,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4519,7 +4554,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4533,7 +4568,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4543,11 +4578,11 @@
       <c r="C128" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="D128" s="2" t="s">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="D128" s="3" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4558,7 +4593,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4569,7 +4604,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4583,7 +4618,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4594,7 +4629,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4605,7 +4640,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="56" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4616,10 +4651,10 @@
         <v>338</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>488</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.3">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4630,7 +4665,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4641,7 +4676,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4655,7 +4690,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4666,7 +4701,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4677,7 +4712,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4694,7 +4729,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4705,7 +4740,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4716,7 +4751,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4727,7 +4762,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4738,7 +4773,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4749,7 +4784,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4760,18 +4795,18 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>380</v>
       </c>
-      <c r="C147" s="2" t="s">
+      <c r="C147" s="3" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4782,7 +4817,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4793,10 +4828,10 @@
         <v>374</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4807,7 +4842,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4818,7 +4853,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4829,10 +4864,10 @@
         <v>389</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4843,7 +4878,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4854,7 +4889,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4865,7 +4900,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4876,7 +4911,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4887,7 +4922,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4898,7 +4933,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4909,7 +4944,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4920,7 +4955,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4931,7 +4966,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -4942,7 +4977,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -4956,7 +4991,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -4967,7 +5002,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -4978,7 +5013,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -4989,7 +5024,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -5000,7 +5035,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -5011,7 +5046,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -5025,7 +5060,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5036,7 +5071,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -5047,231 +5082,263 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B172" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="B172" s="1" t="s">
+      <c r="C172" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="C172" s="2" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="1" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A173" s="1" t="s">
+      <c r="B173" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A174" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>465</v>
       </c>
-      <c r="B174" s="1" t="s">
+      <c r="C174" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>466</v>
       </c>
-      <c r="C174" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A175" s="1" t="s">
+      <c r="C175" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A176" s="1" t="s">
+      <c r="B176" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>467</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A177" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="C177" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="1" t="s">
         <v>471</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A178" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="B178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C178" s="2" t="s">
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A179" s="1" t="s">
+      <c r="B179" s="1" t="s">
         <v>475</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="C179" s="2" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
         <v>476</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="180" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A180" s="1" t="s">
+      <c r="B180" s="9" t="s">
         <v>477</v>
       </c>
-      <c r="B180" s="9" t="s">
-        <v>478</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>488</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>489</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>490</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>494</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A190" s="1" t="s">
-        <v>505</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>506</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="9" t="s">
         <v>507</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="C191" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>508</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="28" x14ac:dyDescent="0.3">
-      <c r="A192" s="1" t="s">
+      <c r="B192" s="9" t="s">
         <v>509</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>510</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>495</v>
+        <v>494</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>516</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" s="12" t="s">
+        <v>520</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>518</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" s="12"/>
+      <c r="B195" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>517</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A114:A116"/>
     <mergeCell ref="C114:C116"/>
     <mergeCell ref="A182:A185"/>
     <mergeCell ref="A186:A189"/>
+    <mergeCell ref="A194:A195"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44964873-57A6-4476-AEB5-E70FFEE0F81A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091DD97-828F-4868-8575-0F325872FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="641" uniqueCount="521">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="525">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2199,12 +2199,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>？
-原定9.7，时间冲突放弃
-？</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>大华股份</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2336,6 +2330,30 @@
   </si>
   <si>
     <t>中国建设银行</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>？
+9.15
+？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.15
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突推迟（9.16，已放弃）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2735,8 +2753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
-      <selection activeCell="F187" sqref="F187"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="E131" sqref="E131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4026,7 +4044,7 @@
         <v>217</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
@@ -4058,7 +4076,7 @@
         <v>223</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
@@ -4158,7 +4176,7 @@
         <v>241</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
@@ -4245,7 +4263,7 @@
         <v>257</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
@@ -4266,7 +4284,9 @@
       <c r="E105" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="F105" s="2"/>
+      <c r="F105" s="4" t="s">
+        <v>523</v>
+      </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
@@ -4514,7 +4534,7 @@
         <v>298</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
@@ -4579,7 +4599,7 @@
         <v>322</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>513</v>
+        <v>524</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
@@ -4651,7 +4671,7 @@
         <v>338</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>487</v>
+        <v>520</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -4828,7 +4848,7 @@
         <v>374</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
@@ -4864,7 +4884,7 @@
         <v>389</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
@@ -4943,6 +4963,9 @@
       <c r="C159" s="2" t="s">
         <v>407</v>
       </c>
+      <c r="D159" s="2" t="s">
+        <v>522</v>
+      </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
@@ -5137,7 +5160,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>469</v>
       </c>
@@ -5148,7 +5171,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>471</v>
       </c>
@@ -5159,7 +5182,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>474</v>
       </c>
@@ -5170,7 +5193,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="180" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>476</v>
       </c>
@@ -5181,155 +5204,158 @@
         <v>473</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B181" s="1" t="s">
         <v>488</v>
       </c>
-      <c r="B181" s="1" t="s">
+      <c r="C181" s="2" t="s">
         <v>489</v>
       </c>
-      <c r="C181" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C189" s="2" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C190" s="2" t="s">
         <v>493</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
-        <v>504</v>
-      </c>
-      <c r="B190" s="1" t="s">
+    <row r="191" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A191" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="191" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="B191" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="C191" s="2" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+      <c r="A192" s="1" t="s">
         <v>507</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="192" spans="1:3" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
+      <c r="B192" s="9" t="s">
         <v>508</v>
       </c>
-      <c r="B192" s="9" t="s">
-        <v>509</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>494</v>
+        <v>493</v>
+      </c>
+      <c r="D192" s="4" t="s">
+        <v>521</v>
       </c>
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
+        <v>514</v>
+      </c>
+      <c r="B193" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="B193" s="1" t="s">
+      <c r="C193" s="2" t="s">
         <v>516</v>
-      </c>
-      <c r="C193" s="2" t="s">
-        <v>517</v>
       </c>
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4091DD97-828F-4868-8575-0F325872FDA8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F077CD-89C1-470B-A140-4C3D66B49027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="525">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="529">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2074,14 +2074,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>9.7（IT）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.1（IT）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FunPlus</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2354,6 +2346,34 @@
   </si>
   <si>
     <t>冲突推迟（9.16，已放弃）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.1
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.7
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冲突申请推迟（9.16）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+9.16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.16意向，10月份左右正式薪资Offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2753,24 +2773,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="E131" sqref="E131"/>
+    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
+      <selection activeCell="I80" sqref="I80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="64.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="29.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="1" max="1" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2791,13 +2812,13 @@
         <v>451</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="I1" s="1" t="s">
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2817,7 +2838,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2833,7 +2854,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2846,7 +2867,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2859,7 +2880,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2877,7 +2898,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2890,7 +2911,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2903,7 +2924,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2916,7 +2937,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2929,7 +2950,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2942,7 +2963,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2958,7 +2979,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2971,7 +2992,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -2984,7 +3005,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -2997,7 +3018,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -3010,7 +3031,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3023,7 +3044,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3036,7 +3057,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -3052,7 +3073,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3065,7 +3086,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3078,7 +3099,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -3091,7 +3112,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3104,7 +3125,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3117,7 +3138,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3130,7 +3151,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3143,7 +3164,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3156,7 +3177,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3171,7 +3192,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3184,7 +3205,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3200,7 +3221,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3213,7 +3234,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3229,7 +3250,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3242,7 +3263,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3255,7 +3276,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3268,7 +3289,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3282,7 +3303,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3295,7 +3316,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3311,7 +3332,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3325,7 +3346,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3339,7 +3360,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3352,7 +3373,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3368,7 +3389,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3384,7 +3405,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3397,7 +3418,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3410,7 +3431,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3423,7 +3444,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3436,7 +3457,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3449,7 +3470,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3462,7 +3483,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3475,7 +3496,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3491,7 +3512,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3507,7 +3528,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3520,7 +3541,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3533,7 +3554,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3549,7 +3570,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3562,7 +3583,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3575,7 +3596,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3589,7 +3610,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3605,7 +3626,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3621,7 +3642,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3637,7 +3658,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3650,7 +3671,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3663,7 +3684,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3676,7 +3697,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3689,7 +3710,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3702,7 +3723,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3715,7 +3736,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3731,7 +3752,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3747,7 +3768,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3760,7 +3781,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3773,7 +3794,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3786,7 +3807,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3802,7 +3823,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3820,7 +3841,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3833,7 +3854,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3846,25 +3867,25 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>181</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E77" s="2"/>
       <c r="F77" s="4" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3879,7 +3900,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3892,7 +3913,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3905,7 +3926,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:8" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3918,7 +3939,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3934,7 +3955,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3945,11 +3966,11 @@
         <v>195</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3965,7 +3986,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3978,7 +3999,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -4001,10 +4022,13 @@
         <v>455</v>
       </c>
       <c r="H86" s="1" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+      <c r="I86" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -4017,7 +4041,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -4033,7 +4057,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -4044,12 +4068,12 @@
         <v>217</v>
       </c>
       <c r="D89" s="10" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4065,7 +4089,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -4076,12 +4100,12 @@
         <v>223</v>
       </c>
       <c r="D91" s="3" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -4097,7 +4121,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -4110,7 +4134,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4123,7 +4147,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -4136,7 +4160,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4149,7 +4173,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4165,7 +4189,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4176,12 +4200,12 @@
         <v>241</v>
       </c>
       <c r="D98" s="4" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4197,7 +4221,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4213,7 +4237,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4226,7 +4250,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4239,7 +4263,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4252,7 +4276,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4263,12 +4287,12 @@
         <v>257</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4282,13 +4306,13 @@
         <v>417</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4304,7 +4328,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4314,10 +4338,13 @@
       <c r="C107" s="2" t="s">
         <v>267</v>
       </c>
+      <c r="D107" s="4" t="s">
+        <v>527</v>
+      </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4333,7 +4360,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4346,7 +4373,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4359,7 +4386,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4372,7 +4399,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4385,7 +4412,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4398,7 +4425,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4414,7 +4441,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4423,7 +4450,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4432,7 +4459,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4445,7 +4472,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4458,7 +4485,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4469,12 +4496,12 @@
         <v>298</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4487,7 +4514,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4507,10 +4534,10 @@
         <v>449</v>
       </c>
       <c r="G121" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4523,7 +4550,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4534,12 +4561,12 @@
         <v>298</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4552,7 +4579,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4562,8 +4589,11 @@
       <c r="C125" s="4" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+      <c r="D125" s="4" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4574,7 +4604,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4588,7 +4618,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4599,10 +4629,10 @@
         <v>322</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.2">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4613,7 +4643,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4624,7 +4654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4638,7 +4668,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4649,7 +4679,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4660,7 +4690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:5" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4671,10 +4701,10 @@
         <v>338</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.2">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4685,7 +4715,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4696,7 +4726,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4710,7 +4740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4721,7 +4751,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4732,7 +4762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4742,14 +4772,17 @@
       <c r="C140" s="2" t="s">
         <v>355</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>458</v>
-      </c>
-      <c r="E140" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D140" s="4" t="s">
+        <v>523</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>524</v>
+      </c>
+      <c r="F140" s="1" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4760,7 +4793,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:5" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4771,7 +4804,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4782,7 +4815,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4793,7 +4826,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4804,7 +4837,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4815,7 +4848,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4826,7 +4859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4837,7 +4870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4848,10 +4881,10 @@
         <v>374</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4862,7 +4895,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4873,7 +4906,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4884,10 +4917,10 @@
         <v>389</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4898,7 +4931,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4909,7 +4942,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4920,7 +4953,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4931,7 +4964,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4942,7 +4975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4953,7 +4986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -4964,10 +4997,10 @@
         <v>407</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -4978,7 +5011,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -4989,7 +5022,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -5000,7 +5033,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -5014,7 +5047,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -5025,7 +5058,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -5036,7 +5069,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -5047,7 +5080,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -5058,7 +5091,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -5069,7 +5102,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -5083,7 +5116,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5094,7 +5127,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -5105,257 +5138,257 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="C172" s="2" t="s">
         <v>459</v>
       </c>
-      <c r="B172" s="1" t="s">
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
         <v>460</v>
       </c>
-      <c r="C172" s="2" t="s">
+      <c r="B173" s="1" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A173" s="1" t="s">
+      <c r="C173" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
         <v>462</v>
       </c>
-      <c r="B173" s="1" t="s">
+      <c r="B174" s="1" t="s">
         <v>463</v>
       </c>
-      <c r="C173" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A174" s="1" t="s">
+      <c r="C174" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B175" s="1" t="s">
         <v>464</v>
       </c>
-      <c r="B174" s="1" t="s">
-        <v>465</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A175" s="1" t="s">
+      <c r="C175" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>466</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>464</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
         <v>467</v>
       </c>
-      <c r="B175" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C175" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A176" s="1" t="s">
+      <c r="B177" s="1" t="s">
         <v>468</v>
       </c>
-      <c r="B176" s="1" t="s">
-        <v>466</v>
-      </c>
-      <c r="C176" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A177" s="1" t="s">
+      <c r="C177" s="2" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
         <v>469</v>
       </c>
-      <c r="B177" s="1" t="s">
+      <c r="B178" s="1" t="s">
         <v>470</v>
       </c>
-      <c r="C177" s="2" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A178" s="1" t="s">
+      <c r="C178" s="2" t="s">
         <v>471</v>
       </c>
-      <c r="B178" s="1" t="s">
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
         <v>472</v>
       </c>
-      <c r="C178" s="2" t="s">
+      <c r="B179" s="1" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A179" s="1" t="s">
+      <c r="C179" s="2" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
         <v>474</v>
       </c>
-      <c r="B179" s="1" t="s">
+      <c r="B180" s="9" t="s">
         <v>475</v>
       </c>
-      <c r="C179" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A180" s="1" t="s">
-        <v>476</v>
-      </c>
-      <c r="B180" s="9" t="s">
-        <v>477</v>
-      </c>
       <c r="C180" s="2" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>486</v>
+      </c>
+      <c r="C181" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="B181" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="C181" s="2" t="s">
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A182" s="12" t="s">
+        <v>495</v>
+      </c>
+      <c r="B182" s="1" t="s">
         <v>489</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A182" s="12" t="s">
-        <v>497</v>
-      </c>
-      <c r="B182" s="1" t="s">
+      <c r="C182" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="C182" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C185" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A186" s="12" t="s">
+        <v>500</v>
+      </c>
+      <c r="B186" s="1" t="s">
         <v>496</v>
       </c>
-      <c r="C185" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A186" s="12" t="s">
-        <v>502</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>498</v>
-      </c>
       <c r="C186" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="C187" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="C188" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="C189" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
         <v>501</v>
       </c>
-      <c r="C189" s="2" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A190" s="1" t="s">
+      <c r="B190" s="1" t="s">
+        <v>502</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
-      <c r="B190" s="1" t="s">
+      <c r="B191" s="9" t="s">
         <v>504</v>
       </c>
-      <c r="C190" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="191" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A191" s="1" t="s">
+      <c r="C191" s="2" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
         <v>505</v>
       </c>
-      <c r="B191" s="9" t="s">
+      <c r="B192" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="C191" s="2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="192" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
-      <c r="A192" s="1" t="s">
-        <v>507</v>
-      </c>
-      <c r="B192" s="9" t="s">
-        <v>508</v>
-      </c>
       <c r="C192" s="2" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D192" s="4" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C193" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="B193" s="1" t="s">
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A194" s="12" t="s">
+        <v>517</v>
+      </c>
+      <c r="B194" s="1" t="s">
         <v>515</v>
       </c>
-      <c r="C193" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A194" s="12" t="s">
-        <v>519</v>
-      </c>
-      <c r="B194" s="1" t="s">
-        <v>517</v>
-      </c>
       <c r="C194" s="2" t="s">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
     </row>
   </sheetData>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F077CD-89C1-470B-A140-4C3D66B49027}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE83357-0B26-4E81-AEF1-2567B0E97CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2368,12 +2368,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">9.16
+    <t>9.16意向，10月份左右正式薪资Offer</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.16（放弃）
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>9.16意向，10月份左右正式薪资Offer</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2773,25 +2773,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C73" workbookViewId="0">
-      <selection activeCell="I80" sqref="I80"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="D107" sqref="D107"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="26.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.9140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.9140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="1"/>
+    <col min="9" max="9" width="32.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2818,7 +2818,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2838,7 +2838,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2854,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2867,7 +2867,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2880,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2898,7 +2898,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +2911,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2924,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2937,7 +2937,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +2950,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +2963,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2979,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +2992,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3005,7 +3005,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3018,7 +3018,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -3031,7 +3031,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +3044,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3057,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -3073,7 +3073,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3086,7 +3086,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3099,7 +3099,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -3112,7 +3112,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3125,7 +3125,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3138,7 +3138,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3151,7 +3151,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3164,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3177,7 +3177,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3192,7 +3192,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3205,7 +3205,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +3221,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3234,7 +3234,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3250,7 +3250,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3263,7 +3263,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3276,7 +3276,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3289,7 +3289,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3316,7 +3316,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3332,7 +3332,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3346,7 +3346,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3360,7 +3360,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3373,7 +3373,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3389,7 +3389,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3405,7 +3405,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3418,7 +3418,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3431,7 +3431,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3444,7 +3444,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3457,7 +3457,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3470,7 +3470,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3483,7 +3483,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3496,7 +3496,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3512,7 +3512,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3528,7 +3528,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3541,7 +3541,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3554,7 +3554,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3570,7 +3570,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3583,7 +3583,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3596,7 +3596,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3610,7 +3610,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3626,7 +3626,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3642,7 +3642,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3658,7 +3658,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3671,7 +3671,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3684,7 +3684,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3697,7 +3697,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3710,7 +3710,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3723,7 +3723,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3736,7 +3736,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3752,7 +3752,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3768,7 +3768,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3781,7 +3781,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3794,7 +3794,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3807,7 +3807,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3823,7 +3823,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3841,7 +3841,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3854,7 +3854,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3867,7 +3867,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3885,7 +3885,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3900,7 +3900,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3913,7 +3913,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3926,7 +3926,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3939,7 +3939,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3955,7 +3955,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3970,7 +3970,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3986,7 +3986,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3999,7 +3999,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -4025,10 +4025,10 @@
         <v>477</v>
       </c>
       <c r="I86" s="1" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -4041,7 +4041,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -4057,7 +4057,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -4073,7 +4073,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4089,7 +4089,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -4105,7 +4105,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -4121,7 +4121,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -4134,7 +4134,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4147,7 +4147,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -4160,7 +4160,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="28" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4173,7 +4173,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4189,7 +4189,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4205,7 +4205,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4221,7 +4221,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4237,7 +4237,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4250,7 +4250,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4263,7 +4263,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4276,7 +4276,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4292,7 +4292,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4328,7 +4328,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4339,12 +4339,12 @@
         <v>267</v>
       </c>
       <c r="D107" s="4" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4360,7 +4360,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4373,7 +4373,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4386,7 +4386,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4399,7 +4399,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4412,7 +4412,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4425,7 +4425,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4441,7 +4441,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4450,7 +4450,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4459,7 +4459,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4485,7 +4485,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4501,7 +4501,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4514,7 +4514,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4537,7 +4537,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4550,7 +4550,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4566,7 +4566,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4579,7 +4579,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4593,7 +4593,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4604,7 +4604,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4618,7 +4618,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4632,7 +4632,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4643,7 +4643,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4679,7 +4679,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4690,7 +4690,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="42" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4704,7 +4704,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4715,7 +4715,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4726,7 +4726,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4740,7 +4740,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4762,7 +4762,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4782,7 +4782,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4793,7 +4793,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4804,7 +4804,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4826,7 +4826,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4837,7 +4837,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4848,7 +4848,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4859,7 +4859,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4884,7 +4884,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4906,7 +4906,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -5000,7 +5000,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -5011,7 +5011,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -5033,7 +5033,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -5116,7 +5116,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -5138,7 +5138,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>457</v>
       </c>
@@ -5149,7 +5149,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>460</v>
       </c>
@@ -5160,7 +5160,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>462</v>
       </c>
@@ -5171,7 +5171,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>465</v>
       </c>
@@ -5182,7 +5182,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>466</v>
       </c>
@@ -5193,7 +5193,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>467</v>
       </c>
@@ -5204,7 +5204,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>469</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>472</v>
       </c>
@@ -5226,7 +5226,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>474</v>
       </c>
@@ -5237,7 +5237,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>485</v>
       </c>
@@ -5248,7 +5248,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A182" s="12" t="s">
         <v>495</v>
       </c>
@@ -5259,7 +5259,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>492</v>
@@ -5268,7 +5268,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>493</v>
@@ -5277,7 +5277,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>494</v>
@@ -5286,7 +5286,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A186" s="12" t="s">
         <v>500</v>
       </c>
@@ -5297,7 +5297,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>497</v>
@@ -5306,7 +5306,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>498</v>
@@ -5315,7 +5315,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>499</v>
@@ -5324,7 +5324,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A190" s="1" t="s">
         <v>501</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -5346,7 +5346,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="28" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A192" s="1" t="s">
         <v>505</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A193" s="1" t="s">
         <v>512</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A194" s="12" t="s">
         <v>517</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
         <v>516</v>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BE83357-0B26-4E81-AEF1-2567B0E97CCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136F9E5-F215-4DF9-A0E0-68F09BA18C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2773,8 +2773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="D107" sqref="D107"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="D189" sqref="D189"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/投递信息.xlsx
+++ b/投递信息.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZHANG\Desktop\Notes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\qq\Desktop\Notes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B136F9E5-F215-4DF9-A0E0-68F09BA18C5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96B88CC1-0E9A-4D62-87E4-316E3CC075DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="21820" windowHeight="14620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="529">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="649" uniqueCount="530">
   <si>
     <t>简历投递时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2373,6 +2373,11 @@
   </si>
   <si>
     <t xml:space="preserve">9.16（放弃）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">9.20（HR面）
 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2773,25 +2778,25 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I195"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="D189" sqref="D189"/>
+    <sheetView tabSelected="1" topLeftCell="B93" workbookViewId="0">
+      <selection activeCell="G109" sqref="G109"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="26.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="61.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="26.58203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="25.83203125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="16" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="32.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="8.875" style="1"/>
+    <col min="9" max="9" width="32.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="2"/>
       <c r="B1" s="2" t="s">
         <v>9</v>
@@ -2818,7 +2823,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -2838,7 +2843,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -2854,7 +2859,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -2867,7 +2872,7 @@
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
     </row>
-    <row r="5" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -2880,7 +2885,7 @@
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
     </row>
-    <row r="6" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>123</v>
       </c>
@@ -2898,7 +2903,7 @@
       </c>
       <c r="F6" s="2"/>
     </row>
-    <row r="7" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2911,7 +2916,7 @@
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
     </row>
-    <row r="8" spans="1:9" ht="99.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="98" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -2924,7 +2929,7 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>226</v>
       </c>
@@ -2937,7 +2942,7 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
     </row>
-    <row r="10" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -2950,7 +2955,7 @@
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -2963,7 +2968,7 @@
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -2979,7 +2984,7 @@
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -2992,7 +2997,7 @@
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -3005,7 +3010,7 @@
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
     </row>
-    <row r="15" spans="1:9" ht="57" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="56" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -3018,7 +3023,7 @@
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>147</v>
       </c>
@@ -3031,7 +3036,7 @@
       <c r="E16" s="2"/>
       <c r="F16" s="2"/>
     </row>
-    <row r="17" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -3044,7 +3049,7 @@
       <c r="E17" s="2"/>
       <c r="F17" s="2"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -3057,7 +3062,7 @@
       <c r="E18" s="2"/>
       <c r="F18" s="2"/>
     </row>
-    <row r="19" spans="1:6" ht="71.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="70" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>90</v>
       </c>
@@ -3073,7 +3078,7 @@
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>36</v>
       </c>
@@ -3086,7 +3091,7 @@
       <c r="E20" s="2"/>
       <c r="F20" s="2"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>38</v>
       </c>
@@ -3099,7 +3104,7 @@
       <c r="E21" s="2"/>
       <c r="F21" s="2"/>
     </row>
-    <row r="22" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>260</v>
       </c>
@@ -3112,7 +3117,7 @@
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>42</v>
       </c>
@@ -3125,7 +3130,7 @@
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -3138,7 +3143,7 @@
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>47</v>
       </c>
@@ -3151,7 +3156,7 @@
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>49</v>
       </c>
@@ -3164,7 +3169,7 @@
       <c r="E26" s="2"/>
       <c r="F26" s="2"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>52</v>
       </c>
@@ -3177,7 +3182,7 @@
       <c r="E27" s="2"/>
       <c r="F27" s="2"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>124</v>
       </c>
@@ -3192,7 +3197,7 @@
       </c>
       <c r="F28" s="2"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>57</v>
       </c>
@@ -3205,7 +3210,7 @@
       <c r="E29" s="2"/>
       <c r="F29" s="2"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>60</v>
       </c>
@@ -3221,7 +3226,7 @@
       <c r="E30" s="2"/>
       <c r="F30" s="2"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>63</v>
       </c>
@@ -3234,7 +3239,7 @@
       <c r="E31" s="2"/>
       <c r="F31" s="2"/>
     </row>
-    <row r="32" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>65</v>
       </c>
@@ -3250,7 +3255,7 @@
       <c r="E32" s="2"/>
       <c r="F32" s="2"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
@@ -3263,7 +3268,7 @@
       <c r="E33" s="2"/>
       <c r="F33" s="2"/>
     </row>
-    <row r="34" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
@@ -3276,7 +3281,7 @@
       <c r="E34" s="2"/>
       <c r="F34" s="2"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>72</v>
       </c>
@@ -3289,7 +3294,7 @@
       <c r="E35" s="2"/>
       <c r="F35" s="2"/>
     </row>
-    <row r="36" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>75</v>
       </c>
@@ -3303,7 +3308,7 @@
       <c r="E36" s="2"/>
       <c r="F36" s="2"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>79</v>
       </c>
@@ -3316,7 +3321,7 @@
       <c r="E37" s="2"/>
       <c r="F37" s="2"/>
     </row>
-    <row r="38" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>82</v>
       </c>
@@ -3332,7 +3337,7 @@
       <c r="E38" s="2"/>
       <c r="F38" s="2"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>83</v>
       </c>
@@ -3346,7 +3351,7 @@
       <c r="E39" s="2"/>
       <c r="F39" s="2"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>86</v>
       </c>
@@ -3360,7 +3365,7 @@
       <c r="E40" s="2"/>
       <c r="F40" s="2"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>91</v>
       </c>
@@ -3373,7 +3378,7 @@
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>93</v>
       </c>
@@ -3389,7 +3394,7 @@
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>98</v>
       </c>
@@ -3405,7 +3410,7 @@
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
     </row>
-    <row r="44" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>101</v>
       </c>
@@ -3418,7 +3423,7 @@
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
     </row>
-    <row r="45" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>103</v>
       </c>
@@ -3431,7 +3436,7 @@
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
     </row>
-    <row r="46" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>105</v>
       </c>
@@ -3444,7 +3449,7 @@
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>108</v>
       </c>
@@ -3457,7 +3462,7 @@
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>111</v>
       </c>
@@ -3470,7 +3475,7 @@
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>113</v>
       </c>
@@ -3483,7 +3488,7 @@
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>115</v>
       </c>
@@ -3496,7 +3501,7 @@
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2">
         <v>360</v>
       </c>
@@ -3512,7 +3517,7 @@
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>118</v>
       </c>
@@ -3528,7 +3533,7 @@
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
     </row>
-    <row r="53" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>121</v>
       </c>
@@ -3541,7 +3546,7 @@
       <c r="E53" s="2"/>
       <c r="F53" s="2"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>127</v>
       </c>
@@ -3554,7 +3559,7 @@
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>130</v>
       </c>
@@ -3570,7 +3575,7 @@
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>133</v>
       </c>
@@ -3583,7 +3588,7 @@
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
     </row>
-    <row r="57" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>135</v>
       </c>
@@ -3596,7 +3601,7 @@
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
     </row>
-    <row r="58" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>137</v>
       </c>
@@ -3610,7 +3615,7 @@
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>138</v>
       </c>
@@ -3626,7 +3631,7 @@
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
     </row>
-    <row r="60" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>141</v>
       </c>
@@ -3642,7 +3647,7 @@
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
     </row>
-    <row r="61" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>143</v>
       </c>
@@ -3658,7 +3663,7 @@
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>145</v>
       </c>
@@ -3671,7 +3676,7 @@
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -3684,7 +3689,7 @@
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>148</v>
       </c>
@@ -3697,7 +3702,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>151</v>
       </c>
@@ -3710,7 +3715,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
     </row>
-    <row r="66" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>153</v>
       </c>
@@ -3723,7 +3728,7 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
     </row>
-    <row r="67" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>154</v>
       </c>
@@ -3736,7 +3741,7 @@
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
     </row>
-    <row r="68" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>156</v>
       </c>
@@ -3752,7 +3757,7 @@
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>157</v>
       </c>
@@ -3768,7 +3773,7 @@
       <c r="E69" s="2"/>
       <c r="F69" s="2"/>
     </row>
-    <row r="70" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>159</v>
       </c>
@@ -3781,7 +3786,7 @@
       <c r="E70" s="2"/>
       <c r="F70" s="2"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>162</v>
       </c>
@@ -3794,7 +3799,7 @@
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
     </row>
-    <row r="72" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>165</v>
       </c>
@@ -3807,7 +3812,7 @@
       <c r="E72" s="2"/>
       <c r="F72" s="2"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>168</v>
       </c>
@@ -3823,7 +3828,7 @@
       <c r="E73" s="2"/>
       <c r="F73" s="2"/>
     </row>
-    <row r="74" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>171</v>
       </c>
@@ -3841,7 +3846,7 @@
       </c>
       <c r="F74" s="2"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>172</v>
       </c>
@@ -3854,7 +3859,7 @@
       <c r="E75" s="2"/>
       <c r="F75" s="2"/>
     </row>
-    <row r="76" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>175</v>
       </c>
@@ -3867,7 +3872,7 @@
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
     </row>
-    <row r="77" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>180</v>
       </c>
@@ -3885,7 +3890,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>182</v>
       </c>
@@ -3900,7 +3905,7 @@
       </c>
       <c r="F78" s="2"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>184</v>
       </c>
@@ -3913,7 +3918,7 @@
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>188</v>
       </c>
@@ -3926,7 +3931,7 @@
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
     </row>
-    <row r="81" spans="1:9" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="42" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>190</v>
       </c>
@@ -3939,7 +3944,7 @@
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>193</v>
       </c>
@@ -3955,7 +3960,7 @@
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>196</v>
       </c>
@@ -3970,7 +3975,7 @@
       </c>
       <c r="F83" s="2"/>
     </row>
-    <row r="84" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>200</v>
       </c>
@@ -3986,7 +3991,7 @@
       <c r="E84" s="2"/>
       <c r="F84" s="2"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>203</v>
       </c>
@@ -3999,7 +4004,7 @@
       <c r="E85" s="2"/>
       <c r="F85" s="2"/>
     </row>
-    <row r="86" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>206</v>
       </c>
@@ -4028,7 +4033,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>209</v>
       </c>
@@ -4041,7 +4046,7 @@
       <c r="E87" s="2"/>
       <c r="F87" s="2"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>212</v>
       </c>
@@ -4057,7 +4062,7 @@
       <c r="E88" s="2"/>
       <c r="F88" s="2"/>
     </row>
-    <row r="89" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>215</v>
       </c>
@@ -4073,7 +4078,7 @@
       <c r="E89" s="2"/>
       <c r="F89" s="2"/>
     </row>
-    <row r="90" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>221</v>
       </c>
@@ -4089,7 +4094,7 @@
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>224</v>
       </c>
@@ -4105,7 +4110,7 @@
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
     </row>
-    <row r="92" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>227</v>
       </c>
@@ -4121,7 +4126,7 @@
       <c r="E92" s="2"/>
       <c r="F92" s="2"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>229</v>
       </c>
@@ -4134,7 +4139,7 @@
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>231</v>
       </c>
@@ -4147,7 +4152,7 @@
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
     </row>
-    <row r="95" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>233</v>
       </c>
@@ -4160,7 +4165,7 @@
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
     </row>
-    <row r="96" spans="1:9" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="28" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>236</v>
       </c>
@@ -4173,7 +4178,7 @@
       <c r="E96" s="2"/>
       <c r="F96" s="2"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>242</v>
       </c>
@@ -4189,7 +4194,7 @@
       <c r="E97" s="2"/>
       <c r="F97" s="2"/>
     </row>
-    <row r="98" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>239</v>
       </c>
@@ -4205,7 +4210,7 @@
       <c r="E98" s="2"/>
       <c r="F98" s="2"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>244</v>
       </c>
@@ -4221,7 +4226,7 @@
       <c r="E99" s="2"/>
       <c r="F99" s="2"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>247</v>
       </c>
@@ -4237,7 +4242,7 @@
       <c r="E100" s="2"/>
       <c r="F100" s="2"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>250</v>
       </c>
@@ -4250,7 +4255,7 @@
       <c r="E101" s="2"/>
       <c r="F101" s="2"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>253</v>
       </c>
@@ -4263,7 +4268,7 @@
       <c r="E102" s="2"/>
       <c r="F102" s="2"/>
     </row>
-    <row r="103" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>255</v>
       </c>
@@ -4276,7 +4281,7 @@
       <c r="E103" s="2"/>
       <c r="F103" s="2"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>258</v>
       </c>
@@ -4292,7 +4297,7 @@
       <c r="E104" s="2"/>
       <c r="F104" s="2"/>
     </row>
-    <row r="105" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>261</v>
       </c>
@@ -4311,8 +4316,11 @@
       <c r="F105" s="4" t="s">
         <v>521</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G105" s="9" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>263</v>
       </c>
@@ -4328,7 +4336,7 @@
       <c r="E106" s="2"/>
       <c r="F106" s="2"/>
     </row>
-    <row r="107" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:7" ht="42" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>265</v>
       </c>
@@ -4344,7 +4352,7 @@
       <c r="E107" s="2"/>
       <c r="F107" s="2"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>272</v>
       </c>
@@ -4360,7 +4368,7 @@
       <c r="E108" s="2"/>
       <c r="F108" s="2"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>274</v>
       </c>
@@ -4373,7 +4381,7 @@
       <c r="E109" s="2"/>
       <c r="F109" s="2"/>
     </row>
-    <row r="110" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>276</v>
       </c>
@@ -4386,7 +4394,7 @@
       <c r="E110" s="2"/>
       <c r="F110" s="2"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>278</v>
       </c>
@@ -4399,7 +4407,7 @@
       <c r="E111" s="2"/>
       <c r="F111" s="2"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>281</v>
       </c>
@@ -4412,7 +4420,7 @@
       <c r="E112" s="2"/>
       <c r="F112" s="2"/>
     </row>
-    <row r="113" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>283</v>
       </c>
@@ -4425,7 +4433,7 @@
       <c r="E113" s="2"/>
       <c r="F113" s="2"/>
     </row>
-    <row r="114" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A114" s="11" t="s">
         <v>285</v>
       </c>
@@ -4441,7 +4449,7 @@
       <c r="E114" s="2"/>
       <c r="F114" s="2"/>
     </row>
-    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="11"/>
       <c r="B115" s="2" t="s">
         <v>286</v>
@@ -4450,7 +4458,7 @@
       <c r="E115" s="2"/>
       <c r="F115" s="2"/>
     </row>
-    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="11"/>
       <c r="B116" s="2" t="s">
         <v>287</v>
@@ -4459,7 +4467,7 @@
       <c r="E116" s="2"/>
       <c r="F116" s="2"/>
     </row>
-    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>289</v>
       </c>
@@ -4472,7 +4480,7 @@
       <c r="E117" s="2"/>
       <c r="F117" s="2"/>
     </row>
-    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>291</v>
       </c>
@@ -4485,7 +4493,7 @@
       <c r="E118" s="2"/>
       <c r="F118" s="2"/>
     </row>
-    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>297</v>
       </c>
@@ -4501,7 +4509,7 @@
       <c r="E119" s="2"/>
       <c r="F119" s="2"/>
     </row>
-    <row r="120" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>300</v>
       </c>
@@ -4514,7 +4522,7 @@
       <c r="E120" s="2"/>
       <c r="F120" s="2"/>
     </row>
-    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>302</v>
       </c>
@@ -4537,7 +4545,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>306</v>
       </c>
@@ -4550,7 +4558,7 @@
       <c r="E122" s="2"/>
       <c r="F122" s="2"/>
     </row>
-    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>308</v>
       </c>
@@ -4566,7 +4574,7 @@
       <c r="E123" s="2"/>
       <c r="F123" s="2"/>
     </row>
-    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>311</v>
       </c>
@@ -4579,7 +4587,7 @@
       <c r="E124" s="2"/>
       <c r="F124" s="2"/>
     </row>
-    <row r="125" spans="1:7" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:7" ht="28" x14ac:dyDescent="0.3">
       <c r="A125" s="1" t="s">
         <v>314</v>
       </c>
@@ -4593,7 +4601,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="57" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:7" ht="56" x14ac:dyDescent="0.3">
       <c r="A126" s="1" t="s">
         <v>317</v>
       </c>
@@ -4604,7 +4612,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="1" t="s">
         <v>320</v>
       </c>
@@ -4618,7 +4626,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A128" s="1" t="s">
         <v>323</v>
       </c>
@@ -4632,7 +4640,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="1" t="s">
         <v>325</v>
       </c>
@@ -4643,7 +4651,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="1" t="s">
         <v>326</v>
       </c>
@@ -4654,7 +4662,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="131" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A131" s="1" t="s">
         <v>328</v>
       </c>
@@ -4668,7 +4676,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A132" s="1" t="s">
         <v>332</v>
       </c>
@@ -4679,7 +4687,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A133" s="1" t="s">
         <v>335</v>
       </c>
@@ -4690,7 +4698,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="42" x14ac:dyDescent="0.3">
       <c r="A134" s="1" t="s">
         <v>336</v>
       </c>
@@ -4704,7 +4712,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A135" s="1" t="s">
         <v>339</v>
       </c>
@@ -4715,7 +4723,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="1" t="s">
         <v>341</v>
       </c>
@@ -4726,7 +4734,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="1" t="s">
         <v>346</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="1" t="s">
         <v>348</v>
       </c>
@@ -4751,7 +4759,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="139" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A139" s="1" t="s">
         <v>353</v>
       </c>
@@ -4762,7 +4770,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="140" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A140" s="1" t="s">
         <v>356</v>
       </c>
@@ -4782,7 +4790,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="1" t="s">
         <v>362</v>
       </c>
@@ -4793,7 +4801,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="142" spans="1:6" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="28" x14ac:dyDescent="0.3">
       <c r="A142" s="1" t="s">
         <v>365</v>
       </c>
@@ -4804,7 +4812,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="1" t="s">
         <v>368</v>
       </c>
@@ -4815,7 +4823,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="1" t="s">
         <v>372</v>
       </c>
@@ -4826,7 +4834,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A145" s="1" t="s">
         <v>375</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="146" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A146" s="1" t="s">
         <v>377</v>
       </c>
@@ -4848,7 +4856,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A147" s="1" t="s">
         <v>379</v>
       </c>
@@ -4859,7 +4867,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A148" s="1" t="s">
         <v>381</v>
       </c>
@@ -4870,7 +4878,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A149" s="1" t="s">
         <v>383</v>
       </c>
@@ -4884,7 +4892,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="150" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A150" s="1" t="s">
         <v>388</v>
       </c>
@@ -4895,7 +4903,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A151" s="1" t="s">
         <v>391</v>
       </c>
@@ -4906,7 +4914,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A152" s="1" t="s">
         <v>393</v>
       </c>
@@ -4920,7 +4928,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A153" s="1" t="s">
         <v>396</v>
       </c>
@@ -4931,7 +4939,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A154" s="1" t="s">
         <v>399</v>
       </c>
@@ -4942,7 +4950,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A155" s="1" t="s">
         <v>401</v>
       </c>
@@ -4953,7 +4961,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A156" s="1" t="s">
         <v>405</v>
       </c>
@@ -4964,7 +4972,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="157" spans="1:4" ht="42.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4" ht="42" x14ac:dyDescent="0.3">
       <c r="A157" s="1" t="s">
         <v>408</v>
       </c>
@@ -4975,7 +4983,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A158" s="1" t="s">
         <v>410</v>
       </c>
@@ -4986,7 +4994,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A159" s="1" t="s">
         <v>413</v>
       </c>
@@ -5000,7 +5008,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A160" s="1" t="s">
         <v>414</v>
       </c>
@@ -5011,7 +5019,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="161" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A161" s="1" t="s">
         <v>418</v>
       </c>
@@ -5022,7 +5030,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A162" s="1" t="s">
         <v>422</v>
       </c>
@@ -5033,7 +5041,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A163" s="1" t="s">
         <v>423</v>
       </c>
@@ -5047,7 +5055,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A164" s="1" t="s">
         <v>428</v>
       </c>
@@ -5058,7 +5066,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A165" s="1" t="s">
         <v>431</v>
       </c>
@@ -5069,7 +5077,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A166" s="1" t="s">
         <v>434</v>
       </c>
@@ -5080,7 +5088,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="167" spans="1:4" ht="57" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4" ht="56" x14ac:dyDescent="0.3">
       <c r="A167" s="1" t="s">
         <v>435</v>
       </c>
@@ -5091,7 +5099,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="168" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A168" s="1" t="s">
         <v>437</v>
       </c>
@@ -5102,7 +5110,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A169" s="1" t="s">
         <v>439</v>
       </c>
@@ -5116,7 +5124,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A170" s="1" t="s">
         <v>441</v>
       </c>
@@ -5127,7 +5135,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A171" s="1" t="s">
         <v>446</v>
       </c>
@@ -5138,7 +5146,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A172" s="1" t="s">
         <v>457</v>
       </c>
@@ -5149,7 +5157,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A173" s="1" t="s">
         <v>460</v>
       </c>
@@ -5160,7 +5168,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A174" s="1" t="s">
         <v>462</v>
       </c>
@@ -5171,7 +5179,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A175" s="1" t="s">
         <v>465</v>
       </c>
@@ -5182,7 +5190,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A176" s="1" t="s">
         <v>466</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A177" s="1" t="s">
         <v>467</v>
       </c>
@@ -5204,7 +5212,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A178" s="1" t="s">
         <v>469</v>
       </c>
@@ -5215,7 +5223,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A179" s="1" t="s">
         <v>472</v>
       </c>
@@ -5226,7 +5234,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="180" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A180" s="1" t="s">
         <v>474</v>
       </c>
@@ -5237,7 +5245,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A181" s="1" t="s">
         <v>485</v>
       </c>
@@ -5248,7 +5256,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A182" s="12" t="s">
         <v>495</v>
       </c>
@@ -5259,7 +5267,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A183" s="12"/>
       <c r="B183" s="1" t="s">
         <v>492</v>
@@ -5268,7 +5276,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A184" s="12"/>
       <c r="B184" s="1" t="s">
         <v>493</v>
@@ -5277,7 +5285,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A185" s="12"/>
       <c r="B185" s="1" t="s">
         <v>494</v>
@@ -5286,7 +5294,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A186" s="12" t="s">
         <v>500</v>
       </c>
@@ -5297,7 +5305,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A187" s="12"/>
       <c r="B187" s="1" t="s">
         <v>497</v>
@@ -5306,7 +5314,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A188" s="12"/>
       <c r="B188" s="1" t="s">
         <v>498</v>
@@ -5315,7 +5323,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A189" s="12"/>
       <c r="B189" s="1" t="s">
         <v>499</v>
@@ -5324,7 +5332,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A190" s="1" t="s">
         <v>501</v>
       </c>
@@ -5335,7 +5343,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="191" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A191" s="1" t="s">
         <v>503</v>
       </c>
@@ -5346,7 +5354,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="192" spans="1:4" ht="28.5" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4" ht="28" x14ac:dyDescent="0.3">
       <c r="A192" s="1" t="s">
         <v>505</v>
       </c>
@@ -5360,7 +5368,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" s="1" t="s">
         <v>512</v>
       </c>
@@ -5371,7 +5379,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" s="12" t="s">
         <v>517</v>
       </c>
@@ -5382,7 +5390,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" s="12"/>
       <c r="B195" s="1" t="s">
         <v>516</v>
